--- a/etc/Delta_v2.xlsx
+++ b/etc/Delta_v2.xlsx
@@ -6,19 +6,19 @@
     <sheet state="visible" name="Delta" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Delta!$A$1:$K$185</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Delta!$A$1:$K$182</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mj1jReJnsYEove88hFUgzBnjZutOQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mggG35yN0BzEpGUAXY0NIUKbQo6sA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="562">
   <si>
     <t>Nº</t>
   </si>
@@ -602,7 +602,7 @@
     <t>EW_Mov_Soft_Trg_Mod_03</t>
   </si>
   <si>
-    <t>Enable module 01</t>
+    <t>Enable status module 01</t>
   </si>
   <si>
     <t>Mod01Enbl</t>
@@ -617,7 +617,7 @@
     <t>On</t>
   </si>
   <si>
-    <t>Enable module 02</t>
+    <t>Enable status module 02</t>
   </si>
   <si>
     <t>Mod02Enbl</t>
@@ -626,22 +626,13 @@
     <t>Modulo02.Enable</t>
   </si>
   <si>
-    <t>Enable module 03</t>
+    <t>Enable status module 03</t>
   </si>
   <si>
     <t>Mod03Enbl</t>
   </si>
   <si>
     <t>Modulo03.Enable</t>
-  </si>
-  <si>
-    <t>Enable status module 01</t>
-  </si>
-  <si>
-    <t>Enable status module 02</t>
-  </si>
-  <si>
-    <t>Enable status module 03</t>
   </si>
   <si>
     <t>Position module 01</t>
@@ -2385,7 +2376,7 @@
         <v>28</v>
       </c>
       <c r="F2" s="13" t="str">
-        <f t="shared" ref="F2:F320" si="1">C2&amp;D2&amp;E2</f>
+        <f t="shared" ref="F2:F317" si="1">C2&amp;D2&amp;E2</f>
         <v>$(P)$(R)Mod01Coup-Sts</v>
       </c>
       <c r="G2" s="14" t="s">
@@ -5678,7 +5669,7 @@
     </row>
     <row r="52" ht="13.5" customHeight="1">
       <c r="A52" s="8">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>194</v>
@@ -5690,17 +5681,17 @@
         <v>195</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="F52" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01Enbl-Sel</v>
-      </c>
-      <c r="G52" s="15" t="s">
+        <v>$(P)$(R)Mod01Enbl-Mon</v>
+      </c>
+      <c r="G52" s="14" t="s">
         <v>70</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="I52" s="15"/>
       <c r="J52" s="14" t="s">
@@ -5742,7 +5733,7 @@
     </row>
     <row r="53" ht="13.5" customHeight="1">
       <c r="A53" s="8">
-        <v>52.0</v>
+        <v>55.0</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>199</v>
@@ -5754,17 +5745,17 @@
         <v>200</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="F53" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02Enbl-Sel</v>
+        <v>$(P)$(R)Mod02Enbl-Mon</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>70</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="I53" s="15"/>
       <c r="J53" s="14" t="s">
@@ -5806,7 +5797,7 @@
     </row>
     <row r="54" ht="13.5" customHeight="1">
       <c r="A54" s="8">
-        <v>53.0</v>
+        <v>56.0</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>202</v>
@@ -5818,17 +5809,17 @@
         <v>203</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="F54" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03Enbl-Sel</v>
-      </c>
-      <c r="G54" s="15" t="s">
+        <v>$(P)$(R)Mod03Enbl-Mon</v>
+      </c>
+      <c r="G54" s="14" t="s">
         <v>70</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="I54" s="15"/>
       <c r="J54" s="14" t="s">
@@ -5870,7 +5861,7 @@
     </row>
     <row r="55" ht="13.5" customHeight="1">
       <c r="A55" s="8">
-        <v>54.0</v>
+        <v>57.0</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>205</v>
@@ -5879,37 +5870,35 @@
         <v>26</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>28</v>
+        <v>206</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="F55" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01Enbl-Sts</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>70</v>
+        <v>$(P)$(R)Mod01RelPos-SP</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>208</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I55" s="15"/>
+        <v>150</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>209</v>
+      </c>
       <c r="J55" s="14" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="K55" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L55" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="M55" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="N55" s="17" t="s">
-        <v>198</v>
-      </c>
+      <c r="L55" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
       <c r="O55" s="17"/>
       <c r="P55" s="17"/>
       <c r="Q55" s="17"/>
@@ -5934,46 +5923,44 @@
     </row>
     <row r="56" ht="13.5" customHeight="1">
       <c r="A56" s="8">
-        <v>55.0</v>
+        <v>58.0</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>28</v>
+        <v>212</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="F56" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02Enbl-Sts</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I56" s="15"/>
+        <v>$(P)$(R)Mod02RelPos-SP</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>209</v>
+      </c>
       <c r="J56" s="14" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="K56" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L56" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="M56" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="N56" s="17" t="s">
-        <v>198</v>
-      </c>
+      <c r="L56" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
       <c r="O56" s="17"/>
       <c r="P56" s="17"/>
       <c r="Q56" s="17"/>
@@ -5998,46 +5985,44 @@
     </row>
     <row r="57" ht="13.5" customHeight="1">
       <c r="A57" s="8">
-        <v>56.0</v>
+        <v>59.0</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>28</v>
+        <v>215</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="F57" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03Enbl-Sts</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I57" s="15"/>
+        <v>$(P)$(R)Mod03RelPos-SP</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>209</v>
+      </c>
       <c r="J57" s="14" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="K57" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L57" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="M57" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="N57" s="17" t="s">
-        <v>198</v>
-      </c>
+      <c r="L57" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
       <c r="O57" s="17"/>
       <c r="P57" s="17"/>
       <c r="Q57" s="17"/>
@@ -6062,35 +6047,35 @@
     </row>
     <row r="58" ht="13.5" customHeight="1">
       <c r="A58" s="8">
-        <v>57.0</v>
+        <v>60.0</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E58" s="24" t="s">
-        <v>210</v>
+        <v>206</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="F58" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01RelPos-SP</v>
+        <v>$(P)$(R)Mod01RelPos-RB</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H58" s="14" t="s">
-        <v>150</v>
+        <v>208</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K58" s="16" t="s">
         <v>32</v>
@@ -6124,35 +6109,35 @@
     </row>
     <row r="59" ht="13.5" customHeight="1">
       <c r="A59" s="8">
-        <v>58.0</v>
+        <v>61.0</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="E59" s="24" t="s">
-        <v>210</v>
+        <v>212</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="F59" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02RelPos-SP</v>
+        <v>$(P)$(R)Mod02RelPos-RB</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H59" s="14" t="s">
-        <v>150</v>
+        <v>208</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K59" s="16" t="s">
         <v>32</v>
@@ -6186,35 +6171,35 @@
     </row>
     <row r="60" ht="13.5" customHeight="1">
       <c r="A60" s="8">
-        <v>59.0</v>
+        <v>62.0</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D60" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E60" s="12" t="s">
         <v>218</v>
-      </c>
-      <c r="E60" s="24" t="s">
-        <v>210</v>
       </c>
       <c r="F60" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03RelPos-SP</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H60" s="14" t="s">
-        <v>150</v>
+        <v>$(P)$(R)Mod03RelPos-RB</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K60" s="16" t="s">
         <v>32</v>
@@ -6248,35 +6233,35 @@
     </row>
     <row r="61" ht="13.5" customHeight="1">
       <c r="A61" s="8">
-        <v>60.0</v>
+        <v>63.0</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="F61" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01RelPos-RB</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>30</v>
+        <v>$(P)$(R)Mod01Velo-SP</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="K61" s="16" t="s">
         <v>32</v>
@@ -6310,35 +6295,35 @@
     </row>
     <row r="62" ht="13.5" customHeight="1">
       <c r="A62" s="8">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>221</v>
+        <v>226</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="F62" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02RelPos-RB</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>30</v>
+        <v>$(P)$(R)Mod02Velo-SP</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="K62" s="16" t="s">
         <v>32</v>
@@ -6372,35 +6357,35 @@
     </row>
     <row r="63" ht="13.5" customHeight="1">
       <c r="A63" s="8">
-        <v>62.0</v>
+        <v>65.0</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>221</v>
+        <v>229</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="F63" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03RelPos-RB</v>
-      </c>
-      <c r="G63" s="14" t="s">
-        <v>211</v>
+        <v>$(P)$(R)Mod03Velo-SP</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>208</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="K63" s="16" t="s">
         <v>32</v>
@@ -6434,35 +6419,35 @@
     </row>
     <row r="64" ht="13.5" customHeight="1">
       <c r="A64" s="8">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="E64" s="24" t="s">
-        <v>210</v>
+        <v>222</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="F64" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01Velo-SP</v>
+        <v>$(P)$(R)Mod01Velo-RB</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="I64" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K64" s="16" t="s">
         <v>32</v>
@@ -6496,35 +6481,35 @@
     </row>
     <row r="65" ht="13.5" customHeight="1">
       <c r="A65" s="8">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="E65" s="24" t="s">
-        <v>210</v>
+        <v>226</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="F65" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02Velo-SP</v>
-      </c>
-      <c r="G65" s="14" t="s">
-        <v>211</v>
+        <v>$(P)$(R)Mod02Velo-RB</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>208</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J65" s="14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K65" s="16" t="s">
         <v>32</v>
@@ -6558,35 +6543,35 @@
     </row>
     <row r="66" ht="13.5" customHeight="1">
       <c r="A66" s="8">
-        <v>65.0</v>
+        <v>68.0</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="E66" s="24" t="s">
-        <v>210</v>
+        <v>229</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="F66" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03Velo-SP</v>
+        <v>$(P)$(R)Mod03Velo-RB</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K66" s="16" t="s">
         <v>32</v>
@@ -6620,7 +6605,7 @@
     </row>
     <row r="67" ht="13.5" customHeight="1">
       <c r="A67" s="8">
-        <v>66.0</v>
+        <v>69.0</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>234</v>
@@ -6629,26 +6614,26 @@
         <v>26</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>221</v>
+        <v>235</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="F67" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01Velo-RB</v>
-      </c>
-      <c r="G67" s="14" t="s">
-        <v>211</v>
+        <v>$(P)$(R)Mod01MovTime-SP</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>208</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="K67" s="16" t="s">
         <v>32</v>
@@ -6682,35 +6667,35 @@
     </row>
     <row r="68" ht="13.5" customHeight="1">
       <c r="A68" s="8">
-        <v>67.0</v>
+        <v>70.0</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>221</v>
+        <v>239</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="F68" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02Velo-RB</v>
+        <v>$(P)$(R)Mod02MovTime-SP</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="J68" s="14" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="K68" s="16" t="s">
         <v>32</v>
@@ -6744,35 +6729,35 @@
     </row>
     <row r="69" ht="13.5" customHeight="1">
       <c r="A69" s="8">
-        <v>68.0</v>
+        <v>71.0</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>221</v>
+        <v>242</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="F69" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03Velo-RB</v>
+        <v>$(P)$(R)Mod03MovTime-SP</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>30</v>
+        <v>208</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="K69" s="16" t="s">
         <v>32</v>
@@ -6806,35 +6791,35 @@
     </row>
     <row r="70" ht="13.5" customHeight="1">
       <c r="A70" s="8">
-        <v>69.0</v>
+        <v>72.0</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="E70" s="24" t="s">
-        <v>210</v>
+        <v>235</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="F70" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01MovTime-SP</v>
+        <v>$(P)$(R)Mod01MovTime-RB</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H70" s="14" t="s">
-        <v>150</v>
+        <v>208</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="I70" s="14" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J70" s="14" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K70" s="16" t="s">
         <v>32</v>
@@ -6868,35 +6853,35 @@
     </row>
     <row r="71" ht="13.5" customHeight="1">
       <c r="A71" s="8">
-        <v>70.0</v>
+        <v>73.0</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="E71" s="24" t="s">
-        <v>210</v>
+        <v>239</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="F71" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02MovTime-SP</v>
+        <v>$(P)$(R)Mod02MovTime-RB</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H71" s="14" t="s">
-        <v>150</v>
+        <v>208</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="I71" s="14" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J71" s="14" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K71" s="16" t="s">
         <v>32</v>
@@ -6930,35 +6915,35 @@
     </row>
     <row r="72" ht="13.5" customHeight="1">
       <c r="A72" s="8">
-        <v>71.0</v>
+        <v>74.0</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E72" s="24" t="s">
-        <v>210</v>
+        <v>242</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="F72" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03MovTime-SP</v>
+        <v>$(P)$(R)Mod03MovTime-RB</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H72" s="14" t="s">
-        <v>150</v>
+        <v>208</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="I72" s="14" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K72" s="16" t="s">
         <v>32</v>
@@ -6992,7 +6977,7 @@
     </row>
     <row r="73" ht="13.5" customHeight="1">
       <c r="A73" s="8">
-        <v>72.0</v>
+        <v>75.0</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>247</v>
@@ -7001,26 +6986,26 @@
         <v>26</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>221</v>
+        <v>248</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="F73" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01MovTime-RB</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H73" s="15" t="s">
-        <v>30</v>
+        <v>$(P)$(R)Mod01Acc-SP</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="I73" s="14" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="K73" s="16" t="s">
         <v>32</v>
@@ -7054,35 +7039,35 @@
     </row>
     <row r="74" ht="13.5" customHeight="1">
       <c r="A74" s="8">
-        <v>73.0</v>
+        <v>76.0</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>221</v>
+        <v>252</v>
+      </c>
+      <c r="E74" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="F74" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02MovTime-RB</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H74" s="15" t="s">
-        <v>30</v>
+        <v>$(P)$(R)Mod02Acc-SP</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="I74" s="14" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="K74" s="16" t="s">
         <v>32</v>
@@ -7116,35 +7101,35 @@
     </row>
     <row r="75" ht="13.5" customHeight="1">
       <c r="A75" s="8">
-        <v>74.0</v>
+        <v>77.0</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>221</v>
+        <v>255</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="F75" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03MovTime-RB</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H75" s="15" t="s">
-        <v>30</v>
+        <v>$(P)$(R)Mod03Acc-SP</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="K75" s="16" t="s">
         <v>32</v>
@@ -7178,35 +7163,35 @@
     </row>
     <row r="76" ht="13.5" customHeight="1">
       <c r="A76" s="8">
-        <v>75.0</v>
+        <v>78.0</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="E76" s="24" t="s">
-        <v>210</v>
+        <v>248</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="F76" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01Acc-SP</v>
+        <v>$(P)$(R)Mod01Acc-RB</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K76" s="16" t="s">
         <v>32</v>
@@ -7240,35 +7225,35 @@
     </row>
     <row r="77" ht="13.5" customHeight="1">
       <c r="A77" s="8">
-        <v>76.0</v>
+        <v>79.0</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="E77" s="24" t="s">
-        <v>210</v>
+        <v>252</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="F77" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02Acc-SP</v>
+        <v>$(P)$(R)Mod02Acc-RB</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K77" s="16" t="s">
         <v>32</v>
@@ -7302,35 +7287,35 @@
     </row>
     <row r="78" ht="13.5" customHeight="1">
       <c r="A78" s="8">
-        <v>77.0</v>
+        <v>80.0</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="E78" s="24" t="s">
-        <v>210</v>
+        <v>255</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="F78" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03Acc-SP</v>
-      </c>
-      <c r="G78" s="14" t="s">
-        <v>211</v>
+        <v>$(P)$(R)Mod03Acc-RB</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>208</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="I78" s="14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K78" s="16" t="s">
         <v>32</v>
@@ -7364,7 +7349,7 @@
     </row>
     <row r="79" ht="13.5" customHeight="1">
       <c r="A79" s="8">
-        <v>78.0</v>
+        <v>81.0</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>260</v>
@@ -7373,26 +7358,26 @@
         <v>26</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="E79" s="12" t="s">
-        <v>221</v>
+        <v>261</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="F79" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01Acc-RB</v>
-      </c>
-      <c r="G79" s="14" t="s">
-        <v>211</v>
+        <v>$(P)$(R)Mod01Decel-SP</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>208</v>
       </c>
       <c r="H79" s="14" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="I79" s="14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="K79" s="16" t="s">
         <v>32</v>
@@ -7426,35 +7411,35 @@
     </row>
     <row r="80" ht="13.5" customHeight="1">
       <c r="A80" s="8">
-        <v>79.0</v>
+        <v>82.0</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>221</v>
+        <v>264</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="F80" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02Acc-RB</v>
-      </c>
-      <c r="G80" s="14" t="s">
-        <v>211</v>
+        <v>$(P)$(R)Mod02Decel-SP</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>208</v>
       </c>
       <c r="H80" s="14" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="K80" s="16" t="s">
         <v>32</v>
@@ -7488,35 +7473,35 @@
     </row>
     <row r="81" ht="13.5" customHeight="1">
       <c r="A81" s="8">
-        <v>80.0</v>
+        <v>83.0</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>221</v>
+        <v>267</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="F81" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03Acc-RB</v>
+        <v>$(P)$(R)Mod03Decel-SP</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H81" s="14" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="K81" s="16" t="s">
         <v>32</v>
@@ -7550,35 +7535,35 @@
     </row>
     <row r="82" ht="13.5" customHeight="1">
       <c r="A82" s="8">
-        <v>81.0</v>
+        <v>84.0</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="E82" s="24" t="s">
-        <v>210</v>
+        <v>261</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="F82" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01Decel-SP</v>
+        <v>$(P)$(R)Mod01Decel-RB</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H82" s="14" t="s">
-        <v>150</v>
+        <v>208</v>
+      </c>
+      <c r="H82" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K82" s="16" t="s">
         <v>32</v>
@@ -7612,35 +7597,35 @@
     </row>
     <row r="83" ht="13.5" customHeight="1">
       <c r="A83" s="8">
-        <v>82.0</v>
+        <v>85.0</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="E83" s="24" t="s">
-        <v>210</v>
+        <v>264</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="F83" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02Decel-SP</v>
+        <v>$(P)$(R)Mod02Decel-RB</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H83" s="14" t="s">
-        <v>150</v>
+        <v>208</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J83" s="14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K83" s="16" t="s">
         <v>32</v>
@@ -7674,35 +7659,35 @@
     </row>
     <row r="84" ht="13.5" customHeight="1">
       <c r="A84" s="8">
-        <v>83.0</v>
+        <v>86.0</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="E84" s="24" t="s">
-        <v>210</v>
+        <v>267</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="F84" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03Decel-SP</v>
+        <v>$(P)$(R)Mod03Decel-RB</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H84" s="14" t="s">
-        <v>150</v>
+        <v>208</v>
+      </c>
+      <c r="H84" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K84" s="16" t="s">
         <v>32</v>
@@ -7736,7 +7721,7 @@
     </row>
     <row r="85" ht="13.5" customHeight="1">
       <c r="A85" s="8">
-        <v>84.0</v>
+        <v>87.0</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>272</v>
@@ -7745,26 +7730,26 @@
         <v>26</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>221</v>
+        <v>81</v>
       </c>
       <c r="F85" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01Decel-RB</v>
+        <v>$(P)$(R)Mod01VirtCIDActualPos-Mon</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H85" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I85" s="14" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="K85" s="16" t="s">
         <v>32</v>
@@ -7798,35 +7783,35 @@
     </row>
     <row r="86" ht="13.5" customHeight="1">
       <c r="A86" s="8">
-        <v>85.0</v>
+        <v>88.0</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>221</v>
+        <v>81</v>
       </c>
       <c r="F86" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02Decel-RB</v>
-      </c>
-      <c r="G86" s="15" t="s">
-        <v>211</v>
+        <v>$(P)$(R)Mod01VirtCIEActualPos-Mon</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="H86" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="J86" s="14" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="K86" s="16" t="s">
         <v>32</v>
@@ -7860,35 +7845,35 @@
     </row>
     <row r="87" ht="13.5" customHeight="1">
       <c r="A87" s="8">
-        <v>86.0</v>
+        <v>89.0</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>221</v>
+        <v>81</v>
       </c>
       <c r="F87" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03Decel-RB</v>
-      </c>
-      <c r="G87" s="15" t="s">
-        <v>211</v>
+        <v>$(P)$(R)Mod01VirtCSDActualPos-Mon</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="H87" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="J87" s="14" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="K87" s="16" t="s">
         <v>32</v>
@@ -7922,35 +7907,35 @@
     </row>
     <row r="88" ht="13.5" customHeight="1">
       <c r="A88" s="8">
-        <v>87.0</v>
+        <v>90.0</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E88" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F88" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01VirtCIDActualPos-Mon</v>
-      </c>
-      <c r="G88" s="15" t="s">
-        <v>211</v>
+        <v>$(P)$(R)Mod01VirtCSEActualPos-Mon</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="H88" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I88" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J88" s="14" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="K88" s="16" t="s">
         <v>32</v>
@@ -7984,35 +7969,35 @@
     </row>
     <row r="89" ht="13.5" customHeight="1">
       <c r="A89" s="8">
-        <v>88.0</v>
+        <v>91.0</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E89" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F89" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01VirtCIEActualPos-Mon</v>
+        <v>$(P)$(R)Mod02VirtCIDActualPos-Mon</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="H89" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="H89" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J89" s="14" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="K89" s="16" t="s">
         <v>32</v>
@@ -8046,35 +8031,35 @@
     </row>
     <row r="90" ht="13.5" customHeight="1">
       <c r="A90" s="8">
-        <v>89.0</v>
+        <v>92.0</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E90" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F90" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01VirtCSDActualPos-Mon</v>
+        <v>$(P)$(R)Mod02VirtCIEActualPos-Mon</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="H90" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="H90" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I90" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J90" s="14" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="K90" s="16" t="s">
         <v>32</v>
@@ -8108,35 +8093,35 @@
     </row>
     <row r="91" ht="13.5" customHeight="1">
       <c r="A91" s="8">
-        <v>90.0</v>
+        <v>93.0</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E91" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F91" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01VirtCSEActualPos-Mon</v>
-      </c>
-      <c r="G91" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="H91" s="15" t="s">
+        <v>$(P)$(R)Mod02VirtCSDActualPos-Mon</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="H91" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I91" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J91" s="14" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K91" s="16" t="s">
         <v>32</v>
@@ -8170,35 +8155,35 @@
     </row>
     <row r="92" ht="13.5" customHeight="1">
       <c r="A92" s="8">
-        <v>91.0</v>
+        <v>94.0</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F92" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02VirtCIDActualPos-Mon</v>
-      </c>
-      <c r="G92" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="H92" s="14" t="s">
+        <v>$(P)$(R)Mod02VirtCSEActualPos-Mon</v>
+      </c>
+      <c r="G92" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="H92" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I92" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J92" s="14" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="K92" s="16" t="s">
         <v>32</v>
@@ -8232,35 +8217,35 @@
     </row>
     <row r="93" ht="13.5" customHeight="1">
       <c r="A93" s="8">
-        <v>92.0</v>
+        <v>95.0</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E93" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F93" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02VirtCIEActualPos-Mon</v>
-      </c>
-      <c r="G93" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="H93" s="14" t="s">
+        <v>$(P)$(R)Mod03VirtCIDActualPos-Mon</v>
+      </c>
+      <c r="G93" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="H93" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I93" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J93" s="14" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="K93" s="16" t="s">
         <v>32</v>
@@ -8293,36 +8278,36 @@
       <c r="AI93" s="18"/>
     </row>
     <row r="94" ht="13.5" customHeight="1">
-      <c r="A94" s="8">
-        <v>93.0</v>
+      <c r="A94" s="25">
+        <v>96.0</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C94" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="E94" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F94" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02VirtCSDActualPos-Mon</v>
+        <v>$(P)$(R)Mod03VirtCIEActualPos-Mon</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H94" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="H94" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J94" s="14" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="K94" s="16" t="s">
         <v>32</v>
@@ -8355,36 +8340,36 @@
       <c r="AI94" s="18"/>
     </row>
     <row r="95" ht="13.5" customHeight="1">
-      <c r="A95" s="8">
-        <v>94.0</v>
+      <c r="A95" s="25">
+        <v>97.0</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C95" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E95" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F95" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02VirtCSEActualPos-Mon</v>
+        <v>$(P)$(R)Mod03VirtCSDActualPos-Mon</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H95" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J95" s="14" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="K95" s="16" t="s">
         <v>32</v>
@@ -8417,36 +8402,36 @@
       <c r="AI95" s="18"/>
     </row>
     <row r="96" ht="13.5" customHeight="1">
-      <c r="A96" s="8">
-        <v>95.0</v>
+      <c r="A96" s="25">
+        <v>98.0</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C96" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="E96" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F96" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03VirtCIDActualPos-Mon</v>
+        <v>$(P)$(R)Mod03VirtCSEActualPos-Mon</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H96" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J96" s="14" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K96" s="16" t="s">
         <v>32</v>
@@ -8480,35 +8465,35 @@
     </row>
     <row r="97" ht="13.5" customHeight="1">
       <c r="A97" s="25">
-        <v>96.0</v>
+        <v>99.0</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C97" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="E97" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F97" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03VirtCIEActualPos-Mon</v>
+        <v>$(P)$(R)Mod01VirtCIDActualVelo-Mon</v>
       </c>
       <c r="G97" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H97" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I97" s="14" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="J97" s="14" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="K97" s="16" t="s">
         <v>32</v>
@@ -8542,35 +8527,35 @@
     </row>
     <row r="98" ht="13.5" customHeight="1">
       <c r="A98" s="25">
-        <v>97.0</v>
+        <v>100.0</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C98" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E98" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F98" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03VirtCSDActualPos-Mon</v>
+        <v>$(P)$(R)Mod01VirtCIEActualVelo-Mon</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H98" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I98" s="14" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="J98" s="14" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="K98" s="16" t="s">
         <v>32</v>
@@ -8604,35 +8589,35 @@
     </row>
     <row r="99" ht="13.5" customHeight="1">
       <c r="A99" s="25">
-        <v>98.0</v>
+        <v>101.0</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C99" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E99" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F99" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03VirtCSEActualPos-Mon</v>
+        <v>$(P)$(R)Mod01VirtCSDActualVelo-Mon</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H99" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I99" s="14" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="J99" s="14" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K99" s="16" t="s">
         <v>32</v>
@@ -8666,35 +8651,35 @@
     </row>
     <row r="100" ht="13.5" customHeight="1">
       <c r="A100" s="25">
-        <v>99.0</v>
+        <v>102.0</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C100" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="E100" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F100" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01VirtCIDActualVelo-Mon</v>
+        <v>$(P)$(R)Mod01VirtCSEActualVelo-Mon</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H100" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I100" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J100" s="14" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="K100" s="16" t="s">
         <v>32</v>
@@ -8728,35 +8713,35 @@
     </row>
     <row r="101" ht="13.5" customHeight="1">
       <c r="A101" s="25">
-        <v>100.0</v>
+        <v>103.0</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C101" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="E101" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F101" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01VirtCIEActualVelo-Mon</v>
+        <v>$(P)$(R)Mod02VirtCIDActualVelo-Mon</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H101" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I101" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J101" s="14" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K101" s="16" t="s">
         <v>32</v>
@@ -8790,35 +8775,35 @@
     </row>
     <row r="102" ht="13.5" customHeight="1">
       <c r="A102" s="25">
-        <v>101.0</v>
+        <v>104.0</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C102" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E102" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F102" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01VirtCSDActualVelo-Mon</v>
+        <v>$(P)$(R)Mod02VirtCIEActualVelo-Mon</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H102" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I102" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J102" s="14" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="K102" s="16" t="s">
         <v>32</v>
@@ -8852,35 +8837,35 @@
     </row>
     <row r="103" ht="13.5" customHeight="1">
       <c r="A103" s="25">
-        <v>102.0</v>
+        <v>105.0</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C103" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="E103" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F103" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01VirtCSEActualVelo-Mon</v>
+        <v>$(P)$(R)Mod02VirtCSDActualVelo-Mon</v>
       </c>
       <c r="G103" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H103" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I103" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J103" s="14" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="K103" s="16" t="s">
         <v>32</v>
@@ -8914,35 +8899,35 @@
     </row>
     <row r="104" ht="13.5" customHeight="1">
       <c r="A104" s="25">
-        <v>103.0</v>
+        <v>106.0</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C104" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="E104" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F104" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02VirtCIDActualVelo-Mon</v>
+        <v>$(P)$(R)Mod02VirtCSEActualVelo-Mon</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H104" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I104" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J104" s="14" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K104" s="16" t="s">
         <v>32</v>
@@ -8976,35 +8961,35 @@
     </row>
     <row r="105" ht="13.5" customHeight="1">
       <c r="A105" s="25">
-        <v>104.0</v>
+        <v>107.0</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C105" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="E105" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F105" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02VirtCIEActualVelo-Mon</v>
+        <v>$(P)$(R)Mod03VirtCIDActualVelo-Mon</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H105" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I105" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J105" s="14" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K105" s="16" t="s">
         <v>32</v>
@@ -9038,35 +9023,35 @@
     </row>
     <row r="106" ht="13.5" customHeight="1">
       <c r="A106" s="25">
-        <v>105.0</v>
+        <v>108.0</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="E106" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F106" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02VirtCSDActualVelo-Mon</v>
+        <v>$(P)$(R)Mod03VirtCIEActualVelo-Mon</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H106" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I106" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J106" s="14" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="K106" s="16" t="s">
         <v>32</v>
@@ -9100,35 +9085,35 @@
     </row>
     <row r="107" ht="13.5" customHeight="1">
       <c r="A107" s="25">
-        <v>106.0</v>
+        <v>109.0</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C107" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="E107" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F107" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02VirtCSEActualVelo-Mon</v>
+        <v>$(P)$(R)Mod03VirtCSDActualVelo-Mon</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H107" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I107" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J107" s="14" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K107" s="16" t="s">
         <v>32</v>
@@ -9162,35 +9147,35 @@
     </row>
     <row r="108" ht="13.5" customHeight="1">
       <c r="A108" s="25">
-        <v>107.0</v>
+        <v>110.0</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C108" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="E108" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F108" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03VirtCIDActualVelo-Mon</v>
+        <v>$(P)$(R)Mod03VirtCSEActualVelo-Mon</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H108" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I108" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J108" s="14" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="K108" s="16" t="s">
         <v>32</v>
@@ -9224,35 +9209,35 @@
     </row>
     <row r="109" ht="13.5" customHeight="1">
       <c r="A109" s="25">
-        <v>108.0</v>
+        <v>111.0</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="E109" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F109" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03VirtCIEActualVelo-Mon</v>
+        <v>$(P)$(R)Mod01PhyCIDActualPos-Mon</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H109" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I109" s="14" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="J109" s="14" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K109" s="16" t="s">
         <v>32</v>
@@ -9286,35 +9271,35 @@
     </row>
     <row r="110" ht="13.5" customHeight="1">
       <c r="A110" s="25">
-        <v>109.0</v>
+        <v>112.0</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C110" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E110" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F110" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03VirtCSDActualVelo-Mon</v>
+        <v>$(P)$(R)Mod01PhyCIEActualPos-Mon</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H110" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I110" s="14" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="J110" s="14" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="K110" s="16" t="s">
         <v>32</v>
@@ -9348,35 +9333,35 @@
     </row>
     <row r="111" ht="13.5" customHeight="1">
       <c r="A111" s="25">
-        <v>110.0</v>
+        <v>113.0</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C111" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="E111" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F111" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03VirtCSEActualVelo-Mon</v>
+        <v>$(P)$(R)Mod01PhyCSDActualPos-Mon</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H111" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I111" s="14" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="J111" s="14" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="K111" s="16" t="s">
         <v>32</v>
@@ -9410,35 +9395,35 @@
     </row>
     <row r="112" ht="13.5" customHeight="1">
       <c r="A112" s="25">
-        <v>111.0</v>
+        <v>114.0</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C112" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E112" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F112" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01PhyCIDActualPos-Mon</v>
+        <v>$(P)$(R)Mod01PhyCSEActualPos-Mon</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H112" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I112" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J112" s="14" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K112" s="16" t="s">
         <v>32</v>
@@ -9472,35 +9457,35 @@
     </row>
     <row r="113" ht="13.5" customHeight="1">
       <c r="A113" s="25">
-        <v>112.0</v>
+        <v>115.0</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C113" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="E113" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F113" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01PhyCIEActualPos-Mon</v>
+        <v>$(P)$(R)Mod02PhyCIDActualPos-Mon</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H113" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I113" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J113" s="14" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="K113" s="16" t="s">
         <v>32</v>
@@ -9534,35 +9519,35 @@
     </row>
     <row r="114" ht="13.5" customHeight="1">
       <c r="A114" s="25">
-        <v>113.0</v>
+        <v>116.0</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C114" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="E114" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F114" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01PhyCSDActualPos-Mon</v>
+        <v>$(P)$(R)Mod02PhyCIEActualPos-Mon</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H114" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I114" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J114" s="14" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="K114" s="16" t="s">
         <v>32</v>
@@ -9596,35 +9581,35 @@
     </row>
     <row r="115" ht="13.5" customHeight="1">
       <c r="A115" s="25">
-        <v>114.0</v>
+        <v>117.0</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C115" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E115" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F115" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01PhyCSEActualPos-Mon</v>
+        <v>$(P)$(R)Mod02PhyCSDActualPos-Mon</v>
       </c>
       <c r="G115" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H115" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I115" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J115" s="14" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="K115" s="16" t="s">
         <v>32</v>
@@ -9658,35 +9643,35 @@
     </row>
     <row r="116" ht="13.5" customHeight="1">
       <c r="A116" s="25">
-        <v>115.0</v>
+        <v>118.0</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C116" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="E116" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F116" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02PhyCIDActualPos-Mon</v>
+        <v>$(P)$(R)Mod02PhyCSEActualPos-Mon</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H116" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I116" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J116" s="14" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="K116" s="16" t="s">
         <v>32</v>
@@ -9720,35 +9705,35 @@
     </row>
     <row r="117" ht="13.5" customHeight="1">
       <c r="A117" s="25">
-        <v>116.0</v>
+        <v>119.0</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C117" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="E117" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F117" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02PhyCIEActualPos-Mon</v>
+        <v>$(P)$(R)Mod03PhyCIDActualPos-Mon</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H117" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I117" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J117" s="14" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="K117" s="16" t="s">
         <v>32</v>
@@ -9782,35 +9767,35 @@
     </row>
     <row r="118" ht="13.5" customHeight="1">
       <c r="A118" s="25">
-        <v>117.0</v>
+        <v>120.0</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C118" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="E118" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F118" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02PhyCSDActualPos-Mon</v>
+        <v>$(P)$(R)Mod03PhyCIEActualPos-Mon</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H118" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I118" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J118" s="14" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="K118" s="16" t="s">
         <v>32</v>
@@ -9844,35 +9829,35 @@
     </row>
     <row r="119" ht="13.5" customHeight="1">
       <c r="A119" s="25">
-        <v>118.0</v>
+        <v>121.0</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C119" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="E119" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F119" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02PhyCSEActualPos-Mon</v>
+        <v>$(P)$(R)Mod03PhyCSDActualPos-Mon</v>
       </c>
       <c r="G119" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H119" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I119" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J119" s="14" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="K119" s="16" t="s">
         <v>32</v>
@@ -9906,35 +9891,35 @@
     </row>
     <row r="120" ht="13.5" customHeight="1">
       <c r="A120" s="25">
-        <v>119.0</v>
+        <v>122.0</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C120" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="E120" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F120" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03PhyCIDActualPos-Mon</v>
+        <v>$(P)$(R)Mod03PhyCSEActualPos-Mon</v>
       </c>
       <c r="G120" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H120" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I120" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J120" s="14" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="K120" s="16" t="s">
         <v>32</v>
@@ -9968,35 +9953,35 @@
     </row>
     <row r="121" ht="13.5" customHeight="1">
       <c r="A121" s="25">
-        <v>120.0</v>
+        <v>123.0</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C121" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="E121" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F121" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03PhyCIEActualPos-Mon</v>
-      </c>
-      <c r="G121" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H121" s="15" t="s">
+        <v>$(P)$(R)Mod01PhyCIDActualVelo-Mon</v>
+      </c>
+      <c r="G121" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="H121" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I121" s="14" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="J121" s="14" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="K121" s="16" t="s">
         <v>32</v>
@@ -10030,35 +10015,35 @@
     </row>
     <row r="122" ht="13.5" customHeight="1">
       <c r="A122" s="25">
-        <v>121.0</v>
+        <v>124.0</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C122" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="E122" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F122" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03PhyCSDActualPos-Mon</v>
-      </c>
-      <c r="G122" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H122" s="15" t="s">
+        <v>$(P)$(R)Mod01PhyCIEActualVelo-Mon</v>
+      </c>
+      <c r="G122" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="H122" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I122" s="14" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="J122" s="14" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="K122" s="16" t="s">
         <v>32</v>
@@ -10092,35 +10077,35 @@
     </row>
     <row r="123" ht="13.5" customHeight="1">
       <c r="A123" s="25">
-        <v>122.0</v>
+        <v>125.0</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C123" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="E123" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F123" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03PhyCSEActualPos-Mon</v>
-      </c>
-      <c r="G123" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H123" s="15" t="s">
+        <v>$(P)$(R)Mod01PhyCSDActualVelo-Mon</v>
+      </c>
+      <c r="G123" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="H123" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I123" s="14" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="J123" s="14" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="K123" s="16" t="s">
         <v>32</v>
@@ -10154,35 +10139,35 @@
     </row>
     <row r="124" ht="13.5" customHeight="1">
       <c r="A124" s="25">
-        <v>123.0</v>
+        <v>126.0</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C124" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="E124" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F124" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01PhyCIDActualVelo-Mon</v>
+        <v>$(P)$(R)Mod01PhyCSEActualVelo-Mon</v>
       </c>
       <c r="G124" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H124" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I124" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J124" s="14" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="K124" s="16" t="s">
         <v>32</v>
@@ -10216,35 +10201,35 @@
     </row>
     <row r="125" ht="13.5" customHeight="1">
       <c r="A125" s="25">
-        <v>124.0</v>
+        <v>127.0</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C125" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="E125" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F125" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01PhyCIEActualVelo-Mon</v>
+        <v>$(P)$(R)Mod02PhyCIDActualVelo-Mon</v>
       </c>
       <c r="G125" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H125" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I125" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J125" s="14" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="K125" s="16" t="s">
         <v>32</v>
@@ -10278,35 +10263,35 @@
     </row>
     <row r="126" ht="13.5" customHeight="1">
       <c r="A126" s="25">
-        <v>125.0</v>
+        <v>128.0</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C126" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="E126" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F126" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01PhyCSDActualVelo-Mon</v>
+        <v>$(P)$(R)Mod02PhyCIEActualVelo-Mon</v>
       </c>
       <c r="G126" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H126" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I126" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J126" s="14" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="K126" s="16" t="s">
         <v>32</v>
@@ -10340,35 +10325,35 @@
     </row>
     <row r="127" ht="13.5" customHeight="1">
       <c r="A127" s="25">
-        <v>126.0</v>
+        <v>129.0</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="C127" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="E127" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F127" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01PhyCSEActualVelo-Mon</v>
+        <v>$(P)$(R)Mod02PhyCSDActualVelo-Mon</v>
       </c>
       <c r="G127" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H127" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I127" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J127" s="14" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="K127" s="16" t="s">
         <v>32</v>
@@ -10402,35 +10387,35 @@
     </row>
     <row r="128" ht="13.5" customHeight="1">
       <c r="A128" s="25">
-        <v>127.0</v>
+        <v>130.0</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C128" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="E128" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F128" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02PhyCIDActualVelo-Mon</v>
+        <v>$(P)$(R)Mod02PhyCSEActualVelo-Mon</v>
       </c>
       <c r="G128" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H128" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I128" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J128" s="14" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="K128" s="16" t="s">
         <v>32</v>
@@ -10464,35 +10449,35 @@
     </row>
     <row r="129" ht="13.5" customHeight="1">
       <c r="A129" s="25">
-        <v>128.0</v>
+        <v>131.0</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C129" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="E129" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F129" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02PhyCIEActualVelo-Mon</v>
+        <v>$(P)$(R)Mod03PhyCIDActualVelo-Mon</v>
       </c>
       <c r="G129" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H129" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I129" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J129" s="14" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="K129" s="16" t="s">
         <v>32</v>
@@ -10526,35 +10511,35 @@
     </row>
     <row r="130" ht="13.5" customHeight="1">
       <c r="A130" s="25">
-        <v>129.0</v>
+        <v>132.0</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C130" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="E130" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F130" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02PhyCSDActualVelo-Mon</v>
+        <v>$(P)$(R)Mod03PhyCIEActualVelo-Mon</v>
       </c>
       <c r="G130" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H130" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I130" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J130" s="14" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K130" s="16" t="s">
         <v>32</v>
@@ -10588,35 +10573,35 @@
     </row>
     <row r="131" ht="13.5" customHeight="1">
       <c r="A131" s="25">
-        <v>130.0</v>
+        <v>133.0</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C131" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E131" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F131" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02PhyCSEActualVelo-Mon</v>
+        <v>$(P)$(R)Mod03PhyCSDActualVelo-Mon</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H131" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I131" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J131" s="14" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="K131" s="16" t="s">
         <v>32</v>
@@ -10650,35 +10635,35 @@
     </row>
     <row r="132" ht="13.5" customHeight="1">
       <c r="A132" s="25">
-        <v>131.0</v>
+        <v>134.0</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C132" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="E132" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F132" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03PhyCIDActualVelo-Mon</v>
+        <v>$(P)$(R)Mod03PhyCSEActualVelo-Mon</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H132" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I132" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J132" s="14" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="K132" s="16" t="s">
         <v>32</v>
@@ -10712,41 +10697,41 @@
     </row>
     <row r="133" ht="13.5" customHeight="1">
       <c r="A133" s="25">
-        <v>132.0</v>
+        <v>135.0</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C133" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F133" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03PhyCIEActualVelo-Mon</v>
+        <v>$(P)$(R)Mod01CIDPosErr-Mon</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H133" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I133" s="14" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="J133" s="14" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="K133" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L133" s="15">
-        <v>3.0</v>
+      <c r="L133" s="14">
+        <v>6.0</v>
       </c>
       <c r="M133" s="17"/>
       <c r="N133" s="17"/>
@@ -10774,41 +10759,41 @@
     </row>
     <row r="134" ht="13.5" customHeight="1">
       <c r="A134" s="25">
-        <v>133.0</v>
+        <v>136.0</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C134" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="E134" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F134" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03PhyCSDActualVelo-Mon</v>
+        <v>$(P)$(R)Mod01CIEPosErr-Mon</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H134" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I134" s="14" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="J134" s="14" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="K134" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L134" s="15">
-        <v>3.0</v>
+      <c r="L134" s="14">
+        <v>6.0</v>
       </c>
       <c r="M134" s="17"/>
       <c r="N134" s="17"/>
@@ -10836,41 +10821,41 @@
     </row>
     <row r="135" ht="13.5" customHeight="1">
       <c r="A135" s="25">
-        <v>134.0</v>
+        <v>137.0</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C135" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="E135" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F135" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03PhyCSEActualVelo-Mon</v>
+        <v>$(P)$(R)Mod01CSDPosErr-Mon</v>
       </c>
       <c r="G135" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H135" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I135" s="14" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="J135" s="14" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="K135" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L135" s="15">
-        <v>3.0</v>
+      <c r="L135" s="14">
+        <v>6.0</v>
       </c>
       <c r="M135" s="17"/>
       <c r="N135" s="17"/>
@@ -10898,35 +10883,35 @@
     </row>
     <row r="136" ht="13.5" customHeight="1">
       <c r="A136" s="25">
-        <v>135.0</v>
+        <v>138.0</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C136" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="E136" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F136" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01CIDPosErr-Mon</v>
+        <v>$(P)$(R)Mod01CSEPosErr-Mon</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H136" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I136" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J136" s="14" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="K136" s="16" t="s">
         <v>32</v>
@@ -10960,35 +10945,35 @@
     </row>
     <row r="137" ht="13.5" customHeight="1">
       <c r="A137" s="25">
-        <v>136.0</v>
+        <v>139.0</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C137" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="E137" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F137" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01CIEPosErr-Mon</v>
+        <v>$(P)$(R)Mod02CIDPosErr-Mon</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H137" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I137" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J137" s="14" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="K137" s="16" t="s">
         <v>32</v>
@@ -11022,35 +11007,35 @@
     </row>
     <row r="138" ht="13.5" customHeight="1">
       <c r="A138" s="25">
-        <v>137.0</v>
+        <v>140.0</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C138" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="E138" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F138" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01CSDPosErr-Mon</v>
+        <v>$(P)$(R)Mod02CIEPosErr-Mon</v>
       </c>
       <c r="G138" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H138" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I138" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J138" s="14" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="K138" s="16" t="s">
         <v>32</v>
@@ -11084,35 +11069,35 @@
     </row>
     <row r="139" ht="13.5" customHeight="1">
       <c r="A139" s="25">
-        <v>138.0</v>
+        <v>141.0</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C139" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="E139" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F139" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01CSEPosErr-Mon</v>
+        <v>$(P)$(R)Mod02CSDPosErr-Mon</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H139" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I139" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J139" s="14" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="K139" s="16" t="s">
         <v>32</v>
@@ -11146,35 +11131,35 @@
     </row>
     <row r="140" ht="13.5" customHeight="1">
       <c r="A140" s="25">
-        <v>139.0</v>
+        <v>142.0</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C140" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="E140" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F140" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02CIDPosErr-Mon</v>
+        <v>$(P)$(R)Mod02CSEPosErr-Mon</v>
       </c>
       <c r="G140" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H140" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I140" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J140" s="14" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="K140" s="16" t="s">
         <v>32</v>
@@ -11208,35 +11193,35 @@
     </row>
     <row r="141" ht="13.5" customHeight="1">
       <c r="A141" s="25">
-        <v>140.0</v>
+        <v>143.0</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C141" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="E141" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F141" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02CIEPosErr-Mon</v>
+        <v>$(P)$(R)Mod03CIDPosErr-Mon</v>
       </c>
       <c r="G141" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H141" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I141" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J141" s="14" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="K141" s="16" t="s">
         <v>32</v>
@@ -11270,35 +11255,35 @@
     </row>
     <row r="142" ht="13.5" customHeight="1">
       <c r="A142" s="25">
-        <v>141.0</v>
+        <v>144.0</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C142" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="E142" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F142" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02CSDPosErr-Mon</v>
+        <v>$(P)$(R)Mod03CIEPosErr-Mon</v>
       </c>
       <c r="G142" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H142" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I142" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J142" s="14" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K142" s="16" t="s">
         <v>32</v>
@@ -11332,35 +11317,35 @@
     </row>
     <row r="143" ht="13.5" customHeight="1">
       <c r="A143" s="25">
-        <v>142.0</v>
+        <v>145.0</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C143" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="E143" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F143" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02CSEPosErr-Mon</v>
+        <v>$(P)$(R)Mod03CSDPosErr-Mon</v>
       </c>
       <c r="G143" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H143" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I143" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J143" s="14" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="K143" s="16" t="s">
         <v>32</v>
@@ -11394,35 +11379,35 @@
     </row>
     <row r="144" ht="13.5" customHeight="1">
       <c r="A144" s="25">
-        <v>143.0</v>
+        <v>146.0</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C144" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D144" s="11" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="E144" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F144" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03CIDPosErr-Mon</v>
+        <v>$(P)$(R)Mod03CSEPosErr-Mon</v>
       </c>
       <c r="G144" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H144" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I144" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J144" s="14" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="K144" s="16" t="s">
         <v>32</v>
@@ -11456,41 +11441,41 @@
     </row>
     <row r="145" ht="13.5" customHeight="1">
       <c r="A145" s="25">
-        <v>144.0</v>
+        <v>147.0</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C145" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="E145" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F145" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03CIEPosErr-Mon</v>
+        <v>$(P)$(R)Mod01CIDRawMtrEnc-Mon</v>
       </c>
       <c r="G145" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H145" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I145" s="14" t="s">
-        <v>212</v>
+        <v>454</v>
       </c>
       <c r="J145" s="14" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="K145" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L145" s="14">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="M145" s="17"/>
       <c r="N145" s="17"/>
@@ -11518,41 +11503,41 @@
     </row>
     <row r="146" ht="13.5" customHeight="1">
       <c r="A146" s="25">
-        <v>145.0</v>
+        <v>148.0</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="C146" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D146" s="11" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E146" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F146" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03CSDPosErr-Mon</v>
+        <v>$(P)$(R)Mod01CIERawMtrEnc-Mon</v>
       </c>
       <c r="G146" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H146" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I146" s="14" t="s">
-        <v>212</v>
+        <v>454</v>
       </c>
       <c r="J146" s="14" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="K146" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L146" s="14">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="M146" s="17"/>
       <c r="N146" s="17"/>
@@ -11580,41 +11565,41 @@
     </row>
     <row r="147" ht="13.5" customHeight="1">
       <c r="A147" s="25">
-        <v>146.0</v>
+        <v>149.0</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="C147" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="E147" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F147" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03CSEPosErr-Mon</v>
+        <v>$(P)$(R)Mod01CSDRawMtrEnc-Mon</v>
       </c>
       <c r="G147" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H147" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I147" s="14" t="s">
-        <v>212</v>
+        <v>454</v>
       </c>
       <c r="J147" s="14" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="K147" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L147" s="14">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="M147" s="17"/>
       <c r="N147" s="17"/>
@@ -11642,35 +11627,35 @@
     </row>
     <row r="148" ht="13.5" customHeight="1">
       <c r="A148" s="25">
-        <v>147.0</v>
+        <v>150.0</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="C148" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="E148" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F148" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01CIDRawMtrEnc-Mon</v>
+        <v>$(P)$(R)Mod01CSERawMtrEnc-Mon</v>
       </c>
       <c r="G148" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H148" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I148" s="14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J148" s="14" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="K148" s="16" t="s">
         <v>32</v>
@@ -11704,35 +11689,35 @@
     </row>
     <row r="149" ht="13.5" customHeight="1">
       <c r="A149" s="25">
-        <v>148.0</v>
+        <v>151.0</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C149" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="E149" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F149" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01CIERawMtrEnc-Mon</v>
+        <v>$(P)$(R)Mod02CIDRawMtrEnc-Mon</v>
       </c>
       <c r="G149" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H149" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I149" s="14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J149" s="14" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="K149" s="16" t="s">
         <v>32</v>
@@ -11766,35 +11751,35 @@
     </row>
     <row r="150" ht="13.5" customHeight="1">
       <c r="A150" s="25">
-        <v>149.0</v>
+        <v>152.0</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C150" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="E150" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F150" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01CSDRawMtrEnc-Mon</v>
+        <v>$(P)$(R)Mod02CIERawMtrEnc-Mon</v>
       </c>
       <c r="G150" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H150" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I150" s="14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J150" s="14" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="K150" s="16" t="s">
         <v>32</v>
@@ -11828,35 +11813,35 @@
     </row>
     <row r="151" ht="13.5" customHeight="1">
       <c r="A151" s="25">
-        <v>150.0</v>
+        <v>153.0</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C151" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="E151" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F151" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01CSERawMtrEnc-Mon</v>
+        <v>$(P)$(R)Mod02CSDRawMtrEnc-Mon</v>
       </c>
       <c r="G151" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H151" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I151" s="14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J151" s="14" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="K151" s="16" t="s">
         <v>32</v>
@@ -11890,35 +11875,35 @@
     </row>
     <row r="152" ht="13.5" customHeight="1">
       <c r="A152" s="25">
-        <v>151.0</v>
+        <v>154.0</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C152" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D152" s="11" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="E152" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F152" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02CIDRawMtrEnc-Mon</v>
+        <v>$(P)$(R)Mod02CSERawMtrEnc-Mon</v>
       </c>
       <c r="G152" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H152" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I152" s="14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J152" s="14" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="K152" s="16" t="s">
         <v>32</v>
@@ -11952,35 +11937,35 @@
     </row>
     <row r="153" ht="13.5" customHeight="1">
       <c r="A153" s="25">
-        <v>152.0</v>
+        <v>155.0</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C153" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D153" s="11" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E153" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F153" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02CIERawMtrEnc-Mon</v>
+        <v>$(P)$(R)Mod03CIDRawMtrEnc-Mon</v>
       </c>
       <c r="G153" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H153" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I153" s="14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J153" s="14" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="K153" s="16" t="s">
         <v>32</v>
@@ -12014,35 +11999,35 @@
     </row>
     <row r="154" ht="13.5" customHeight="1">
       <c r="A154" s="25">
-        <v>153.0</v>
+        <v>156.0</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C154" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="E154" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F154" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02CSDRawMtrEnc-Mon</v>
+        <v>$(P)$(R)Mod03CIERawMtrEnc-Mon</v>
       </c>
       <c r="G154" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H154" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I154" s="14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J154" s="14" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="K154" s="16" t="s">
         <v>32</v>
@@ -12076,35 +12061,35 @@
     </row>
     <row r="155" ht="13.5" customHeight="1">
       <c r="A155" s="25">
-        <v>154.0</v>
+        <v>157.0</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C155" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D155" s="11" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="E155" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F155" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02CSERawMtrEnc-Mon</v>
+        <v>$(P)$(R)Mod03CSDRawMtrEnc-Mon</v>
       </c>
       <c r="G155" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H155" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I155" s="14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J155" s="14" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="K155" s="16" t="s">
         <v>32</v>
@@ -12138,35 +12123,35 @@
     </row>
     <row r="156" ht="13.5" customHeight="1">
       <c r="A156" s="25">
-        <v>155.0</v>
+        <v>158.0</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="C156" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="E156" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F156" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03CIDRawMtrEnc-Mon</v>
+        <v>$(P)$(R)Mod03CSERawMtrEnc-Mon</v>
       </c>
       <c r="G156" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H156" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I156" s="14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J156" s="14" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K156" s="16" t="s">
         <v>32</v>
@@ -12200,41 +12185,41 @@
     </row>
     <row r="157" ht="13.5" customHeight="1">
       <c r="A157" s="25">
-        <v>156.0</v>
+        <v>159.0</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C157" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="E157" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F157" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03CIERawMtrEnc-Mon</v>
+        <v>$(P)$(R)Mod01CIDTorqueRef-Mon</v>
       </c>
       <c r="G157" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H157" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I157" s="14" t="s">
-        <v>457</v>
+        <v>491</v>
       </c>
       <c r="J157" s="14" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="K157" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L157" s="14">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M157" s="17"/>
       <c r="N157" s="17"/>
@@ -12262,41 +12247,41 @@
     </row>
     <row r="158" ht="13.5" customHeight="1">
       <c r="A158" s="25">
-        <v>157.0</v>
+        <v>160.0</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="C158" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="E158" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F158" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03CSDRawMtrEnc-Mon</v>
+        <v>$(P)$(R)Mod01CIETorqueRef-Mon</v>
       </c>
       <c r="G158" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H158" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I158" s="14" t="s">
-        <v>457</v>
+        <v>491</v>
       </c>
       <c r="J158" s="14" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="K158" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L158" s="14">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M158" s="17"/>
       <c r="N158" s="17"/>
@@ -12324,41 +12309,41 @@
     </row>
     <row r="159" ht="13.5" customHeight="1">
       <c r="A159" s="25">
-        <v>158.0</v>
+        <v>161.0</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="C159" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="E159" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F159" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03CSERawMtrEnc-Mon</v>
+        <v>$(P)$(R)Mod01CSDTorqueRef-Mon</v>
       </c>
       <c r="G159" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H159" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I159" s="14" t="s">
-        <v>457</v>
+        <v>491</v>
       </c>
       <c r="J159" s="14" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="K159" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L159" s="14">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="M159" s="17"/>
       <c r="N159" s="17"/>
@@ -12386,35 +12371,35 @@
     </row>
     <row r="160" ht="13.5" customHeight="1">
       <c r="A160" s="25">
-        <v>159.0</v>
+        <v>162.0</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="C160" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="E160" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F160" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01CIDTorqueRef-Mon</v>
+        <v>$(P)$(R)Mod01CSETorqueRef-Mon</v>
       </c>
       <c r="G160" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H160" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I160" s="14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J160" s="14" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="K160" s="16" t="s">
         <v>32</v>
@@ -12448,35 +12433,35 @@
     </row>
     <row r="161" ht="13.5" customHeight="1">
       <c r="A161" s="25">
-        <v>160.0</v>
+        <v>163.0</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="C161" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E161" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F161" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01CIETorqueRef-Mon</v>
+        <v>$(P)$(R)Mod02CIDTorqueRef-Mon</v>
       </c>
       <c r="G161" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H161" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I161" s="14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J161" s="14" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="K161" s="16" t="s">
         <v>32</v>
@@ -12510,35 +12495,35 @@
     </row>
     <row r="162" ht="13.5" customHeight="1">
       <c r="A162" s="25">
-        <v>161.0</v>
+        <v>164.0</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C162" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="E162" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F162" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01CSDTorqueRef-Mon</v>
+        <v>$(P)$(R)Mod02CIETorqueRef-Mon</v>
       </c>
       <c r="G162" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H162" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I162" s="14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J162" s="14" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="K162" s="16" t="s">
         <v>32</v>
@@ -12572,35 +12557,35 @@
     </row>
     <row r="163" ht="13.5" customHeight="1">
       <c r="A163" s="25">
-        <v>162.0</v>
+        <v>165.0</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="C163" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="E163" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F163" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01CSETorqueRef-Mon</v>
+        <v>$(P)$(R)Mod02CSDTorqueRef-Mon</v>
       </c>
       <c r="G163" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H163" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I163" s="14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J163" s="14" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="K163" s="16" t="s">
         <v>32</v>
@@ -12634,35 +12619,35 @@
     </row>
     <row r="164" ht="13.5" customHeight="1">
       <c r="A164" s="25">
-        <v>163.0</v>
+        <v>166.0</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C164" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D164" s="11" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="E164" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F164" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02CIDTorqueRef-Mon</v>
+        <v>$(P)$(R)Mod02CSETorqueRef-Mon</v>
       </c>
       <c r="G164" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H164" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I164" s="14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J164" s="14" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="K164" s="16" t="s">
         <v>32</v>
@@ -12696,35 +12681,35 @@
     </row>
     <row r="165" ht="13.5" customHeight="1">
       <c r="A165" s="25">
-        <v>164.0</v>
+        <v>167.0</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="C165" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="E165" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F165" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02CIETorqueRef-Mon</v>
+        <v>$(P)$(R)Mod03CIDTorqueRef-Mon</v>
       </c>
       <c r="G165" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H165" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I165" s="14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J165" s="14" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="K165" s="16" t="s">
         <v>32</v>
@@ -12758,35 +12743,35 @@
     </row>
     <row r="166" ht="13.5" customHeight="1">
       <c r="A166" s="25">
-        <v>165.0</v>
+        <v>168.0</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C166" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="E166" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F166" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02CSDTorqueRef-Mon</v>
+        <v>$(P)$(R)Mod03CIETorqueRef-Mon</v>
       </c>
       <c r="G166" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H166" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I166" s="14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J166" s="14" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="K166" s="16" t="s">
         <v>32</v>
@@ -12820,35 +12805,35 @@
     </row>
     <row r="167" ht="13.5" customHeight="1">
       <c r="A167" s="25">
-        <v>166.0</v>
+        <v>169.0</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="C167" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="E167" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F167" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02CSETorqueRef-Mon</v>
+        <v>$(P)$(R)Mod03CSDTorqueRef-Mon</v>
       </c>
       <c r="G167" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H167" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I167" s="14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J167" s="14" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="K167" s="16" t="s">
         <v>32</v>
@@ -12882,35 +12867,35 @@
     </row>
     <row r="168" ht="13.5" customHeight="1">
       <c r="A168" s="25">
-        <v>167.0</v>
+        <v>170.0</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C168" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="E168" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F168" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03CIDTorqueRef-Mon</v>
+        <v>$(P)$(R)Mod03CSETorqueRef-Mon</v>
       </c>
       <c r="G168" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H168" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I168" s="14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J168" s="14" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="K168" s="16" t="s">
         <v>32</v>
@@ -12944,35 +12929,35 @@
     </row>
     <row r="169" ht="13.5" customHeight="1">
       <c r="A169" s="25">
-        <v>168.0</v>
+        <v>171.0</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="C169" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="E169" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F169" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03CIETorqueRef-Mon</v>
+        <v>$(P)$(R)Mod01CIDFiltTorqueRef-Mon</v>
       </c>
       <c r="G169" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H169" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I169" s="14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J169" s="14" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="K169" s="16" t="s">
         <v>32</v>
@@ -13006,35 +12991,35 @@
     </row>
     <row r="170" ht="13.5" customHeight="1">
       <c r="A170" s="25">
-        <v>169.0</v>
+        <v>172.0</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="C170" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="E170" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F170" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03CSDTorqueRef-Mon</v>
+        <v>$(P)$(R)Mod01CIEFiltTorqueRef-Mon</v>
       </c>
       <c r="G170" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H170" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I170" s="14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J170" s="14" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="K170" s="16" t="s">
         <v>32</v>
@@ -13068,35 +13053,35 @@
     </row>
     <row r="171" ht="13.5" customHeight="1">
       <c r="A171" s="25">
-        <v>170.0</v>
+        <v>173.0</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="C171" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="E171" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F171" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03CSETorqueRef-Mon</v>
+        <v>$(P)$(R)Mod01CSDFiltTorqueRef-Mon</v>
       </c>
       <c r="G171" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H171" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I171" s="14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J171" s="14" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K171" s="16" t="s">
         <v>32</v>
@@ -13130,35 +13115,35 @@
     </row>
     <row r="172" ht="13.5" customHeight="1">
       <c r="A172" s="25">
-        <v>171.0</v>
+        <v>174.0</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C172" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="E172" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F172" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01CIDFiltTorqueRef-Mon</v>
+        <v>$(P)$(R)Mod01CSEFiltTorqueRef-Mon</v>
       </c>
       <c r="G172" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H172" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I172" s="14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J172" s="14" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="K172" s="16" t="s">
         <v>32</v>
@@ -13192,35 +13177,35 @@
     </row>
     <row r="173" ht="13.5" customHeight="1">
       <c r="A173" s="25">
-        <v>172.0</v>
+        <v>175.0</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="C173" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="E173" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F173" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01CIEFiltTorqueRef-Mon</v>
+        <v>$(P)$(R)Mod02CIDFiltTorqueRef-Mon</v>
       </c>
       <c r="G173" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H173" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I173" s="14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J173" s="14" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="K173" s="16" t="s">
         <v>32</v>
@@ -13254,35 +13239,35 @@
     </row>
     <row r="174" ht="13.5" customHeight="1">
       <c r="A174" s="25">
-        <v>173.0</v>
+        <v>176.0</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C174" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="E174" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F174" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01CSDFiltTorqueRef-Mon</v>
+        <v>$(P)$(R)Mod02CIEFiltTorqueRef-Mon</v>
       </c>
       <c r="G174" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H174" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I174" s="14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J174" s="14" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="K174" s="16" t="s">
         <v>32</v>
@@ -13316,35 +13301,35 @@
     </row>
     <row r="175" ht="13.5" customHeight="1">
       <c r="A175" s="25">
-        <v>174.0</v>
+        <v>177.0</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="C175" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="E175" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F175" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod01CSEFiltTorqueRef-Mon</v>
+        <v>$(P)$(R)Mod02CSDFiltTorqueRef-Mon</v>
       </c>
       <c r="G175" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H175" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I175" s="14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J175" s="14" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="K175" s="16" t="s">
         <v>32</v>
@@ -13378,35 +13363,35 @@
     </row>
     <row r="176" ht="13.5" customHeight="1">
       <c r="A176" s="25">
-        <v>175.0</v>
+        <v>178.0</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C176" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D176" s="11" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="E176" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F176" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02CIDFiltTorqueRef-Mon</v>
+        <v>$(P)$(R)Mod02CSEFiltTorqueRef-Mon</v>
       </c>
       <c r="G176" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H176" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I176" s="14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J176" s="14" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="K176" s="16" t="s">
         <v>32</v>
@@ -13440,35 +13425,35 @@
     </row>
     <row r="177" ht="13.5" customHeight="1">
       <c r="A177" s="25">
-        <v>176.0</v>
+        <v>179.0</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="C177" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="E177" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F177" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02CIEFiltTorqueRef-Mon</v>
+        <v>$(P)$(R)Mod03CIDFiltTorqueRef-Mon</v>
       </c>
       <c r="G177" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H177" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I177" s="14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J177" s="14" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="K177" s="16" t="s">
         <v>32</v>
@@ -13502,35 +13487,35 @@
     </row>
     <row r="178" ht="13.5" customHeight="1">
       <c r="A178" s="25">
-        <v>177.0</v>
+        <v>180.0</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="C178" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="E178" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F178" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02CSDFiltTorqueRef-Mon</v>
+        <v>$(P)$(R)Mod03CIEFiltTorqueRef-Mon</v>
       </c>
       <c r="G178" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H178" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I178" s="14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J178" s="14" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="K178" s="16" t="s">
         <v>32</v>
@@ -13564,35 +13549,35 @@
     </row>
     <row r="179" ht="13.5" customHeight="1">
       <c r="A179" s="25">
-        <v>178.0</v>
+        <v>181.0</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C179" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="E179" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F179" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod02CSEFiltTorqueRef-Mon</v>
+        <v>$(P)$(R)Mod03CSDFiltTorqueRef-Mon</v>
       </c>
       <c r="G179" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H179" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I179" s="14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J179" s="14" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="K179" s="16" t="s">
         <v>32</v>
@@ -13626,35 +13611,35 @@
     </row>
     <row r="180" ht="13.5" customHeight="1">
       <c r="A180" s="25">
-        <v>179.0</v>
+        <v>182.0</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="C180" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="E180" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F180" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03CIDFiltTorqueRef-Mon</v>
+        <v>$(P)$(R)Mod03CSEFiltTorqueRef-Mon</v>
       </c>
       <c r="G180" s="14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H180" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I180" s="14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J180" s="14" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="K180" s="16" t="s">
         <v>32</v>
@@ -13688,42 +13673,22 @@
     </row>
     <row r="181" ht="13.5" customHeight="1">
       <c r="A181" s="25">
-        <v>180.0</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D181" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="E181" s="12" t="s">
-        <v>81</v>
-      </c>
+        <v>183.0</v>
+      </c>
+      <c r="B181" s="26"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="12"/>
       <c r="F181" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03CIEFiltTorqueRef-Mon</v>
-      </c>
-      <c r="G181" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="H181" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I181" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="J181" s="14" t="s">
-        <v>558</v>
-      </c>
-      <c r="K181" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L181" s="14">
-        <v>1.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="G181" s="15"/>
+      <c r="H181" s="15"/>
+      <c r="I181" s="14"/>
+      <c r="J181" s="14"/>
+      <c r="K181" s="16"/>
+      <c r="L181" s="15"/>
       <c r="M181" s="17"/>
       <c r="N181" s="17"/>
       <c r="O181" s="17"/>
@@ -13750,42 +13715,22 @@
     </row>
     <row r="182" ht="13.5" customHeight="1">
       <c r="A182" s="25">
-        <v>181.0</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="C182" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D182" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="E182" s="12" t="s">
-        <v>81</v>
-      </c>
+        <v>184.0</v>
+      </c>
+      <c r="B182" s="26"/>
+      <c r="C182" s="10"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="12"/>
       <c r="F182" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03CSDFiltTorqueRef-Mon</v>
-      </c>
-      <c r="G182" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="H182" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I182" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="J182" s="14" t="s">
-        <v>561</v>
-      </c>
-      <c r="K182" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L182" s="14">
-        <v>1.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="G182" s="15"/>
+      <c r="H182" s="15"/>
+      <c r="I182" s="14"/>
+      <c r="J182" s="14"/>
+      <c r="K182" s="16"/>
+      <c r="L182" s="15"/>
       <c r="M182" s="17"/>
       <c r="N182" s="17"/>
       <c r="O182" s="17"/>
@@ -13812,42 +13757,22 @@
     </row>
     <row r="183" ht="13.5" customHeight="1">
       <c r="A183" s="25">
-        <v>182.0</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="C183" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D183" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="E183" s="12" t="s">
-        <v>81</v>
-      </c>
+        <v>185.0</v>
+      </c>
+      <c r="B183" s="26"/>
+      <c r="C183" s="10"/>
+      <c r="D183" s="10"/>
+      <c r="E183" s="12"/>
       <c r="F183" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>$(P)$(R)Mod03CSEFiltTorqueRef-Mon</v>
-      </c>
-      <c r="G183" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="H183" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I183" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="J183" s="14" t="s">
-        <v>564</v>
-      </c>
-      <c r="K183" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L183" s="14">
-        <v>1.0</v>
-      </c>
+        <v/>
+      </c>
+      <c r="G183" s="15"/>
+      <c r="H183" s="15"/>
+      <c r="I183" s="14"/>
+      <c r="J183" s="14"/>
+      <c r="K183" s="16"/>
+      <c r="L183" s="15"/>
       <c r="M183" s="17"/>
       <c r="N183" s="17"/>
       <c r="O183" s="17"/>
@@ -13874,7 +13799,7 @@
     </row>
     <row r="184" ht="13.5" customHeight="1">
       <c r="A184" s="25">
-        <v>183.0</v>
+        <v>186.0</v>
       </c>
       <c r="B184" s="26"/>
       <c r="C184" s="10"/>
@@ -13916,7 +13841,7 @@
     </row>
     <row r="185" ht="13.5" customHeight="1">
       <c r="A185" s="25">
-        <v>184.0</v>
+        <v>187.0</v>
       </c>
       <c r="B185" s="26"/>
       <c r="C185" s="10"/>
@@ -13958,7 +13883,7 @@
     </row>
     <row r="186" ht="13.5" customHeight="1">
       <c r="A186" s="25">
-        <v>185.0</v>
+        <v>188.0</v>
       </c>
       <c r="B186" s="26"/>
       <c r="C186" s="10"/>
@@ -14000,7 +13925,7 @@
     </row>
     <row r="187" ht="13.5" customHeight="1">
       <c r="A187" s="25">
-        <v>186.0</v>
+        <v>189.0</v>
       </c>
       <c r="B187" s="26"/>
       <c r="C187" s="10"/>
@@ -14042,7 +13967,7 @@
     </row>
     <row r="188" ht="13.5" customHeight="1">
       <c r="A188" s="25">
-        <v>187.0</v>
+        <v>190.0</v>
       </c>
       <c r="B188" s="26"/>
       <c r="C188" s="10"/>
@@ -14084,7 +14009,7 @@
     </row>
     <row r="189" ht="13.5" customHeight="1">
       <c r="A189" s="25">
-        <v>188.0</v>
+        <v>191.0</v>
       </c>
       <c r="B189" s="26"/>
       <c r="C189" s="10"/>
@@ -14126,7 +14051,7 @@
     </row>
     <row r="190" ht="13.5" customHeight="1">
       <c r="A190" s="25">
-        <v>189.0</v>
+        <v>192.0</v>
       </c>
       <c r="B190" s="26"/>
       <c r="C190" s="10"/>
@@ -14168,7 +14093,7 @@
     </row>
     <row r="191" ht="13.5" customHeight="1">
       <c r="A191" s="25">
-        <v>190.0</v>
+        <v>193.0</v>
       </c>
       <c r="B191" s="26"/>
       <c r="C191" s="10"/>
@@ -14210,7 +14135,7 @@
     </row>
     <row r="192" ht="13.5" customHeight="1">
       <c r="A192" s="25">
-        <v>191.0</v>
+        <v>194.0</v>
       </c>
       <c r="B192" s="26"/>
       <c r="C192" s="10"/>
@@ -14252,7 +14177,7 @@
     </row>
     <row r="193" ht="13.5" customHeight="1">
       <c r="A193" s="25">
-        <v>192.0</v>
+        <v>195.0</v>
       </c>
       <c r="B193" s="26"/>
       <c r="C193" s="10"/>
@@ -14294,7 +14219,7 @@
     </row>
     <row r="194" ht="13.5" customHeight="1">
       <c r="A194" s="25">
-        <v>193.0</v>
+        <v>196.0</v>
       </c>
       <c r="B194" s="26"/>
       <c r="C194" s="10"/>
@@ -14336,7 +14261,7 @@
     </row>
     <row r="195" ht="13.5" customHeight="1">
       <c r="A195" s="25">
-        <v>194.0</v>
+        <v>197.0</v>
       </c>
       <c r="B195" s="26"/>
       <c r="C195" s="10"/>
@@ -14378,7 +14303,7 @@
     </row>
     <row r="196" ht="13.5" customHeight="1">
       <c r="A196" s="25">
-        <v>195.0</v>
+        <v>198.0</v>
       </c>
       <c r="B196" s="26"/>
       <c r="C196" s="10"/>
@@ -14420,7 +14345,7 @@
     </row>
     <row r="197" ht="13.5" customHeight="1">
       <c r="A197" s="25">
-        <v>196.0</v>
+        <v>199.0</v>
       </c>
       <c r="B197" s="26"/>
       <c r="C197" s="10"/>
@@ -14462,7 +14387,7 @@
     </row>
     <row r="198" ht="13.5" customHeight="1">
       <c r="A198" s="25">
-        <v>197.0</v>
+        <v>200.0</v>
       </c>
       <c r="B198" s="26"/>
       <c r="C198" s="10"/>
@@ -14504,7 +14429,7 @@
     </row>
     <row r="199" ht="13.5" customHeight="1">
       <c r="A199" s="25">
-        <v>198.0</v>
+        <v>201.0</v>
       </c>
       <c r="B199" s="26"/>
       <c r="C199" s="10"/>
@@ -14546,7 +14471,7 @@
     </row>
     <row r="200" ht="13.5" customHeight="1">
       <c r="A200" s="25">
-        <v>199.0</v>
+        <v>202.0</v>
       </c>
       <c r="B200" s="26"/>
       <c r="C200" s="10"/>
@@ -14588,7 +14513,7 @@
     </row>
     <row r="201" ht="13.5" customHeight="1">
       <c r="A201" s="25">
-        <v>200.0</v>
+        <v>203.0</v>
       </c>
       <c r="B201" s="26"/>
       <c r="C201" s="10"/>
@@ -14630,7 +14555,7 @@
     </row>
     <row r="202" ht="13.5" customHeight="1">
       <c r="A202" s="25">
-        <v>201.0</v>
+        <v>204.0</v>
       </c>
       <c r="B202" s="26"/>
       <c r="C202" s="10"/>
@@ -14672,7 +14597,7 @@
     </row>
     <row r="203" ht="13.5" customHeight="1">
       <c r="A203" s="25">
-        <v>202.0</v>
+        <v>205.0</v>
       </c>
       <c r="B203" s="26"/>
       <c r="C203" s="10"/>
@@ -14714,7 +14639,7 @@
     </row>
     <row r="204" ht="13.5" customHeight="1">
       <c r="A204" s="25">
-        <v>203.0</v>
+        <v>206.0</v>
       </c>
       <c r="B204" s="26"/>
       <c r="C204" s="10"/>
@@ -14756,7 +14681,7 @@
     </row>
     <row r="205" ht="13.5" customHeight="1">
       <c r="A205" s="25">
-        <v>204.0</v>
+        <v>207.0</v>
       </c>
       <c r="B205" s="26"/>
       <c r="C205" s="10"/>
@@ -14798,7 +14723,7 @@
     </row>
     <row r="206" ht="13.5" customHeight="1">
       <c r="A206" s="25">
-        <v>205.0</v>
+        <v>208.0</v>
       </c>
       <c r="B206" s="26"/>
       <c r="C206" s="10"/>
@@ -14840,7 +14765,7 @@
     </row>
     <row r="207" ht="13.5" customHeight="1">
       <c r="A207" s="25">
-        <v>206.0</v>
+        <v>209.0</v>
       </c>
       <c r="B207" s="26"/>
       <c r="C207" s="10"/>
@@ -14882,7 +14807,7 @@
     </row>
     <row r="208" ht="13.5" customHeight="1">
       <c r="A208" s="25">
-        <v>207.0</v>
+        <v>210.0</v>
       </c>
       <c r="B208" s="26"/>
       <c r="C208" s="10"/>
@@ -14924,7 +14849,7 @@
     </row>
     <row r="209" ht="13.5" customHeight="1">
       <c r="A209" s="25">
-        <v>208.0</v>
+        <v>211.0</v>
       </c>
       <c r="B209" s="26"/>
       <c r="C209" s="10"/>
@@ -14966,7 +14891,7 @@
     </row>
     <row r="210" ht="13.5" customHeight="1">
       <c r="A210" s="25">
-        <v>209.0</v>
+        <v>212.0</v>
       </c>
       <c r="B210" s="26"/>
       <c r="C210" s="10"/>
@@ -15008,7 +14933,7 @@
     </row>
     <row r="211" ht="13.5" customHeight="1">
       <c r="A211" s="25">
-        <v>210.0</v>
+        <v>213.0</v>
       </c>
       <c r="B211" s="26"/>
       <c r="C211" s="10"/>
@@ -15050,7 +14975,7 @@
     </row>
     <row r="212" ht="13.5" customHeight="1">
       <c r="A212" s="25">
-        <v>211.0</v>
+        <v>214.0</v>
       </c>
       <c r="B212" s="26"/>
       <c r="C212" s="10"/>
@@ -15092,7 +15017,7 @@
     </row>
     <row r="213" ht="13.5" customHeight="1">
       <c r="A213" s="25">
-        <v>212.0</v>
+        <v>215.0</v>
       </c>
       <c r="B213" s="26"/>
       <c r="C213" s="10"/>
@@ -15134,7 +15059,7 @@
     </row>
     <row r="214" ht="13.5" customHeight="1">
       <c r="A214" s="25">
-        <v>213.0</v>
+        <v>216.0</v>
       </c>
       <c r="B214" s="26"/>
       <c r="C214" s="10"/>
@@ -15176,7 +15101,7 @@
     </row>
     <row r="215" ht="13.5" customHeight="1">
       <c r="A215" s="25">
-        <v>214.0</v>
+        <v>217.0</v>
       </c>
       <c r="B215" s="26"/>
       <c r="C215" s="10"/>
@@ -15218,7 +15143,7 @@
     </row>
     <row r="216" ht="13.5" customHeight="1">
       <c r="A216" s="25">
-        <v>215.0</v>
+        <v>218.0</v>
       </c>
       <c r="B216" s="26"/>
       <c r="C216" s="10"/>
@@ -15260,7 +15185,7 @@
     </row>
     <row r="217" ht="13.5" customHeight="1">
       <c r="A217" s="25">
-        <v>216.0</v>
+        <v>219.0</v>
       </c>
       <c r="B217" s="26"/>
       <c r="C217" s="10"/>
@@ -15302,7 +15227,7 @@
     </row>
     <row r="218" ht="13.5" customHeight="1">
       <c r="A218" s="25">
-        <v>217.0</v>
+        <v>220.0</v>
       </c>
       <c r="B218" s="26"/>
       <c r="C218" s="10"/>
@@ -15344,7 +15269,7 @@
     </row>
     <row r="219" ht="13.5" customHeight="1">
       <c r="A219" s="25">
-        <v>218.0</v>
+        <v>221.0</v>
       </c>
       <c r="B219" s="26"/>
       <c r="C219" s="10"/>
@@ -15386,7 +15311,7 @@
     </row>
     <row r="220" ht="13.5" customHeight="1">
       <c r="A220" s="25">
-        <v>219.0</v>
+        <v>222.0</v>
       </c>
       <c r="B220" s="26"/>
       <c r="C220" s="10"/>
@@ -15428,7 +15353,7 @@
     </row>
     <row r="221" ht="13.5" customHeight="1">
       <c r="A221" s="25">
-        <v>220.0</v>
+        <v>223.0</v>
       </c>
       <c r="B221" s="26"/>
       <c r="C221" s="10"/>
@@ -15470,7 +15395,7 @@
     </row>
     <row r="222" ht="13.5" customHeight="1">
       <c r="A222" s="25">
-        <v>221.0</v>
+        <v>224.0</v>
       </c>
       <c r="B222" s="26"/>
       <c r="C222" s="10"/>
@@ -15512,7 +15437,7 @@
     </row>
     <row r="223" ht="13.5" customHeight="1">
       <c r="A223" s="25">
-        <v>222.0</v>
+        <v>225.0</v>
       </c>
       <c r="B223" s="26"/>
       <c r="C223" s="10"/>
@@ -15554,7 +15479,7 @@
     </row>
     <row r="224" ht="13.5" customHeight="1">
       <c r="A224" s="25">
-        <v>223.0</v>
+        <v>226.0</v>
       </c>
       <c r="B224" s="26"/>
       <c r="C224" s="10"/>
@@ -15596,7 +15521,7 @@
     </row>
     <row r="225" ht="13.5" customHeight="1">
       <c r="A225" s="25">
-        <v>224.0</v>
+        <v>227.0</v>
       </c>
       <c r="B225" s="26"/>
       <c r="C225" s="10"/>
@@ -15638,7 +15563,7 @@
     </row>
     <row r="226" ht="13.5" customHeight="1">
       <c r="A226" s="25">
-        <v>225.0</v>
+        <v>228.0</v>
       </c>
       <c r="B226" s="26"/>
       <c r="C226" s="10"/>
@@ -15680,7 +15605,7 @@
     </row>
     <row r="227" ht="13.5" customHeight="1">
       <c r="A227" s="25">
-        <v>226.0</v>
+        <v>229.0</v>
       </c>
       <c r="B227" s="26"/>
       <c r="C227" s="10"/>
@@ -15722,7 +15647,7 @@
     </row>
     <row r="228" ht="13.5" customHeight="1">
       <c r="A228" s="25">
-        <v>227.0</v>
+        <v>230.0</v>
       </c>
       <c r="B228" s="26"/>
       <c r="C228" s="10"/>
@@ -15764,7 +15689,7 @@
     </row>
     <row r="229" ht="13.5" customHeight="1">
       <c r="A229" s="25">
-        <v>228.0</v>
+        <v>231.0</v>
       </c>
       <c r="B229" s="26"/>
       <c r="C229" s="10"/>
@@ -15806,7 +15731,7 @@
     </row>
     <row r="230" ht="13.5" customHeight="1">
       <c r="A230" s="25">
-        <v>229.0</v>
+        <v>232.0</v>
       </c>
       <c r="B230" s="26"/>
       <c r="C230" s="10"/>
@@ -15848,7 +15773,7 @@
     </row>
     <row r="231" ht="13.5" customHeight="1">
       <c r="A231" s="25">
-        <v>230.0</v>
+        <v>233.0</v>
       </c>
       <c r="B231" s="26"/>
       <c r="C231" s="10"/>
@@ -15890,7 +15815,7 @@
     </row>
     <row r="232" ht="13.5" customHeight="1">
       <c r="A232" s="25">
-        <v>231.0</v>
+        <v>234.0</v>
       </c>
       <c r="B232" s="26"/>
       <c r="C232" s="10"/>
@@ -15932,7 +15857,7 @@
     </row>
     <row r="233" ht="13.5" customHeight="1">
       <c r="A233" s="25">
-        <v>232.0</v>
+        <v>235.0</v>
       </c>
       <c r="B233" s="26"/>
       <c r="C233" s="10"/>
@@ -15974,7 +15899,7 @@
     </row>
     <row r="234" ht="13.5" customHeight="1">
       <c r="A234" s="25">
-        <v>233.0</v>
+        <v>236.0</v>
       </c>
       <c r="B234" s="26"/>
       <c r="C234" s="10"/>
@@ -16016,7 +15941,7 @@
     </row>
     <row r="235" ht="13.5" customHeight="1">
       <c r="A235" s="25">
-        <v>234.0</v>
+        <v>237.0</v>
       </c>
       <c r="B235" s="26"/>
       <c r="C235" s="10"/>
@@ -16058,7 +15983,7 @@
     </row>
     <row r="236" ht="13.5" customHeight="1">
       <c r="A236" s="25">
-        <v>235.0</v>
+        <v>238.0</v>
       </c>
       <c r="B236" s="26"/>
       <c r="C236" s="10"/>
@@ -16100,7 +16025,7 @@
     </row>
     <row r="237" ht="13.5" customHeight="1">
       <c r="A237" s="25">
-        <v>236.0</v>
+        <v>239.0</v>
       </c>
       <c r="B237" s="26"/>
       <c r="C237" s="10"/>
@@ -16142,7 +16067,7 @@
     </row>
     <row r="238" ht="13.5" customHeight="1">
       <c r="A238" s="25">
-        <v>237.0</v>
+        <v>240.0</v>
       </c>
       <c r="B238" s="26"/>
       <c r="C238" s="10"/>
@@ -16184,7 +16109,7 @@
     </row>
     <row r="239" ht="13.5" customHeight="1">
       <c r="A239" s="25">
-        <v>238.0</v>
+        <v>241.0</v>
       </c>
       <c r="B239" s="26"/>
       <c r="C239" s="10"/>
@@ -16226,7 +16151,7 @@
     </row>
     <row r="240" ht="13.5" customHeight="1">
       <c r="A240" s="25">
-        <v>239.0</v>
+        <v>242.0</v>
       </c>
       <c r="B240" s="26"/>
       <c r="C240" s="10"/>
@@ -16268,7 +16193,7 @@
     </row>
     <row r="241" ht="13.5" customHeight="1">
       <c r="A241" s="25">
-        <v>240.0</v>
+        <v>243.0</v>
       </c>
       <c r="B241" s="26"/>
       <c r="C241" s="10"/>
@@ -16310,7 +16235,7 @@
     </row>
     <row r="242" ht="13.5" customHeight="1">
       <c r="A242" s="25">
-        <v>241.0</v>
+        <v>244.0</v>
       </c>
       <c r="B242" s="26"/>
       <c r="C242" s="10"/>
@@ -16352,7 +16277,7 @@
     </row>
     <row r="243" ht="13.5" customHeight="1">
       <c r="A243" s="25">
-        <v>242.0</v>
+        <v>245.0</v>
       </c>
       <c r="B243" s="26"/>
       <c r="C243" s="10"/>
@@ -16394,7 +16319,7 @@
     </row>
     <row r="244" ht="13.5" customHeight="1">
       <c r="A244" s="25">
-        <v>243.0</v>
+        <v>246.0</v>
       </c>
       <c r="B244" s="26"/>
       <c r="C244" s="10"/>
@@ -16436,7 +16361,7 @@
     </row>
     <row r="245" ht="13.5" customHeight="1">
       <c r="A245" s="25">
-        <v>244.0</v>
+        <v>247.0</v>
       </c>
       <c r="B245" s="26"/>
       <c r="C245" s="10"/>
@@ -16478,7 +16403,7 @@
     </row>
     <row r="246" ht="13.5" customHeight="1">
       <c r="A246" s="25">
-        <v>245.0</v>
+        <v>248.0</v>
       </c>
       <c r="B246" s="26"/>
       <c r="C246" s="10"/>
@@ -16520,7 +16445,7 @@
     </row>
     <row r="247" ht="13.5" customHeight="1">
       <c r="A247" s="25">
-        <v>246.0</v>
+        <v>249.0</v>
       </c>
       <c r="B247" s="26"/>
       <c r="C247" s="10"/>
@@ -16562,7 +16487,7 @@
     </row>
     <row r="248" ht="13.5" customHeight="1">
       <c r="A248" s="25">
-        <v>247.0</v>
+        <v>250.0</v>
       </c>
       <c r="B248" s="26"/>
       <c r="C248" s="10"/>
@@ -16604,7 +16529,7 @@
     </row>
     <row r="249" ht="13.5" customHeight="1">
       <c r="A249" s="25">
-        <v>248.0</v>
+        <v>251.0</v>
       </c>
       <c r="B249" s="26"/>
       <c r="C249" s="10"/>
@@ -16646,7 +16571,7 @@
     </row>
     <row r="250" ht="13.5" customHeight="1">
       <c r="A250" s="25">
-        <v>249.0</v>
+        <v>252.0</v>
       </c>
       <c r="B250" s="26"/>
       <c r="C250" s="10"/>
@@ -16688,7 +16613,7 @@
     </row>
     <row r="251" ht="13.5" customHeight="1">
       <c r="A251" s="25">
-        <v>250.0</v>
+        <v>253.0</v>
       </c>
       <c r="B251" s="26"/>
       <c r="C251" s="10"/>
@@ -16730,7 +16655,7 @@
     </row>
     <row r="252" ht="13.5" customHeight="1">
       <c r="A252" s="25">
-        <v>251.0</v>
+        <v>254.0</v>
       </c>
       <c r="B252" s="26"/>
       <c r="C252" s="10"/>
@@ -16772,7 +16697,7 @@
     </row>
     <row r="253" ht="13.5" customHeight="1">
       <c r="A253" s="25">
-        <v>252.0</v>
+        <v>255.0</v>
       </c>
       <c r="B253" s="26"/>
       <c r="C253" s="10"/>
@@ -16814,7 +16739,7 @@
     </row>
     <row r="254" ht="13.5" customHeight="1">
       <c r="A254" s="25">
-        <v>253.0</v>
+        <v>256.0</v>
       </c>
       <c r="B254" s="26"/>
       <c r="C254" s="10"/>
@@ -16856,7 +16781,7 @@
     </row>
     <row r="255" ht="13.5" customHeight="1">
       <c r="A255" s="25">
-        <v>254.0</v>
+        <v>257.0</v>
       </c>
       <c r="B255" s="26"/>
       <c r="C255" s="10"/>
@@ -16898,7 +16823,7 @@
     </row>
     <row r="256" ht="13.5" customHeight="1">
       <c r="A256" s="25">
-        <v>255.0</v>
+        <v>258.0</v>
       </c>
       <c r="B256" s="26"/>
       <c r="C256" s="10"/>
@@ -16940,7 +16865,7 @@
     </row>
     <row r="257" ht="13.5" customHeight="1">
       <c r="A257" s="25">
-        <v>256.0</v>
+        <v>259.0</v>
       </c>
       <c r="B257" s="26"/>
       <c r="C257" s="10"/>
@@ -16982,7 +16907,7 @@
     </row>
     <row r="258" ht="13.5" customHeight="1">
       <c r="A258" s="25">
-        <v>257.0</v>
+        <v>260.0</v>
       </c>
       <c r="B258" s="26"/>
       <c r="C258" s="10"/>
@@ -17024,7 +16949,7 @@
     </row>
     <row r="259" ht="13.5" customHeight="1">
       <c r="A259" s="25">
-        <v>258.0</v>
+        <v>261.0</v>
       </c>
       <c r="B259" s="26"/>
       <c r="C259" s="10"/>
@@ -17066,7 +16991,7 @@
     </row>
     <row r="260" ht="13.5" customHeight="1">
       <c r="A260" s="25">
-        <v>259.0</v>
+        <v>262.0</v>
       </c>
       <c r="B260" s="26"/>
       <c r="C260" s="10"/>
@@ -17108,7 +17033,7 @@
     </row>
     <row r="261" ht="13.5" customHeight="1">
       <c r="A261" s="25">
-        <v>260.0</v>
+        <v>263.0</v>
       </c>
       <c r="B261" s="26"/>
       <c r="C261" s="10"/>
@@ -17150,7 +17075,7 @@
     </row>
     <row r="262" ht="13.5" customHeight="1">
       <c r="A262" s="25">
-        <v>261.0</v>
+        <v>264.0</v>
       </c>
       <c r="B262" s="26"/>
       <c r="C262" s="10"/>
@@ -17192,7 +17117,7 @@
     </row>
     <row r="263" ht="13.5" customHeight="1">
       <c r="A263" s="25">
-        <v>262.0</v>
+        <v>265.0</v>
       </c>
       <c r="B263" s="26"/>
       <c r="C263" s="10"/>
@@ -17234,7 +17159,7 @@
     </row>
     <row r="264" ht="13.5" customHeight="1">
       <c r="A264" s="25">
-        <v>263.0</v>
+        <v>266.0</v>
       </c>
       <c r="B264" s="26"/>
       <c r="C264" s="10"/>
@@ -17276,7 +17201,7 @@
     </row>
     <row r="265" ht="13.5" customHeight="1">
       <c r="A265" s="25">
-        <v>264.0</v>
+        <v>267.0</v>
       </c>
       <c r="B265" s="26"/>
       <c r="C265" s="10"/>
@@ -17318,7 +17243,7 @@
     </row>
     <row r="266" ht="13.5" customHeight="1">
       <c r="A266" s="25">
-        <v>265.0</v>
+        <v>268.0</v>
       </c>
       <c r="B266" s="26"/>
       <c r="C266" s="10"/>
@@ -17360,7 +17285,7 @@
     </row>
     <row r="267" ht="13.5" customHeight="1">
       <c r="A267" s="25">
-        <v>266.0</v>
+        <v>269.0</v>
       </c>
       <c r="B267" s="26"/>
       <c r="C267" s="10"/>
@@ -17402,7 +17327,7 @@
     </row>
     <row r="268" ht="13.5" customHeight="1">
       <c r="A268" s="25">
-        <v>267.0</v>
+        <v>270.0</v>
       </c>
       <c r="B268" s="26"/>
       <c r="C268" s="10"/>
@@ -17444,7 +17369,7 @@
     </row>
     <row r="269" ht="13.5" customHeight="1">
       <c r="A269" s="25">
-        <v>268.0</v>
+        <v>271.0</v>
       </c>
       <c r="B269" s="26"/>
       <c r="C269" s="10"/>
@@ -17486,7 +17411,7 @@
     </row>
     <row r="270" ht="13.5" customHeight="1">
       <c r="A270" s="25">
-        <v>269.0</v>
+        <v>272.0</v>
       </c>
       <c r="B270" s="26"/>
       <c r="C270" s="10"/>
@@ -17528,7 +17453,7 @@
     </row>
     <row r="271" ht="13.5" customHeight="1">
       <c r="A271" s="25">
-        <v>270.0</v>
+        <v>273.0</v>
       </c>
       <c r="B271" s="26"/>
       <c r="C271" s="10"/>
@@ -17570,7 +17495,7 @@
     </row>
     <row r="272" ht="13.5" customHeight="1">
       <c r="A272" s="25">
-        <v>271.0</v>
+        <v>274.0</v>
       </c>
       <c r="B272" s="26"/>
       <c r="C272" s="10"/>
@@ -17612,7 +17537,7 @@
     </row>
     <row r="273" ht="13.5" customHeight="1">
       <c r="A273" s="25">
-        <v>272.0</v>
+        <v>275.0</v>
       </c>
       <c r="B273" s="26"/>
       <c r="C273" s="10"/>
@@ -17654,7 +17579,7 @@
     </row>
     <row r="274" ht="13.5" customHeight="1">
       <c r="A274" s="25">
-        <v>273.0</v>
+        <v>276.0</v>
       </c>
       <c r="B274" s="26"/>
       <c r="C274" s="10"/>
@@ -17696,7 +17621,7 @@
     </row>
     <row r="275" ht="13.5" customHeight="1">
       <c r="A275" s="25">
-        <v>274.0</v>
+        <v>277.0</v>
       </c>
       <c r="B275" s="26"/>
       <c r="C275" s="10"/>
@@ -17738,7 +17663,7 @@
     </row>
     <row r="276" ht="13.5" customHeight="1">
       <c r="A276" s="25">
-        <v>275.0</v>
+        <v>278.0</v>
       </c>
       <c r="B276" s="26"/>
       <c r="C276" s="10"/>
@@ -17780,7 +17705,7 @@
     </row>
     <row r="277" ht="13.5" customHeight="1">
       <c r="A277" s="25">
-        <v>276.0</v>
+        <v>279.0</v>
       </c>
       <c r="B277" s="26"/>
       <c r="C277" s="10"/>
@@ -17822,7 +17747,7 @@
     </row>
     <row r="278" ht="13.5" customHeight="1">
       <c r="A278" s="25">
-        <v>277.0</v>
+        <v>280.0</v>
       </c>
       <c r="B278" s="26"/>
       <c r="C278" s="10"/>
@@ -17864,7 +17789,7 @@
     </row>
     <row r="279" ht="13.5" customHeight="1">
       <c r="A279" s="25">
-        <v>278.0</v>
+        <v>281.0</v>
       </c>
       <c r="B279" s="26"/>
       <c r="C279" s="10"/>
@@ -17906,7 +17831,7 @@
     </row>
     <row r="280" ht="13.5" customHeight="1">
       <c r="A280" s="25">
-        <v>279.0</v>
+        <v>282.0</v>
       </c>
       <c r="B280" s="26"/>
       <c r="C280" s="10"/>
@@ -17948,7 +17873,7 @@
     </row>
     <row r="281" ht="13.5" customHeight="1">
       <c r="A281" s="25">
-        <v>280.0</v>
+        <v>283.0</v>
       </c>
       <c r="B281" s="26"/>
       <c r="C281" s="10"/>
@@ -17990,7 +17915,7 @@
     </row>
     <row r="282" ht="13.5" customHeight="1">
       <c r="A282" s="25">
-        <v>281.0</v>
+        <v>284.0</v>
       </c>
       <c r="B282" s="26"/>
       <c r="C282" s="10"/>
@@ -18032,7 +17957,7 @@
     </row>
     <row r="283" ht="13.5" customHeight="1">
       <c r="A283" s="25">
-        <v>282.0</v>
+        <v>285.0</v>
       </c>
       <c r="B283" s="26"/>
       <c r="C283" s="10"/>
@@ -18074,7 +17999,7 @@
     </row>
     <row r="284" ht="13.5" customHeight="1">
       <c r="A284" s="25">
-        <v>283.0</v>
+        <v>286.0</v>
       </c>
       <c r="B284" s="26"/>
       <c r="C284" s="10"/>
@@ -18116,7 +18041,7 @@
     </row>
     <row r="285" ht="13.5" customHeight="1">
       <c r="A285" s="25">
-        <v>284.0</v>
+        <v>287.0</v>
       </c>
       <c r="B285" s="26"/>
       <c r="C285" s="10"/>
@@ -18158,7 +18083,7 @@
     </row>
     <row r="286" ht="13.5" customHeight="1">
       <c r="A286" s="25">
-        <v>285.0</v>
+        <v>288.0</v>
       </c>
       <c r="B286" s="26"/>
       <c r="C286" s="10"/>
@@ -18200,7 +18125,7 @@
     </row>
     <row r="287" ht="13.5" customHeight="1">
       <c r="A287" s="25">
-        <v>286.0</v>
+        <v>289.0</v>
       </c>
       <c r="B287" s="26"/>
       <c r="C287" s="10"/>
@@ -18242,7 +18167,7 @@
     </row>
     <row r="288" ht="13.5" customHeight="1">
       <c r="A288" s="25">
-        <v>287.0</v>
+        <v>290.0</v>
       </c>
       <c r="B288" s="26"/>
       <c r="C288" s="10"/>
@@ -18284,7 +18209,7 @@
     </row>
     <row r="289" ht="13.5" customHeight="1">
       <c r="A289" s="25">
-        <v>288.0</v>
+        <v>291.0</v>
       </c>
       <c r="B289" s="26"/>
       <c r="C289" s="10"/>
@@ -18326,7 +18251,7 @@
     </row>
     <row r="290" ht="13.5" customHeight="1">
       <c r="A290" s="25">
-        <v>289.0</v>
+        <v>292.0</v>
       </c>
       <c r="B290" s="26"/>
       <c r="C290" s="10"/>
@@ -18368,7 +18293,7 @@
     </row>
     <row r="291" ht="13.5" customHeight="1">
       <c r="A291" s="25">
-        <v>290.0</v>
+        <v>293.0</v>
       </c>
       <c r="B291" s="26"/>
       <c r="C291" s="10"/>
@@ -18410,7 +18335,7 @@
     </row>
     <row r="292" ht="13.5" customHeight="1">
       <c r="A292" s="25">
-        <v>291.0</v>
+        <v>294.0</v>
       </c>
       <c r="B292" s="26"/>
       <c r="C292" s="10"/>
@@ -18452,7 +18377,7 @@
     </row>
     <row r="293" ht="13.5" customHeight="1">
       <c r="A293" s="25">
-        <v>292.0</v>
+        <v>295.0</v>
       </c>
       <c r="B293" s="26"/>
       <c r="C293" s="10"/>
@@ -18494,7 +18419,7 @@
     </row>
     <row r="294" ht="13.5" customHeight="1">
       <c r="A294" s="25">
-        <v>293.0</v>
+        <v>296.0</v>
       </c>
       <c r="B294" s="26"/>
       <c r="C294" s="10"/>
@@ -18536,7 +18461,7 @@
     </row>
     <row r="295" ht="13.5" customHeight="1">
       <c r="A295" s="25">
-        <v>294.0</v>
+        <v>297.0</v>
       </c>
       <c r="B295" s="26"/>
       <c r="C295" s="10"/>
@@ -18578,7 +18503,7 @@
     </row>
     <row r="296" ht="13.5" customHeight="1">
       <c r="A296" s="25">
-        <v>295.0</v>
+        <v>298.0</v>
       </c>
       <c r="B296" s="26"/>
       <c r="C296" s="10"/>
@@ -18620,7 +18545,7 @@
     </row>
     <row r="297" ht="13.5" customHeight="1">
       <c r="A297" s="25">
-        <v>296.0</v>
+        <v>299.0</v>
       </c>
       <c r="B297" s="26"/>
       <c r="C297" s="10"/>
@@ -18662,7 +18587,7 @@
     </row>
     <row r="298" ht="13.5" customHeight="1">
       <c r="A298" s="25">
-        <v>297.0</v>
+        <v>300.0</v>
       </c>
       <c r="B298" s="26"/>
       <c r="C298" s="10"/>
@@ -18704,7 +18629,7 @@
     </row>
     <row r="299" ht="13.5" customHeight="1">
       <c r="A299" s="25">
-        <v>298.0</v>
+        <v>301.0</v>
       </c>
       <c r="B299" s="26"/>
       <c r="C299" s="10"/>
@@ -18746,7 +18671,7 @@
     </row>
     <row r="300" ht="13.5" customHeight="1">
       <c r="A300" s="25">
-        <v>299.0</v>
+        <v>302.0</v>
       </c>
       <c r="B300" s="26"/>
       <c r="C300" s="10"/>
@@ -18788,7 +18713,7 @@
     </row>
     <row r="301" ht="13.5" customHeight="1">
       <c r="A301" s="25">
-        <v>300.0</v>
+        <v>303.0</v>
       </c>
       <c r="B301" s="26"/>
       <c r="C301" s="10"/>
@@ -18830,7 +18755,7 @@
     </row>
     <row r="302" ht="13.5" customHeight="1">
       <c r="A302" s="25">
-        <v>301.0</v>
+        <v>304.0</v>
       </c>
       <c r="B302" s="26"/>
       <c r="C302" s="10"/>
@@ -18872,7 +18797,7 @@
     </row>
     <row r="303" ht="13.5" customHeight="1">
       <c r="A303" s="25">
-        <v>302.0</v>
+        <v>305.0</v>
       </c>
       <c r="B303" s="26"/>
       <c r="C303" s="10"/>
@@ -18914,7 +18839,7 @@
     </row>
     <row r="304" ht="13.5" customHeight="1">
       <c r="A304" s="25">
-        <v>303.0</v>
+        <v>306.0</v>
       </c>
       <c r="B304" s="26"/>
       <c r="C304" s="10"/>
@@ -18956,7 +18881,7 @@
     </row>
     <row r="305" ht="13.5" customHeight="1">
       <c r="A305" s="25">
-        <v>304.0</v>
+        <v>307.0</v>
       </c>
       <c r="B305" s="26"/>
       <c r="C305" s="10"/>
@@ -18998,7 +18923,7 @@
     </row>
     <row r="306" ht="13.5" customHeight="1">
       <c r="A306" s="25">
-        <v>305.0</v>
+        <v>308.0</v>
       </c>
       <c r="B306" s="26"/>
       <c r="C306" s="10"/>
@@ -19040,7 +18965,7 @@
     </row>
     <row r="307" ht="13.5" customHeight="1">
       <c r="A307" s="25">
-        <v>306.0</v>
+        <v>309.0</v>
       </c>
       <c r="B307" s="26"/>
       <c r="C307" s="10"/>
@@ -19082,7 +19007,7 @@
     </row>
     <row r="308" ht="13.5" customHeight="1">
       <c r="A308" s="25">
-        <v>307.0</v>
+        <v>310.0</v>
       </c>
       <c r="B308" s="26"/>
       <c r="C308" s="10"/>
@@ -19124,7 +19049,7 @@
     </row>
     <row r="309" ht="13.5" customHeight="1">
       <c r="A309" s="25">
-        <v>308.0</v>
+        <v>311.0</v>
       </c>
       <c r="B309" s="26"/>
       <c r="C309" s="10"/>
@@ -19166,7 +19091,7 @@
     </row>
     <row r="310" ht="13.5" customHeight="1">
       <c r="A310" s="25">
-        <v>309.0</v>
+        <v>312.0</v>
       </c>
       <c r="B310" s="26"/>
       <c r="C310" s="10"/>
@@ -19208,7 +19133,7 @@
     </row>
     <row r="311" ht="13.5" customHeight="1">
       <c r="A311" s="25">
-        <v>310.0</v>
+        <v>313.0</v>
       </c>
       <c r="B311" s="26"/>
       <c r="C311" s="10"/>
@@ -19250,7 +19175,7 @@
     </row>
     <row r="312" ht="13.5" customHeight="1">
       <c r="A312" s="25">
-        <v>311.0</v>
+        <v>314.0</v>
       </c>
       <c r="B312" s="26"/>
       <c r="C312" s="10"/>
@@ -19292,7 +19217,7 @@
     </row>
     <row r="313" ht="13.5" customHeight="1">
       <c r="A313" s="25">
-        <v>312.0</v>
+        <v>315.0</v>
       </c>
       <c r="B313" s="26"/>
       <c r="C313" s="10"/>
@@ -19334,7 +19259,7 @@
     </row>
     <row r="314" ht="13.5" customHeight="1">
       <c r="A314" s="25">
-        <v>313.0</v>
+        <v>316.0</v>
       </c>
       <c r="B314" s="26"/>
       <c r="C314" s="10"/>
@@ -19376,7 +19301,7 @@
     </row>
     <row r="315" ht="13.5" customHeight="1">
       <c r="A315" s="25">
-        <v>314.0</v>
+        <v>317.0</v>
       </c>
       <c r="B315" s="26"/>
       <c r="C315" s="10"/>
@@ -19418,7 +19343,7 @@
     </row>
     <row r="316" ht="13.5" customHeight="1">
       <c r="A316" s="25">
-        <v>315.0</v>
+        <v>318.0</v>
       </c>
       <c r="B316" s="26"/>
       <c r="C316" s="10"/>
@@ -19460,7 +19385,7 @@
     </row>
     <row r="317" ht="13.5" customHeight="1">
       <c r="A317" s="25">
-        <v>316.0</v>
+        <v>319.0</v>
       </c>
       <c r="B317" s="26"/>
       <c r="C317" s="10"/>
@@ -19501,36 +19426,31 @@
       <c r="AI317" s="18"/>
     </row>
     <row r="318" ht="13.5" customHeight="1">
-      <c r="A318" s="25">
-        <v>317.0</v>
-      </c>
-      <c r="B318" s="26"/>
-      <c r="C318" s="10"/>
-      <c r="D318" s="10"/>
-      <c r="E318" s="12"/>
-      <c r="F318" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G318" s="15"/>
-      <c r="H318" s="15"/>
-      <c r="I318" s="14"/>
-      <c r="J318" s="14"/>
-      <c r="K318" s="16"/>
-      <c r="L318" s="15"/>
-      <c r="M318" s="17"/>
-      <c r="N318" s="17"/>
-      <c r="O318" s="17"/>
-      <c r="P318" s="17"/>
-      <c r="Q318" s="17"/>
-      <c r="R318" s="17"/>
-      <c r="S318" s="17"/>
-      <c r="T318" s="17"/>
-      <c r="U318" s="17"/>
-      <c r="V318" s="17"/>
-      <c r="W318" s="17"/>
-      <c r="X318" s="17"/>
-      <c r="Y318" s="17"/>
+      <c r="A318" s="27"/>
+      <c r="B318" s="28"/>
+      <c r="C318" s="29"/>
+      <c r="D318" s="29"/>
+      <c r="E318" s="30"/>
+      <c r="F318" s="31"/>
+      <c r="G318" s="32"/>
+      <c r="H318" s="32"/>
+      <c r="I318" s="32"/>
+      <c r="J318" s="32"/>
+      <c r="K318" s="33"/>
+      <c r="L318" s="18"/>
+      <c r="M318" s="18"/>
+      <c r="N318" s="18"/>
+      <c r="O318" s="18"/>
+      <c r="P318" s="18"/>
+      <c r="Q318" s="18"/>
+      <c r="R318" s="18"/>
+      <c r="S318" s="18"/>
+      <c r="T318" s="18"/>
+      <c r="U318" s="18"/>
+      <c r="V318" s="18"/>
+      <c r="W318" s="18"/>
+      <c r="X318" s="18"/>
+      <c r="Y318" s="18"/>
       <c r="Z318" s="18"/>
       <c r="AA318" s="18"/>
       <c r="AB318" s="18"/>
@@ -19543,36 +19463,31 @@
       <c r="AI318" s="18"/>
     </row>
     <row r="319" ht="13.5" customHeight="1">
-      <c r="A319" s="25">
-        <v>318.0</v>
-      </c>
-      <c r="B319" s="26"/>
-      <c r="C319" s="10"/>
-      <c r="D319" s="10"/>
-      <c r="E319" s="12"/>
-      <c r="F319" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G319" s="15"/>
-      <c r="H319" s="15"/>
-      <c r="I319" s="14"/>
-      <c r="J319" s="14"/>
-      <c r="K319" s="16"/>
-      <c r="L319" s="15"/>
-      <c r="M319" s="17"/>
-      <c r="N319" s="17"/>
-      <c r="O319" s="17"/>
-      <c r="P319" s="17"/>
-      <c r="Q319" s="17"/>
-      <c r="R319" s="17"/>
-      <c r="S319" s="17"/>
-      <c r="T319" s="17"/>
-      <c r="U319" s="17"/>
-      <c r="V319" s="17"/>
-      <c r="W319" s="17"/>
-      <c r="X319" s="17"/>
-      <c r="Y319" s="17"/>
+      <c r="A319" s="27"/>
+      <c r="B319" s="28"/>
+      <c r="C319" s="29"/>
+      <c r="D319" s="29"/>
+      <c r="E319" s="30"/>
+      <c r="F319" s="31"/>
+      <c r="G319" s="32"/>
+      <c r="H319" s="32"/>
+      <c r="I319" s="32"/>
+      <c r="J319" s="32"/>
+      <c r="K319" s="33"/>
+      <c r="L319" s="18"/>
+      <c r="M319" s="18"/>
+      <c r="N319" s="18"/>
+      <c r="O319" s="18"/>
+      <c r="P319" s="18"/>
+      <c r="Q319" s="18"/>
+      <c r="R319" s="18"/>
+      <c r="S319" s="18"/>
+      <c r="T319" s="18"/>
+      <c r="U319" s="18"/>
+      <c r="V319" s="18"/>
+      <c r="W319" s="18"/>
+      <c r="X319" s="18"/>
+      <c r="Y319" s="18"/>
       <c r="Z319" s="18"/>
       <c r="AA319" s="18"/>
       <c r="AB319" s="18"/>
@@ -19585,36 +19500,31 @@
       <c r="AI319" s="18"/>
     </row>
     <row r="320" ht="13.5" customHeight="1">
-      <c r="A320" s="25">
-        <v>319.0</v>
-      </c>
-      <c r="B320" s="26"/>
-      <c r="C320" s="10"/>
-      <c r="D320" s="10"/>
-      <c r="E320" s="12"/>
-      <c r="F320" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G320" s="15"/>
-      <c r="H320" s="15"/>
-      <c r="I320" s="14"/>
-      <c r="J320" s="14"/>
-      <c r="K320" s="16"/>
-      <c r="L320" s="15"/>
-      <c r="M320" s="17"/>
-      <c r="N320" s="17"/>
-      <c r="O320" s="17"/>
-      <c r="P320" s="17"/>
-      <c r="Q320" s="17"/>
-      <c r="R320" s="17"/>
-      <c r="S320" s="17"/>
-      <c r="T320" s="17"/>
-      <c r="U320" s="17"/>
-      <c r="V320" s="17"/>
-      <c r="W320" s="17"/>
-      <c r="X320" s="17"/>
-      <c r="Y320" s="17"/>
+      <c r="A320" s="27"/>
+      <c r="B320" s="28"/>
+      <c r="C320" s="29"/>
+      <c r="D320" s="29"/>
+      <c r="E320" s="30"/>
+      <c r="F320" s="31"/>
+      <c r="G320" s="32"/>
+      <c r="H320" s="32"/>
+      <c r="I320" s="32"/>
+      <c r="J320" s="32"/>
+      <c r="K320" s="33"/>
+      <c r="L320" s="18"/>
+      <c r="M320" s="18"/>
+      <c r="N320" s="18"/>
+      <c r="O320" s="18"/>
+      <c r="P320" s="18"/>
+      <c r="Q320" s="18"/>
+      <c r="R320" s="18"/>
+      <c r="S320" s="18"/>
+      <c r="T320" s="18"/>
+      <c r="U320" s="18"/>
+      <c r="V320" s="18"/>
+      <c r="W320" s="18"/>
+      <c r="X320" s="18"/>
+      <c r="Y320" s="18"/>
       <c r="Z320" s="18"/>
       <c r="AA320" s="18"/>
       <c r="AB320" s="18"/>
@@ -44749,119 +44659,8 @@
       <c r="AH999" s="18"/>
       <c r="AI999" s="18"/>
     </row>
-    <row r="1000" ht="13.5" customHeight="1">
-      <c r="A1000" s="27"/>
-      <c r="B1000" s="28"/>
-      <c r="C1000" s="29"/>
-      <c r="D1000" s="29"/>
-      <c r="E1000" s="30"/>
-      <c r="F1000" s="31"/>
-      <c r="G1000" s="32"/>
-      <c r="H1000" s="32"/>
-      <c r="I1000" s="32"/>
-      <c r="J1000" s="32"/>
-      <c r="K1000" s="33"/>
-      <c r="L1000" s="18"/>
-      <c r="M1000" s="18"/>
-      <c r="N1000" s="18"/>
-      <c r="O1000" s="18"/>
-      <c r="P1000" s="18"/>
-      <c r="Q1000" s="18"/>
-      <c r="R1000" s="18"/>
-      <c r="S1000" s="18"/>
-      <c r="T1000" s="18"/>
-      <c r="U1000" s="18"/>
-      <c r="V1000" s="18"/>
-      <c r="W1000" s="18"/>
-      <c r="X1000" s="18"/>
-      <c r="Y1000" s="18"/>
-      <c r="Z1000" s="18"/>
-      <c r="AA1000" s="18"/>
-      <c r="AB1000" s="18"/>
-      <c r="AC1000" s="18"/>
-      <c r="AD1000" s="18"/>
-      <c r="AE1000" s="18"/>
-      <c r="AF1000" s="18"/>
-      <c r="AG1000" s="18"/>
-      <c r="AH1000" s="18"/>
-      <c r="AI1000" s="18"/>
-    </row>
-    <row r="1001" ht="13.5" customHeight="1">
-      <c r="A1001" s="27"/>
-      <c r="B1001" s="28"/>
-      <c r="C1001" s="29"/>
-      <c r="D1001" s="29"/>
-      <c r="E1001" s="30"/>
-      <c r="F1001" s="31"/>
-      <c r="G1001" s="32"/>
-      <c r="H1001" s="32"/>
-      <c r="I1001" s="32"/>
-      <c r="J1001" s="32"/>
-      <c r="K1001" s="33"/>
-      <c r="L1001" s="18"/>
-      <c r="M1001" s="18"/>
-      <c r="N1001" s="18"/>
-      <c r="O1001" s="18"/>
-      <c r="P1001" s="18"/>
-      <c r="Q1001" s="18"/>
-      <c r="R1001" s="18"/>
-      <c r="S1001" s="18"/>
-      <c r="T1001" s="18"/>
-      <c r="U1001" s="18"/>
-      <c r="V1001" s="18"/>
-      <c r="W1001" s="18"/>
-      <c r="X1001" s="18"/>
-      <c r="Y1001" s="18"/>
-      <c r="Z1001" s="18"/>
-      <c r="AA1001" s="18"/>
-      <c r="AB1001" s="18"/>
-      <c r="AC1001" s="18"/>
-      <c r="AD1001" s="18"/>
-      <c r="AE1001" s="18"/>
-      <c r="AF1001" s="18"/>
-      <c r="AG1001" s="18"/>
-      <c r="AH1001" s="18"/>
-      <c r="AI1001" s="18"/>
-    </row>
-    <row r="1002" ht="13.5" customHeight="1">
-      <c r="A1002" s="27"/>
-      <c r="B1002" s="28"/>
-      <c r="C1002" s="29"/>
-      <c r="D1002" s="29"/>
-      <c r="E1002" s="30"/>
-      <c r="F1002" s="31"/>
-      <c r="G1002" s="32"/>
-      <c r="H1002" s="32"/>
-      <c r="I1002" s="32"/>
-      <c r="J1002" s="32"/>
-      <c r="K1002" s="33"/>
-      <c r="L1002" s="18"/>
-      <c r="M1002" s="18"/>
-      <c r="N1002" s="18"/>
-      <c r="O1002" s="18"/>
-      <c r="P1002" s="18"/>
-      <c r="Q1002" s="18"/>
-      <c r="R1002" s="18"/>
-      <c r="S1002" s="18"/>
-      <c r="T1002" s="18"/>
-      <c r="U1002" s="18"/>
-      <c r="V1002" s="18"/>
-      <c r="W1002" s="18"/>
-      <c r="X1002" s="18"/>
-      <c r="Y1002" s="18"/>
-      <c r="Z1002" s="18"/>
-      <c r="AA1002" s="18"/>
-      <c r="AB1002" s="18"/>
-      <c r="AC1002" s="18"/>
-      <c r="AD1002" s="18"/>
-      <c r="AE1002" s="18"/>
-      <c r="AF1002" s="18"/>
-      <c r="AG1002" s="18"/>
-      <c r="AH1002" s="18"/>
-      <c r="AI1002" s="18"/>
-    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$K$185"/>
+  <autoFilter ref="$A$1:$K$182"/>
   <conditionalFormatting sqref="B3">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>LEN(B3)&gt;40</formula>
@@ -44912,338 +44711,338 @@
       <formula>LEN(B13)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B69">
+  <conditionalFormatting sqref="B54:B66">
     <cfRule type="expression" dxfId="0" priority="11">
-      <formula>LEN(B57)&gt;40</formula>
+      <formula>LEN(B54)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B69">
+  <conditionalFormatting sqref="B54:B66">
     <cfRule type="expression" dxfId="0" priority="12">
-      <formula>LEN(B57)&gt;40</formula>
+      <formula>LEN(B54)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B69">
+  <conditionalFormatting sqref="B54:B66">
     <cfRule type="expression" dxfId="0" priority="13">
-      <formula>LEN(B57)&gt;40</formula>
+      <formula>LEN(B54)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B69">
+  <conditionalFormatting sqref="B54:B66">
     <cfRule type="expression" dxfId="0" priority="14">
-      <formula>LEN(B57)&gt;40</formula>
+      <formula>LEN(B54)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B69">
+  <conditionalFormatting sqref="B54:B66">
     <cfRule type="expression" dxfId="0" priority="15">
-      <formula>LEN(B57)&gt;40</formula>
+      <formula>LEN(B54)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B69">
+  <conditionalFormatting sqref="B54:B66">
     <cfRule type="expression" dxfId="0" priority="16">
-      <formula>LEN(B57)&gt;40</formula>
+      <formula>LEN(B54)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B69">
+  <conditionalFormatting sqref="B54:B66">
     <cfRule type="expression" dxfId="0" priority="17">
-      <formula>LEN(B57)&gt;40</formula>
+      <formula>LEN(B54)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B69">
+  <conditionalFormatting sqref="B54:B66">
     <cfRule type="expression" dxfId="0" priority="18">
-      <formula>LEN(B57)&gt;40</formula>
+      <formula>LEN(B54)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B69">
+  <conditionalFormatting sqref="B54:B66">
     <cfRule type="expression" dxfId="0" priority="19">
-      <formula>LEN(B57)&gt;40</formula>
+      <formula>LEN(B54)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B69">
+  <conditionalFormatting sqref="B54:B66">
     <cfRule type="expression" dxfId="0" priority="20">
-      <formula>LEN(B57)&gt;40</formula>
+      <formula>LEN(B54)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B69">
+  <conditionalFormatting sqref="B54:B66">
     <cfRule type="expression" dxfId="0" priority="21">
-      <formula>LEN(B57)&gt;40</formula>
+      <formula>LEN(B54)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
+  <conditionalFormatting sqref="B66">
     <cfRule type="expression" dxfId="0" priority="22">
-      <formula>LEN(B69)&gt;40</formula>
+      <formula>LEN(B66)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
+  <conditionalFormatting sqref="B66">
     <cfRule type="expression" dxfId="0" priority="23">
-      <formula>LEN(B69)&gt;40</formula>
+      <formula>LEN(B66)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
+  <conditionalFormatting sqref="B66">
     <cfRule type="expression" dxfId="0" priority="24">
-      <formula>LEN(B69)&gt;40</formula>
+      <formula>LEN(B66)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
+  <conditionalFormatting sqref="B66">
     <cfRule type="expression" dxfId="0" priority="25">
-      <formula>LEN(B69)&gt;40</formula>
+      <formula>LEN(B66)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
+  <conditionalFormatting sqref="B66">
     <cfRule type="expression" dxfId="0" priority="26">
-      <formula>LEN(B69)&gt;40</formula>
+      <formula>LEN(B66)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
+  <conditionalFormatting sqref="B66">
     <cfRule type="expression" dxfId="0" priority="27">
-      <formula>LEN(B69)&gt;40</formula>
+      <formula>LEN(B66)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
+  <conditionalFormatting sqref="B66">
     <cfRule type="expression" dxfId="0" priority="28">
-      <formula>LEN(B69)&gt;40</formula>
+      <formula>LEN(B66)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
+  <conditionalFormatting sqref="B66">
     <cfRule type="expression" dxfId="0" priority="29">
-      <formula>LEN(B69)&gt;40</formula>
+      <formula>LEN(B66)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
+  <conditionalFormatting sqref="B66">
     <cfRule type="expression" dxfId="0" priority="30">
-      <formula>LEN(B69)&gt;40</formula>
+      <formula>LEN(B66)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
+  <conditionalFormatting sqref="B66">
     <cfRule type="expression" dxfId="0" priority="31">
-      <formula>LEN(B69)&gt;40</formula>
+      <formula>LEN(B66)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B69">
+  <conditionalFormatting sqref="B66">
     <cfRule type="expression" dxfId="0" priority="32">
-      <formula>LEN(B69)&gt;40</formula>
+      <formula>LEN(B66)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70:B87">
+  <conditionalFormatting sqref="B67:B84">
     <cfRule type="expression" dxfId="0" priority="33">
-      <formula>LEN(B70)&gt;40</formula>
+      <formula>LEN(B67)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70:B87">
+  <conditionalFormatting sqref="B67:B84">
     <cfRule type="expression" dxfId="0" priority="34">
-      <formula>LEN(B70)&gt;40</formula>
+      <formula>LEN(B67)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70:B87">
+  <conditionalFormatting sqref="B67:B84">
     <cfRule type="expression" dxfId="0" priority="35">
-      <formula>LEN(B70)&gt;40</formula>
+      <formula>LEN(B67)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70:B87">
+  <conditionalFormatting sqref="B67:B84">
     <cfRule type="expression" dxfId="0" priority="36">
-      <formula>LEN(B70)&gt;40</formula>
+      <formula>LEN(B67)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70:B87">
+  <conditionalFormatting sqref="B67:B84">
     <cfRule type="expression" dxfId="0" priority="37">
-      <formula>LEN(B70)&gt;40</formula>
+      <formula>LEN(B67)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70:B87">
+  <conditionalFormatting sqref="B67:B84">
     <cfRule type="expression" dxfId="0" priority="38">
-      <formula>LEN(B70)&gt;40</formula>
+      <formula>LEN(B67)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70:B87">
+  <conditionalFormatting sqref="B67:B84">
     <cfRule type="expression" dxfId="0" priority="39">
-      <formula>LEN(B70)&gt;40</formula>
+      <formula>LEN(B67)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70:B87">
+  <conditionalFormatting sqref="B67:B84">
     <cfRule type="expression" dxfId="0" priority="40">
-      <formula>LEN(B70)&gt;40</formula>
+      <formula>LEN(B67)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70:B87">
+  <conditionalFormatting sqref="B67:B84">
     <cfRule type="expression" dxfId="0" priority="41">
-      <formula>LEN(B70)&gt;40</formula>
+      <formula>LEN(B67)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70:B87">
+  <conditionalFormatting sqref="B67:B84">
     <cfRule type="expression" dxfId="0" priority="42">
-      <formula>LEN(B70)&gt;40</formula>
+      <formula>LEN(B67)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70:B87">
+  <conditionalFormatting sqref="B67:B84">
     <cfRule type="expression" dxfId="0" priority="43">
-      <formula>LEN(B70)&gt;40</formula>
+      <formula>LEN(B67)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B99">
+  <conditionalFormatting sqref="B80:B96">
     <cfRule type="expression" dxfId="0" priority="44">
-      <formula>LEN(B83)&gt;40</formula>
+      <formula>LEN(B80)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B99">
+  <conditionalFormatting sqref="B80:B96">
     <cfRule type="expression" dxfId="0" priority="45">
-      <formula>LEN(B83)&gt;40</formula>
+      <formula>LEN(B80)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B99">
+  <conditionalFormatting sqref="B80:B96">
     <cfRule type="expression" dxfId="0" priority="46">
-      <formula>LEN(B83)&gt;40</formula>
+      <formula>LEN(B80)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B99">
+  <conditionalFormatting sqref="B80:B96">
     <cfRule type="expression" dxfId="0" priority="47">
-      <formula>LEN(B83)&gt;40</formula>
+      <formula>LEN(B80)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B99">
+  <conditionalFormatting sqref="B80:B96">
     <cfRule type="expression" dxfId="0" priority="48">
-      <formula>LEN(B83)&gt;40</formula>
+      <formula>LEN(B80)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B99">
+  <conditionalFormatting sqref="B80:B96">
     <cfRule type="expression" dxfId="0" priority="49">
-      <formula>LEN(B83)&gt;40</formula>
+      <formula>LEN(B80)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B99">
+  <conditionalFormatting sqref="B80:B96">
     <cfRule type="expression" dxfId="0" priority="50">
-      <formula>LEN(B83)&gt;40</formula>
+      <formula>LEN(B80)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B99">
+  <conditionalFormatting sqref="B80:B96">
     <cfRule type="expression" dxfId="0" priority="51">
-      <formula>LEN(B83)&gt;40</formula>
+      <formula>LEN(B80)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B99">
+  <conditionalFormatting sqref="B80:B96">
     <cfRule type="expression" dxfId="0" priority="52">
-      <formula>LEN(B83)&gt;40</formula>
+      <formula>LEN(B80)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B99">
+  <conditionalFormatting sqref="B80:B96">
     <cfRule type="expression" dxfId="0" priority="53">
-      <formula>LEN(B83)&gt;40</formula>
+      <formula>LEN(B80)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B99">
+  <conditionalFormatting sqref="B80:B96">
     <cfRule type="expression" dxfId="0" priority="54">
-      <formula>LEN(B83)&gt;40</formula>
+      <formula>LEN(B80)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
+  <conditionalFormatting sqref="B79">
     <cfRule type="expression" dxfId="0" priority="55">
-      <formula>LEN(B82)&gt;40</formula>
+      <formula>LEN(B79)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
+  <conditionalFormatting sqref="B79">
     <cfRule type="expression" dxfId="0" priority="56">
-      <formula>LEN(B82)&gt;40</formula>
+      <formula>LEN(B79)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
+  <conditionalFormatting sqref="B79">
     <cfRule type="expression" dxfId="0" priority="57">
-      <formula>LEN(B82)&gt;40</formula>
+      <formula>LEN(B79)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
+  <conditionalFormatting sqref="B79">
     <cfRule type="expression" dxfId="0" priority="58">
-      <formula>LEN(B82)&gt;40</formula>
+      <formula>LEN(B79)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
+  <conditionalFormatting sqref="B79">
     <cfRule type="expression" dxfId="0" priority="59">
-      <formula>LEN(B82)&gt;40</formula>
+      <formula>LEN(B79)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
+  <conditionalFormatting sqref="B79">
     <cfRule type="expression" dxfId="0" priority="60">
-      <formula>LEN(B82)&gt;40</formula>
+      <formula>LEN(B79)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
+  <conditionalFormatting sqref="B79">
     <cfRule type="expression" dxfId="0" priority="61">
-      <formula>LEN(B82)&gt;40</formula>
+      <formula>LEN(B79)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
+  <conditionalFormatting sqref="B79">
     <cfRule type="expression" dxfId="0" priority="62">
-      <formula>LEN(B82)&gt;40</formula>
+      <formula>LEN(B79)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
+  <conditionalFormatting sqref="B79">
     <cfRule type="expression" dxfId="0" priority="63">
-      <formula>LEN(B82)&gt;40</formula>
+      <formula>LEN(B79)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
+  <conditionalFormatting sqref="B79">
     <cfRule type="expression" dxfId="0" priority="64">
-      <formula>LEN(B82)&gt;40</formula>
+      <formula>LEN(B79)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82">
+  <conditionalFormatting sqref="B79">
     <cfRule type="expression" dxfId="0" priority="65">
-      <formula>LEN(B82)&gt;40</formula>
+      <formula>LEN(B79)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B99">
+  <conditionalFormatting sqref="B80:B96">
     <cfRule type="expression" dxfId="0" priority="66">
-      <formula>LEN(B83)&gt;40</formula>
+      <formula>LEN(B80)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B99">
+  <conditionalFormatting sqref="B80:B96">
     <cfRule type="expression" dxfId="0" priority="67">
-      <formula>LEN(B83)&gt;40</formula>
+      <formula>LEN(B80)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B99">
+  <conditionalFormatting sqref="B80:B96">
     <cfRule type="expression" dxfId="0" priority="68">
-      <formula>LEN(B83)&gt;40</formula>
+      <formula>LEN(B80)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B99">
+  <conditionalFormatting sqref="B80:B96">
     <cfRule type="expression" dxfId="0" priority="69">
-      <formula>LEN(B83)&gt;40</formula>
+      <formula>LEN(B80)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B99">
+  <conditionalFormatting sqref="B80:B96">
     <cfRule type="expression" dxfId="0" priority="70">
-      <formula>LEN(B83)&gt;40</formula>
+      <formula>LEN(B80)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B99">
+  <conditionalFormatting sqref="B80:B96">
     <cfRule type="expression" dxfId="0" priority="71">
-      <formula>LEN(B83)&gt;40</formula>
+      <formula>LEN(B80)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B99">
+  <conditionalFormatting sqref="B80:B96">
     <cfRule type="expression" dxfId="0" priority="72">
-      <formula>LEN(B83)&gt;40</formula>
+      <formula>LEN(B80)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B99">
+  <conditionalFormatting sqref="B80:B96">
     <cfRule type="expression" dxfId="0" priority="73">
-      <formula>LEN(B83)&gt;40</formula>
+      <formula>LEN(B80)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B99">
+  <conditionalFormatting sqref="B80:B96">
     <cfRule type="expression" dxfId="0" priority="74">
-      <formula>LEN(B83)&gt;40</formula>
+      <formula>LEN(B80)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B99">
+  <conditionalFormatting sqref="B80:B96">
     <cfRule type="expression" dxfId="0" priority="75">
-      <formula>LEN(B83)&gt;40</formula>
+      <formula>LEN(B80)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B99">
+  <conditionalFormatting sqref="B80:B96">
     <cfRule type="expression" dxfId="0" priority="76">
-      <formula>LEN(B83)&gt;40</formula>
+      <formula>LEN(B80)&gt;40</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E320">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E317">
       <formula1>"-Mon,-Sel,-Sts,-SP,-RB,-Cmd"</formula1>
     </dataValidation>
   </dataValidations>

--- a/etc/Delta_v2.xlsx
+++ b/etc/Delta_v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="471">
   <si>
     <t xml:space="preserve">Nº</t>
   </si>
@@ -185,6 +185,18 @@
   </si>
   <si>
     <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CID</t>
   </si>
   <si>
     <t xml:space="preserve">Trg type config sts for mod 01</t>
@@ -2436,7 +2448,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.85"/>
@@ -2686,11 +2698,11 @@
   </sheetPr>
   <dimension ref="A1:Y60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C61" activeCellId="0" sqref="C61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U14" activeCellId="0" sqref="U14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.57"/>
@@ -2784,7 +2796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
@@ -2840,10 +2852,18 @@
       <c r="T2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
+      <c r="U2" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="Y2" s="17"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2851,13 +2871,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>42</v>
@@ -2874,7 +2894,7 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>32</v>
@@ -2885,13 +2905,13 @@
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
       <c r="O3" s="17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
@@ -2907,13 +2927,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>42</v>
@@ -2930,7 +2950,7 @@
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>32</v>
@@ -2941,10 +2961,10 @@
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
@@ -2961,13 +2981,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>42</v>
@@ -2977,14 +2997,14 @@
         <v>$(PREFIX_MOD01)Mirror-Sts</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="14" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>32</v>
@@ -2993,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
@@ -3015,30 +3035,30 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F6" s="13" t="str">
         <f aca="false">C6&amp;D6&amp;E6</f>
         <v>$(PREFIX_MOD01)ExtTrig-Mon</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="14" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>32</v>
@@ -3047,10 +3067,10 @@
         <v>0</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O6" s="17"/>
       <c r="P6" s="17"/>
@@ -3069,30 +3089,30 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F7" s="13" t="str">
         <f aca="false">C7&amp;D7&amp;E7</f>
         <v>$(PREFIX_MOD01)SoftTrig-Mon</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H7" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>32</v>
@@ -3101,10 +3121,10 @@
         <v>0</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O7" s="17"/>
       <c r="P7" s="17"/>
@@ -3123,16 +3143,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F8" s="13" t="str">
         <f aca="false">C8&amp;D8&amp;E8</f>
@@ -3146,7 +3166,7 @@
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>32</v>
@@ -3157,10 +3177,10 @@
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
       <c r="O8" s="17" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="17"/>
       <c r="R8" s="17"/>
@@ -3177,16 +3197,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F9" s="13" t="str">
         <f aca="false">C9&amp;D9&amp;E9</f>
@@ -3200,7 +3220,7 @@
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>32</v>
@@ -3211,13 +3231,13 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
       <c r="O9" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q9" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="P9" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q9" s="17" t="s">
-        <v>83</v>
       </c>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
@@ -3233,16 +3253,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F10" s="13" t="str">
         <f aca="false">C10&amp;D10&amp;E10</f>
@@ -3256,7 +3276,7 @@
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="14" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>32</v>
@@ -3267,13 +3287,13 @@
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
       <c r="O10" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q10" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="P10" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q10" s="17" t="s">
-        <v>83</v>
       </c>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
@@ -3289,16 +3309,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F11" s="13" t="str">
         <f aca="false">C11&amp;D11&amp;E11</f>
@@ -3312,7 +3332,7 @@
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>32</v>
@@ -3323,13 +3343,13 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
       <c r="O11" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q11" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="P11" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q11" s="17" t="s">
-        <v>83</v>
       </c>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
@@ -3345,16 +3365,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F12" s="13" t="str">
         <f aca="false">C12&amp;D12&amp;E12</f>
@@ -3368,7 +3388,7 @@
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>32</v>
@@ -3379,13 +3399,13 @@
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
       <c r="O12" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q12" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="P12" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q12" s="17" t="s">
-        <v>83</v>
       </c>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
@@ -3396,12 +3416,12 @@
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>45</v>
@@ -3424,7 +3444,7 @@
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K13" s="16" t="s">
         <v>32</v>
@@ -3452,10 +3472,18 @@
       <c r="T13" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
+      <c r="U13" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="V13" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="W13" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="X13" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="Y13" s="17"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3463,13 +3491,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>28</v>
@@ -3486,7 +3514,7 @@
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="14" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>32</v>
@@ -3497,13 +3525,13 @@
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
       <c r="O14" s="17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P14" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="R14" s="17"/>
       <c r="S14" s="17"/>
@@ -3519,13 +3547,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>28</v>
@@ -3542,7 +3570,7 @@
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K15" s="16" t="s">
         <v>32</v>
@@ -3553,10 +3581,10 @@
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
@@ -3573,13 +3601,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>28</v>
@@ -3589,14 +3617,14 @@
         <v>$(PREFIX_MOD01)Mirror-Sel</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="14" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K16" s="16" t="s">
         <v>32</v>
@@ -3605,10 +3633,10 @@
         <v>0</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
@@ -3627,30 +3655,30 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F17" s="13" t="str">
         <f aca="false">C17&amp;D17&amp;E17</f>
         <v>$(PREFIX_MOD01)SoftTrig-Cmd</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="14" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K17" s="16" t="s">
         <v>32</v>
@@ -3659,10 +3687,10 @@
         <v>0</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
@@ -3681,30 +3709,30 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F18" s="13" t="str">
         <f aca="false">C18&amp;D18&amp;E18</f>
         <v>$(PREFIX_MOD01)Enbl-Mon</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="14" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K18" s="16" t="s">
         <v>32</v>
@@ -3713,10 +3741,10 @@
         <v>0</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O18" s="17"/>
       <c r="P18" s="17"/>
@@ -3735,32 +3763,32 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F19" s="13" t="str">
         <f aca="false">C19&amp;D19&amp;E19</f>
         <v>$(PREFIX_MOD01)RelPos-SP</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>32</v>
@@ -3787,32 +3815,32 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F20" s="13" t="str">
         <f aca="false">C20&amp;D20&amp;E20</f>
         <v>$(PREFIX_MOD01)RelPos-RB</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>32</v>
@@ -3839,32 +3867,32 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F21" s="13" t="str">
         <f aca="false">C21&amp;D21&amp;E21</f>
         <v>$(PREFIX_MOD01)Velo-SP</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>32</v>
@@ -3891,32 +3919,32 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F22" s="13" t="str">
         <f aca="false">C22&amp;D22&amp;E22</f>
         <v>$(PREFIX_MOD01)Velo-RB</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K22" s="16" t="s">
         <v>32</v>
@@ -3943,32 +3971,32 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F23" s="13" t="str">
         <f aca="false">C23&amp;D23&amp;E23</f>
         <v>$(PREFIX_MOD01)MovTime-SP</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K23" s="16" t="s">
         <v>32</v>
@@ -3995,32 +4023,32 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F24" s="13" t="str">
         <f aca="false">C24&amp;D24&amp;E24</f>
         <v>$(PREFIX_MOD01)MovTime-RB</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K24" s="16" t="s">
         <v>32</v>
@@ -4047,32 +4075,32 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F25" s="13" t="str">
         <f aca="false">C25&amp;D25&amp;E25</f>
         <v>$(PREFIX_MOD01)Acc-SP</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K25" s="16" t="s">
         <v>32</v>
@@ -4099,32 +4127,32 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F26" s="13" t="str">
         <f aca="false">C26&amp;D26&amp;E26</f>
         <v>$(PREFIX_MOD01)Acc-RB</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K26" s="16" t="s">
         <v>32</v>
@@ -4151,32 +4179,32 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F27" s="13" t="str">
         <f aca="false">C27&amp;D27&amp;E27</f>
         <v>$(PREFIX_MOD01)Decel-SP</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K27" s="16" t="s">
         <v>32</v>
@@ -4203,32 +4231,32 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F28" s="13" t="str">
         <f aca="false">C28&amp;D28&amp;E28</f>
         <v>$(PREFIX_MOD01)Decel-RB</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H28" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K28" s="16" t="s">
         <v>32</v>
@@ -4255,32 +4283,32 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F29" s="13" t="str">
         <f aca="false">C29&amp;D29&amp;E29</f>
         <v>$(PREFIX_MOD01)VirtCIDActualPos-Mon</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H29" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K29" s="16" t="s">
         <v>32</v>
@@ -4307,32 +4335,32 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F30" s="13" t="str">
         <f aca="false">C30&amp;D30&amp;E30</f>
         <v>$(PREFIX_MOD01)VirtCIEActualPos-Mon</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H30" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K30" s="16" t="s">
         <v>32</v>
@@ -4359,32 +4387,32 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F31" s="13" t="str">
         <f aca="false">C31&amp;D31&amp;E31</f>
         <v>$(PREFIX_MOD01)VirtCSDActualPos-Mon</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H31" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K31" s="16" t="s">
         <v>32</v>
@@ -4411,32 +4439,32 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F32" s="13" t="str">
         <f aca="false">C32&amp;D32&amp;E32</f>
         <v>$(PREFIX_MOD01)VirtCSEActualPos-Mon</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H32" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K32" s="16" t="s">
         <v>32</v>
@@ -4463,32 +4491,32 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F33" s="13" t="str">
         <f aca="false">C33&amp;D33&amp;E33</f>
         <v>$(PREFIX_MOD01)VirtCIDActualVelo-Mon</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H33" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K33" s="16" t="s">
         <v>32</v>
@@ -4515,32 +4543,32 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F34" s="13" t="str">
         <f aca="false">C34&amp;D34&amp;E34</f>
         <v>$(PREFIX_MOD01)VirtCIEActualVelo-Mon</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H34" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K34" s="16" t="s">
         <v>32</v>
@@ -4567,32 +4595,32 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F35" s="13" t="str">
         <f aca="false">C35&amp;D35&amp;E35</f>
         <v>$(PREFIX_MOD01)VirtCSDActualVelo-Mon</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H35" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K35" s="16" t="s">
         <v>32</v>
@@ -4619,32 +4647,32 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F36" s="13" t="str">
         <f aca="false">C36&amp;D36&amp;E36</f>
         <v>$(PREFIX_MOD01)VirtCSEActualVelo-Mon</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H36" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K36" s="16" t="s">
         <v>32</v>
@@ -4671,32 +4699,32 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F37" s="13" t="str">
         <f aca="false">C37&amp;D37&amp;E37</f>
         <v>$(PREFIX_MOD01)PhyCIDActualPos-Mon</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H37" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K37" s="16" t="s">
         <v>32</v>
@@ -4723,32 +4751,32 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F38" s="13" t="str">
         <f aca="false">C38&amp;D38&amp;E38</f>
         <v>$(PREFIX_MOD01)PhyCIEActualPos-Mon</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H38" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K38" s="16" t="s">
         <v>32</v>
@@ -4775,32 +4803,32 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F39" s="13" t="str">
         <f aca="false">C39&amp;D39&amp;E39</f>
         <v>$(PREFIX_MOD01)PhyCSDActualPos-Mon</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H39" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K39" s="16" t="s">
         <v>32</v>
@@ -4827,32 +4855,32 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F40" s="13" t="str">
         <f aca="false">C40&amp;D40&amp;E40</f>
         <v>$(PREFIX_MOD01)PhyCSEActualPos-Mon</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H40" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K40" s="16" t="s">
         <v>32</v>
@@ -4879,32 +4907,32 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F41" s="13" t="str">
         <f aca="false">C41&amp;D41&amp;E41</f>
         <v>$(PREFIX_MOD01)PhyCIDActualVelo-Mon</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K41" s="16" t="s">
         <v>32</v>
@@ -4931,32 +4959,32 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F42" s="13" t="str">
         <f aca="false">C42&amp;D42&amp;E42</f>
         <v>$(PREFIX_MOD01)PhyCIEActualVelo-Mon</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H42" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K42" s="16" t="s">
         <v>32</v>
@@ -4983,32 +5011,32 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F43" s="13" t="str">
         <f aca="false">C43&amp;D43&amp;E43</f>
         <v>$(PREFIX_MOD01)PhyCSDActualVelo-Mon</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H43" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K43" s="16" t="s">
         <v>32</v>
@@ -5035,32 +5063,32 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F44" s="13" t="str">
         <f aca="false">C44&amp;D44&amp;E44</f>
         <v>$(PREFIX_MOD01)PhyCSEActualVelo-Mon</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H44" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K44" s="16" t="s">
         <v>32</v>
@@ -5087,32 +5115,32 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F45" s="13" t="str">
         <f aca="false">C45&amp;D45&amp;E45</f>
         <v>$(PREFIX_MOD01)CIDPosErr-Mon</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H45" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K45" s="16" t="s">
         <v>32</v>
@@ -5139,32 +5167,32 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F46" s="13" t="str">
         <f aca="false">C46&amp;D46&amp;E46</f>
         <v>$(PREFIX_MOD01)CIEPosErr-Mon</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H46" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K46" s="16" t="s">
         <v>32</v>
@@ -5191,32 +5219,32 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F47" s="13" t="str">
         <f aca="false">C47&amp;D47&amp;E47</f>
         <v>$(PREFIX_MOD01)CSDPosErr-Mon</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H47" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K47" s="16" t="s">
         <v>32</v>
@@ -5243,32 +5271,32 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F48" s="13" t="str">
         <f aca="false">C48&amp;D48&amp;E48</f>
         <v>$(PREFIX_MOD01)CSEPosErr-Mon</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K48" s="16" t="s">
         <v>32</v>
@@ -5295,32 +5323,32 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F49" s="13" t="str">
         <f aca="false">C49&amp;D49&amp;E49</f>
         <v>$(PREFIX_MOD01)CIDRawMtrEnc-Mon</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H49" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K49" s="16" t="s">
         <v>32</v>
@@ -5347,32 +5375,32 @@
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F50" s="13" t="str">
         <f aca="false">C50&amp;D50&amp;E50</f>
         <v>$(PREFIX_MOD01)CIERawMtrEnc-Mon</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H50" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K50" s="16" t="s">
         <v>32</v>
@@ -5399,32 +5427,32 @@
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F51" s="13" t="str">
         <f aca="false">C51&amp;D51&amp;E51</f>
         <v>$(PREFIX_MOD01)CSDRawMtrEnc-Mon</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H51" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K51" s="16" t="s">
         <v>32</v>
@@ -5451,32 +5479,32 @@
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F52" s="13" t="str">
         <f aca="false">C52&amp;D52&amp;E52</f>
         <v>$(PREFIX_MOD01)CSERawMtrEnc-Mon</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H52" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K52" s="16" t="s">
         <v>32</v>
@@ -5503,32 +5531,32 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F53" s="13" t="str">
         <f aca="false">C53&amp;D53&amp;E53</f>
         <v>$(PREFIX_MOD01)CIDTorqueRef-Mon</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H53" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K53" s="16" t="s">
         <v>32</v>
@@ -5555,32 +5583,32 @@
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F54" s="13" t="str">
         <f aca="false">C54&amp;D54&amp;E54</f>
         <v>$(PREFIX_MOD01)CIETorqueRef-Mon</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K54" s="16" t="s">
         <v>32</v>
@@ -5607,32 +5635,32 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F55" s="13" t="str">
         <f aca="false">C55&amp;D55&amp;E55</f>
         <v>$(PREFIX_MOD01)CSDTorqueRef-Mon</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H55" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K55" s="16" t="s">
         <v>32</v>
@@ -5659,32 +5687,32 @@
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F56" s="13" t="str">
         <f aca="false">C56&amp;D56&amp;E56</f>
         <v>$(PREFIX_MOD01)CSETorqueRef-Mon</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H56" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K56" s="16" t="s">
         <v>32</v>
@@ -5711,32 +5739,32 @@
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F57" s="13" t="str">
         <f aca="false">C57&amp;D57&amp;E57</f>
         <v>$(PREFIX_MOD01)CIDFiltTorqueRef-Mon</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H57" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K57" s="16" t="s">
         <v>32</v>
@@ -5763,32 +5791,32 @@
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F58" s="13" t="str">
         <f aca="false">C58&amp;D58&amp;E58</f>
         <v>$(PREFIX_MOD01)CIEFiltTorqueRef-Mon</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H58" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K58" s="16" t="s">
         <v>32</v>
@@ -5815,32 +5843,32 @@
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F59" s="13" t="str">
         <f aca="false">C59&amp;D59&amp;E59</f>
         <v>$(PREFIX_MOD01)CSDFiltTorqueRef-Mon</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H59" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K59" s="16" t="s">
         <v>32</v>
@@ -5867,32 +5895,32 @@
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F60" s="13" t="str">
         <f aca="false">C60&amp;D60&amp;E60</f>
         <v>$(PREFIX_MOD01)CSEFiltTorqueRef-Mon</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H60" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K60" s="16" t="s">
         <v>32</v>
@@ -6016,11 +6044,11 @@
   </sheetPr>
   <dimension ref="A1:Y60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F63" activeCellId="0" sqref="F63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R29" activeCellId="0" sqref="R29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.57"/>
@@ -6114,15 +6142,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>46</v>
@@ -6142,7 +6170,7 @@
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="14" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>32</v>
@@ -6170,10 +6198,18 @@
       <c r="T2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
+      <c r="U2" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="Y2" s="17"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6181,13 +6217,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>42</v>
@@ -6204,7 +6240,7 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="14" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>32</v>
@@ -6215,13 +6251,13 @@
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
       <c r="O3" s="17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
@@ -6237,13 +6273,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>240</v>
-      </c>
       <c r="D4" s="11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>42</v>
@@ -6260,7 +6296,7 @@
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="14" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>32</v>
@@ -6271,10 +6307,10 @@
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
@@ -6291,13 +6327,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>42</v>
@@ -6307,14 +6343,14 @@
         <v>$(PREFIX_MOD02)Mirror-Sts</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="14" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>32</v>
@@ -6323,10 +6359,10 @@
         <v>0</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
@@ -6345,30 +6381,30 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F6" s="13" t="str">
         <f aca="false">C6&amp;D6&amp;E6</f>
         <v>$(PREFIX_MOD02)ExtTrig-Mon</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="14" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>32</v>
@@ -6377,10 +6413,10 @@
         <v>0</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O6" s="17"/>
       <c r="P6" s="17"/>
@@ -6399,30 +6435,30 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F7" s="13" t="str">
         <f aca="false">C7&amp;D7&amp;E7</f>
         <v>$(PREFIX_MOD02)SoftTrig-Mon</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H7" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="14" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>32</v>
@@ -6431,10 +6467,10 @@
         <v>0</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O7" s="17"/>
       <c r="P7" s="17"/>
@@ -6453,16 +6489,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F8" s="13" t="str">
         <f aca="false">C8&amp;D8&amp;E8</f>
@@ -6476,7 +6512,7 @@
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="14" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>32</v>
@@ -6487,10 +6523,10 @@
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
       <c r="O8" s="17" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="17"/>
       <c r="R8" s="17"/>
@@ -6507,16 +6543,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F9" s="13" t="str">
         <f aca="false">C9&amp;D9&amp;E9</f>
@@ -6530,7 +6566,7 @@
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="14" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>32</v>
@@ -6541,13 +6577,13 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
       <c r="O9" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q9" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="P9" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q9" s="17" t="s">
-        <v>83</v>
       </c>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
@@ -6563,16 +6599,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F10" s="13" t="str">
         <f aca="false">C10&amp;D10&amp;E10</f>
@@ -6586,7 +6622,7 @@
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="14" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>32</v>
@@ -6597,13 +6633,13 @@
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
       <c r="O10" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q10" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="P10" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q10" s="17" t="s">
-        <v>83</v>
       </c>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
@@ -6619,16 +6655,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F11" s="13" t="str">
         <f aca="false">C11&amp;D11&amp;E11</f>
@@ -6642,7 +6678,7 @@
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="14" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>32</v>
@@ -6653,13 +6689,13 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
       <c r="O11" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q11" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="P11" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q11" s="17" t="s">
-        <v>83</v>
       </c>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
@@ -6675,16 +6711,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F12" s="13" t="str">
         <f aca="false">C12&amp;D12&amp;E12</f>
@@ -6698,7 +6734,7 @@
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="14" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>32</v>
@@ -6709,13 +6745,13 @@
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
       <c r="O12" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q12" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="P12" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q12" s="17" t="s">
-        <v>83</v>
       </c>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
@@ -6726,15 +6762,15 @@
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>46</v>
@@ -6754,7 +6790,7 @@
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="14" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K13" s="16" t="s">
         <v>32</v>
@@ -6782,10 +6818,18 @@
       <c r="T13" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
+      <c r="U13" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="V13" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="W13" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="X13" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="Y13" s="17"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6793,13 +6837,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>28</v>
@@ -6816,7 +6860,7 @@
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="14" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>32</v>
@@ -6827,13 +6871,13 @@
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
       <c r="O14" s="17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P14" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="R14" s="17"/>
       <c r="S14" s="17"/>
@@ -6849,13 +6893,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>28</v>
@@ -6872,7 +6916,7 @@
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="14" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K15" s="16" t="s">
         <v>32</v>
@@ -6883,10 +6927,10 @@
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
@@ -6903,13 +6947,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>28</v>
@@ -6919,14 +6963,14 @@
         <v>$(PREFIX_MOD02)Mirror-Sel</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="14" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K16" s="16" t="s">
         <v>32</v>
@@ -6935,10 +6979,10 @@
         <v>0</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
@@ -6957,30 +7001,30 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F17" s="13" t="str">
         <f aca="false">C17&amp;D17&amp;E17</f>
         <v>$(PREFIX_MOD02)SoftTrig-Cmd</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="14" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K17" s="16" t="s">
         <v>32</v>
@@ -6989,10 +7033,10 @@
         <v>0</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
@@ -7011,30 +7055,30 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F18" s="13" t="str">
         <f aca="false">C18&amp;D18&amp;E18</f>
         <v>$(PREFIX_MOD02)Enbl-Mon</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="14" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K18" s="16" t="s">
         <v>32</v>
@@ -7043,10 +7087,10 @@
         <v>0</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O18" s="17"/>
       <c r="P18" s="17"/>
@@ -7065,32 +7109,32 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F19" s="13" t="str">
         <f aca="false">C19&amp;D19&amp;E19</f>
         <v>$(PREFIX_MOD02)RelPos-SP</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>32</v>
@@ -7117,32 +7161,32 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F20" s="13" t="str">
         <f aca="false">C20&amp;D20&amp;E20</f>
         <v>$(PREFIX_MOD02)RelPos-RB</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>32</v>
@@ -7169,32 +7213,32 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F21" s="13" t="str">
         <f aca="false">C21&amp;D21&amp;E21</f>
         <v>$(PREFIX_MOD02)Velo-SP</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>32</v>
@@ -7221,32 +7265,32 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F22" s="13" t="str">
         <f aca="false">C22&amp;D22&amp;E22</f>
         <v>$(PREFIX_MOD02)Velo-RB</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K22" s="16" t="s">
         <v>32</v>
@@ -7273,32 +7317,32 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F23" s="13" t="str">
         <f aca="false">C23&amp;D23&amp;E23</f>
         <v>$(PREFIX_MOD02)MovTime-SP</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K23" s="16" t="s">
         <v>32</v>
@@ -7325,32 +7369,32 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F24" s="13" t="str">
         <f aca="false">C24&amp;D24&amp;E24</f>
         <v>$(PREFIX_MOD02)MovTime-RB</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K24" s="16" t="s">
         <v>32</v>
@@ -7377,32 +7421,32 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F25" s="13" t="str">
         <f aca="false">C25&amp;D25&amp;E25</f>
         <v>$(PREFIX_MOD02)Acc-SP</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K25" s="16" t="s">
         <v>32</v>
@@ -7429,32 +7473,32 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F26" s="13" t="str">
         <f aca="false">C26&amp;D26&amp;E26</f>
         <v>$(PREFIX_MOD02)Acc-RB</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K26" s="16" t="s">
         <v>32</v>
@@ -7481,32 +7525,32 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F27" s="13" t="str">
         <f aca="false">C27&amp;D27&amp;E27</f>
         <v>$(PREFIX_MOD02)Decel-SP</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K27" s="16" t="s">
         <v>32</v>
@@ -7533,32 +7577,32 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F28" s="13" t="str">
         <f aca="false">C28&amp;D28&amp;E28</f>
         <v>$(PREFIX_MOD02)Decel-RB</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H28" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K28" s="16" t="s">
         <v>32</v>
@@ -7585,32 +7629,32 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F29" s="13" t="str">
         <f aca="false">C29&amp;D29&amp;E29</f>
         <v>$(PREFIX_MOD02)VirtCIDActualPos-Mon</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H29" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K29" s="16" t="s">
         <v>32</v>
@@ -7637,32 +7681,32 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F30" s="13" t="str">
         <f aca="false">C30&amp;D30&amp;E30</f>
         <v>$(PREFIX_MOD02)VirtCIEActualPos-Mon</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K30" s="16" t="s">
         <v>32</v>
@@ -7689,32 +7733,32 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F31" s="13" t="str">
         <f aca="false">C31&amp;D31&amp;E31</f>
         <v>$(PREFIX_MOD02)VirtCSDActualPos-Mon</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H31" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K31" s="16" t="s">
         <v>32</v>
@@ -7741,32 +7785,32 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F32" s="13" t="str">
         <f aca="false">C32&amp;D32&amp;E32</f>
         <v>$(PREFIX_MOD02)VirtCSEActualPos-Mon</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H32" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K32" s="16" t="s">
         <v>32</v>
@@ -7793,32 +7837,32 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F33" s="13" t="str">
         <f aca="false">C33&amp;D33&amp;E33</f>
         <v>$(PREFIX_MOD02)VirtCIDActualVelo-Mon</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H33" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K33" s="16" t="s">
         <v>32</v>
@@ -7845,32 +7889,32 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F34" s="13" t="str">
         <f aca="false">C34&amp;D34&amp;E34</f>
         <v>$(PREFIX_MOD02)VirtCIEActualVelo-Mon</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H34" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K34" s="16" t="s">
         <v>32</v>
@@ -7897,32 +7941,32 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F35" s="13" t="str">
         <f aca="false">C35&amp;D35&amp;E35</f>
         <v>$(PREFIX_MOD02)VirtCSDActualVelo-Mon</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H35" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K35" s="16" t="s">
         <v>32</v>
@@ -7949,32 +7993,32 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F36" s="13" t="str">
         <f aca="false">C36&amp;D36&amp;E36</f>
         <v>$(PREFIX_MOD02)VirtCSEActualVelo-Mon</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H36" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K36" s="16" t="s">
         <v>32</v>
@@ -8001,32 +8045,32 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F37" s="13" t="str">
         <f aca="false">C37&amp;D37&amp;E37</f>
         <v>$(PREFIX_MOD02)PhyCIDActualPos-Mon</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H37" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K37" s="16" t="s">
         <v>32</v>
@@ -8053,32 +8097,32 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F38" s="13" t="str">
         <f aca="false">C38&amp;D38&amp;E38</f>
         <v>$(PREFIX_MOD02)PhyCIEActualPos-Mon</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H38" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K38" s="16" t="s">
         <v>32</v>
@@ -8105,32 +8149,32 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F39" s="13" t="str">
         <f aca="false">C39&amp;D39&amp;E39</f>
         <v>$(PREFIX_MOD02)PhyCSDActualPos-Mon</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H39" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="K39" s="16" t="s">
         <v>32</v>
@@ -8157,32 +8201,32 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F40" s="13" t="str">
         <f aca="false">C40&amp;D40&amp;E40</f>
         <v>$(PREFIX_MOD02)PhyCSEActualPos-Mon</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H40" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="K40" s="16" t="s">
         <v>32</v>
@@ -8209,32 +8253,32 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F41" s="13" t="str">
         <f aca="false">C41&amp;D41&amp;E41</f>
         <v>$(PREFIX_MOD02)PhyCIDActualVelo-Mon</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K41" s="16" t="s">
         <v>32</v>
@@ -8261,32 +8305,32 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F42" s="13" t="str">
         <f aca="false">C42&amp;D42&amp;E42</f>
         <v>$(PREFIX_MOD02)PhyCIEActualVelo-Mon</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H42" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="K42" s="16" t="s">
         <v>32</v>
@@ -8313,32 +8357,32 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F43" s="13" t="str">
         <f aca="false">C43&amp;D43&amp;E43</f>
         <v>$(PREFIX_MOD02)PhyCSDActualVelo-Mon</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H43" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="K43" s="16" t="s">
         <v>32</v>
@@ -8365,32 +8409,32 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F44" s="13" t="str">
         <f aca="false">C44&amp;D44&amp;E44</f>
         <v>$(PREFIX_MOD02)PhyCSEActualVelo-Mon</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H44" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K44" s="16" t="s">
         <v>32</v>
@@ -8417,32 +8461,32 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F45" s="13" t="str">
         <f aca="false">C45&amp;D45&amp;E45</f>
         <v>$(PREFIX_MOD02)CIDPosErr-Mon</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H45" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="K45" s="16" t="s">
         <v>32</v>
@@ -8469,32 +8513,32 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F46" s="13" t="str">
         <f aca="false">C46&amp;D46&amp;E46</f>
         <v>$(PREFIX_MOD02)CIEPosErr-Mon</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H46" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K46" s="16" t="s">
         <v>32</v>
@@ -8521,32 +8565,32 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F47" s="13" t="str">
         <f aca="false">C47&amp;D47&amp;E47</f>
         <v>$(PREFIX_MOD02)CSDPosErr-Mon</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H47" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K47" s="16" t="s">
         <v>32</v>
@@ -8573,32 +8617,32 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F48" s="13" t="str">
         <f aca="false">C48&amp;D48&amp;E48</f>
         <v>$(PREFIX_MOD02)CSEPosErr-Mon</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="K48" s="16" t="s">
         <v>32</v>
@@ -8625,32 +8669,32 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F49" s="13" t="str">
         <f aca="false">C49&amp;D49&amp;E49</f>
         <v>$(PREFIX_MOD02)CIDRawMtrEnc-Mon</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H49" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="K49" s="16" t="s">
         <v>32</v>
@@ -8677,32 +8721,32 @@
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F50" s="13" t="str">
         <f aca="false">C50&amp;D50&amp;E50</f>
         <v>$(PREFIX_MOD02)CIERawMtrEnc-Mon</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H50" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K50" s="16" t="s">
         <v>32</v>
@@ -8729,32 +8773,32 @@
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F51" s="13" t="str">
         <f aca="false">C51&amp;D51&amp;E51</f>
         <v>$(PREFIX_MOD02)CSDRawMtrEnc-Mon</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H51" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K51" s="16" t="s">
         <v>32</v>
@@ -8781,32 +8825,32 @@
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F52" s="13" t="str">
         <f aca="false">C52&amp;D52&amp;E52</f>
         <v>$(PREFIX_MOD02)CSERawMtrEnc-Mon</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H52" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K52" s="16" t="s">
         <v>32</v>
@@ -8833,32 +8877,32 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F53" s="13" t="str">
         <f aca="false">C53&amp;D53&amp;E53</f>
         <v>$(PREFIX_MOD02)CIDTorqueRef-Mon</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H53" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K53" s="16" t="s">
         <v>32</v>
@@ -8885,32 +8929,32 @@
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F54" s="13" t="str">
         <f aca="false">C54&amp;D54&amp;E54</f>
         <v>$(PREFIX_MOD02)CIETorqueRef-Mon</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K54" s="16" t="s">
         <v>32</v>
@@ -8937,32 +8981,32 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F55" s="13" t="str">
         <f aca="false">C55&amp;D55&amp;E55</f>
         <v>$(PREFIX_MOD02)CSDTorqueRef-Mon</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H55" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K55" s="16" t="s">
         <v>32</v>
@@ -8989,32 +9033,32 @@
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F56" s="13" t="str">
         <f aca="false">C56&amp;D56&amp;E56</f>
         <v>$(PREFIX_MOD02)CSETorqueRef-Mon</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H56" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K56" s="16" t="s">
         <v>32</v>
@@ -9041,32 +9085,32 @@
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F57" s="13" t="str">
         <f aca="false">C57&amp;D57&amp;E57</f>
         <v>$(PREFIX_MOD02)CIDFiltTorqueRef-Mon</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H57" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K57" s="16" t="s">
         <v>32</v>
@@ -9093,32 +9137,32 @@
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F58" s="13" t="str">
         <f aca="false">C58&amp;D58&amp;E58</f>
         <v>$(PREFIX_MOD02)CIEFiltTorqueRef-Mon</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H58" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K58" s="16" t="s">
         <v>32</v>
@@ -9145,32 +9189,32 @@
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F59" s="13" t="str">
         <f aca="false">C59&amp;D59&amp;E59</f>
         <v>$(PREFIX_MOD02)CSDFiltTorqueRef-Mon</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H59" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="K59" s="16" t="s">
         <v>32</v>
@@ -9197,32 +9241,32 @@
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F60" s="13" t="str">
         <f aca="false">C60&amp;D60&amp;E60</f>
         <v>$(PREFIX_MOD02)CSEFiltTorqueRef-Mon</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H60" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K60" s="16" t="s">
         <v>32</v>
@@ -9291,11 +9335,11 @@
   </sheetPr>
   <dimension ref="A1:Y60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D65" activeCellId="0" sqref="D65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.57"/>
@@ -9394,10 +9438,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>46</v>
@@ -9417,7 +9461,7 @@
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="14" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>32</v>
@@ -9445,10 +9489,18 @@
       <c r="T2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
+      <c r="U2" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="Y2" s="17"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9456,13 +9508,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>42</v>
@@ -9479,7 +9531,7 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="29" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>32</v>
@@ -9490,13 +9542,13 @@
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
       <c r="O3" s="17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
@@ -9512,13 +9564,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>354</v>
-      </c>
       <c r="D4" s="11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>42</v>
@@ -9535,7 +9587,7 @@
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="14" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>32</v>
@@ -9546,10 +9598,10 @@
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
@@ -9566,13 +9618,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>42</v>
@@ -9582,14 +9634,14 @@
         <v>$(PREFIX_MOD03)Mirror-Sts</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="14" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>32</v>
@@ -9598,10 +9650,10 @@
         <v>0</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
@@ -9620,30 +9672,30 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F6" s="13" t="str">
         <f aca="false">C6&amp;D6&amp;E6</f>
         <v>$(PREFIX_MOD03)ExtTrig-Mon</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="14" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>32</v>
@@ -9652,10 +9704,10 @@
         <v>0</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O6" s="17"/>
       <c r="P6" s="17"/>
@@ -9674,30 +9726,30 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F7" s="13" t="str">
         <f aca="false">C7&amp;D7&amp;E7</f>
         <v>$(PREFIX_MOD03)SoftTrig-Mon</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H7" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="14" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>32</v>
@@ -9706,10 +9758,10 @@
         <v>0</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O7" s="17"/>
       <c r="P7" s="17"/>
@@ -9728,16 +9780,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F8" s="13" t="str">
         <f aca="false">C8&amp;D8&amp;E8</f>
@@ -9751,7 +9803,7 @@
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="14" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>32</v>
@@ -9762,10 +9814,10 @@
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
       <c r="O8" s="17" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="17"/>
       <c r="R8" s="17"/>
@@ -9782,16 +9834,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F9" s="13" t="str">
         <f aca="false">C9&amp;D9&amp;E9</f>
@@ -9805,7 +9857,7 @@
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="14" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>32</v>
@@ -9816,13 +9868,13 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
       <c r="O9" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q9" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="P9" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q9" s="17" t="s">
-        <v>83</v>
       </c>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
@@ -9838,16 +9890,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F10" s="13" t="str">
         <f aca="false">C10&amp;D10&amp;E10</f>
@@ -9861,7 +9913,7 @@
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="14" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>32</v>
@@ -9872,13 +9924,13 @@
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
       <c r="O10" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q10" s="31" t="s">
         <v>87</v>
-      </c>
-      <c r="P10" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q10" s="31" t="s">
-        <v>83</v>
       </c>
       <c r="R10" s="32"/>
       <c r="S10" s="17"/>
@@ -9894,16 +9946,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F11" s="13" t="str">
         <f aca="false">C11&amp;D11&amp;E11</f>
@@ -9917,7 +9969,7 @@
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="14" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>32</v>
@@ -9928,13 +9980,13 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
       <c r="O11" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q11" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="P11" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q11" s="17" t="s">
-        <v>83</v>
       </c>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
@@ -9950,16 +10002,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F12" s="13" t="str">
         <f aca="false">C12&amp;D12&amp;E12</f>
@@ -9973,7 +10025,7 @@
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="14" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>32</v>
@@ -9984,13 +10036,13 @@
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
       <c r="O12" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q12" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="P12" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q12" s="17" t="s">
-        <v>83</v>
       </c>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
@@ -10006,10 +10058,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>46</v>
@@ -10029,7 +10081,7 @@
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="14" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="K13" s="16" t="s">
         <v>32</v>
@@ -10057,10 +10109,18 @@
       <c r="T13" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
+      <c r="U13" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="V13" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="W13" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="X13" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="Y13" s="17"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10068,13 +10128,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>28</v>
@@ -10091,7 +10151,7 @@
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="14" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>32</v>
@@ -10102,13 +10162,13 @@
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
       <c r="O14" s="17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P14" s="17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="R14" s="17"/>
       <c r="S14" s="17"/>
@@ -10124,13 +10184,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>28</v>
@@ -10147,7 +10207,7 @@
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="14" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="K15" s="16" t="s">
         <v>32</v>
@@ -10158,10 +10218,10 @@
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
@@ -10178,13 +10238,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>28</v>
@@ -10194,14 +10254,14 @@
         <v>$(PREFIX_MOD03)Mirror-Sel</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="14" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K16" s="16" t="s">
         <v>32</v>
@@ -10210,10 +10270,10 @@
         <v>0</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
@@ -10232,30 +10292,30 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F17" s="13" t="str">
         <f aca="false">C17&amp;D17&amp;E17</f>
         <v>$(PREFIX_MOD03)SoftTrig-Cmd</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="14" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="K17" s="16" t="s">
         <v>32</v>
@@ -10264,10 +10324,10 @@
         <v>0</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
@@ -10286,30 +10346,30 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F18" s="13" t="str">
         <f aca="false">C18&amp;D18&amp;E18</f>
         <v>$(PREFIX_MOD03)Enbl-Mon</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="14" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="K18" s="16" t="s">
         <v>32</v>
@@ -10318,10 +10378,10 @@
         <v>0</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O18" s="17"/>
       <c r="P18" s="17"/>
@@ -10340,32 +10400,32 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F19" s="13" t="str">
         <f aca="false">C19&amp;D19&amp;E19</f>
         <v>$(PREFIX_MOD03)RelPos-SP</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>32</v>
@@ -10392,32 +10452,32 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F20" s="13" t="str">
         <f aca="false">C20&amp;D20&amp;E20</f>
         <v>$(PREFIX_MOD03)RelPos-RB</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>32</v>
@@ -10444,32 +10504,32 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F21" s="13" t="str">
         <f aca="false">C21&amp;D21&amp;E21</f>
         <v>$(PREFIX_MOD03)Velo-SP</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H21" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>32</v>
@@ -10496,32 +10556,32 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F22" s="13" t="str">
         <f aca="false">C22&amp;D22&amp;E22</f>
         <v>$(PREFIX_MOD03)Velo-RB</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K22" s="16" t="s">
         <v>32</v>
@@ -10548,32 +10608,32 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F23" s="13" t="str">
         <f aca="false">C23&amp;D23&amp;E23</f>
         <v>$(PREFIX_MOD03)MovTime-SP</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="K23" s="16" t="s">
         <v>32</v>
@@ -10600,32 +10660,32 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F24" s="13" t="str">
         <f aca="false">C24&amp;D24&amp;E24</f>
         <v>$(PREFIX_MOD03)MovTime-RB</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="K24" s="16" t="s">
         <v>32</v>
@@ -10652,32 +10712,32 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F25" s="13" t="str">
         <f aca="false">C25&amp;D25&amp;E25</f>
         <v>$(PREFIX_MOD03)Acc-SP</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="K25" s="16" t="s">
         <v>32</v>
@@ -10704,32 +10764,32 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F26" s="13" t="str">
         <f aca="false">C26&amp;D26&amp;E26</f>
         <v>$(PREFIX_MOD03)Acc-RB</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="K26" s="16" t="s">
         <v>32</v>
@@ -10756,32 +10816,32 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F27" s="13" t="str">
         <f aca="false">C27&amp;D27&amp;E27</f>
         <v>$(PREFIX_MOD03)Decel-SP</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="K27" s="16" t="s">
         <v>32</v>
@@ -10808,32 +10868,32 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F28" s="13" t="str">
         <f aca="false">C28&amp;D28&amp;E28</f>
         <v>$(PREFIX_MOD03)Decel-RB</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H28" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="K28" s="16" t="s">
         <v>32</v>
@@ -10860,32 +10920,32 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F29" s="13" t="str">
         <f aca="false">C29&amp;D29&amp;E29</f>
         <v>$(PREFIX_MOD03)VirtCIDActualPos-Mon</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H29" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K29" s="16" t="s">
         <v>32</v>
@@ -10912,32 +10972,32 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F30" s="13" t="str">
         <f aca="false">C30&amp;D30&amp;E30</f>
         <v>$(PREFIX_MOD03)VirtCIEActualPos-Mon</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H30" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="K30" s="16" t="s">
         <v>32</v>
@@ -10964,32 +11024,32 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F31" s="13" t="str">
         <f aca="false">C31&amp;D31&amp;E31</f>
         <v>$(PREFIX_MOD03)VirtCSDActualPos-Mon</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H31" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K31" s="16" t="s">
         <v>32</v>
@@ -11016,32 +11076,32 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F32" s="13" t="str">
         <f aca="false">C32&amp;D32&amp;E32</f>
         <v>$(PREFIX_MOD03)VirtCSEActualPos-Mon</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H32" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K32" s="16" t="s">
         <v>32</v>
@@ -11068,32 +11128,32 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F33" s="13" t="str">
         <f aca="false">C33&amp;D33&amp;E33</f>
         <v>$(PREFIX_MOD03)VirtCIDActualVelo-Mon</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H33" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="K33" s="16" t="s">
         <v>32</v>
@@ -11120,32 +11180,32 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F34" s="13" t="str">
         <f aca="false">C34&amp;D34&amp;E34</f>
         <v>$(PREFIX_MOD03)VirtCIEActualVelo-Mon</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H34" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="K34" s="16" t="s">
         <v>32</v>
@@ -11172,32 +11232,32 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F35" s="13" t="str">
         <f aca="false">C35&amp;D35&amp;E35</f>
         <v>$(PREFIX_MOD03)VirtCSDActualVelo-Mon</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H35" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="K35" s="16" t="s">
         <v>32</v>
@@ -11224,32 +11284,32 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F36" s="13" t="str">
         <f aca="false">C36&amp;D36&amp;E36</f>
         <v>$(PREFIX_MOD03)VirtCSEActualVelo-Mon</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H36" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K36" s="16" t="s">
         <v>32</v>
@@ -11276,32 +11336,32 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F37" s="13" t="str">
         <f aca="false">C37&amp;D37&amp;E37</f>
         <v>$(PREFIX_MOD03)PhyCIDActualPos-Mon</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H37" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K37" s="16" t="s">
         <v>32</v>
@@ -11328,32 +11388,32 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F38" s="13" t="str">
         <f aca="false">C38&amp;D38&amp;E38</f>
         <v>$(PREFIX_MOD03)PhyCIEActualPos-Mon</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H38" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K38" s="16" t="s">
         <v>32</v>
@@ -11380,32 +11440,32 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F39" s="13" t="str">
         <f aca="false">C39&amp;D39&amp;E39</f>
         <v>$(PREFIX_MOD03)PhyCSDActualPos-Mon</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H39" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="K39" s="16" t="s">
         <v>32</v>
@@ -11432,32 +11492,32 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F40" s="13" t="str">
         <f aca="false">C40&amp;D40&amp;E40</f>
         <v>$(PREFIX_MOD03)PhyCSEActualPos-Mon</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H40" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="K40" s="16" t="s">
         <v>32</v>
@@ -11484,32 +11544,32 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F41" s="13" t="str">
         <f aca="false">C41&amp;D41&amp;E41</f>
         <v>$(PREFIX_MOD03)PhyCIDActualVelo-Mon</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="K41" s="16" t="s">
         <v>32</v>
@@ -11536,32 +11596,32 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F42" s="13" t="str">
         <f aca="false">C42&amp;D42&amp;E42</f>
         <v>$(PREFIX_MOD03)PhyCIEActualVelo-Mon</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H42" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="K42" s="16" t="s">
         <v>32</v>
@@ -11588,32 +11648,32 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F43" s="13" t="str">
         <f aca="false">C43&amp;D43&amp;E43</f>
         <v>$(PREFIX_MOD03)PhyCSDActualVelo-Mon</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H43" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="K43" s="16" t="s">
         <v>32</v>
@@ -11640,32 +11700,32 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F44" s="13" t="str">
         <f aca="false">C44&amp;D44&amp;E44</f>
         <v>$(PREFIX_MOD03)PhyCSEActualVelo-Mon</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H44" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K44" s="16" t="s">
         <v>32</v>
@@ -11692,32 +11752,32 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F45" s="13" t="str">
         <f aca="false">C45&amp;D45&amp;E45</f>
         <v>$(PREFIX_MOD03)CIDPosErr-Mon</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H45" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K45" s="16" t="s">
         <v>32</v>
@@ -11744,32 +11804,32 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F46" s="13" t="str">
         <f aca="false">C46&amp;D46&amp;E46</f>
         <v>$(PREFIX_MOD03)CIEPosErr-Mon</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H46" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="K46" s="16" t="s">
         <v>32</v>
@@ -11796,32 +11856,32 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F47" s="13" t="str">
         <f aca="false">C47&amp;D47&amp;E47</f>
         <v>$(PREFIX_MOD03)CSDPosErr-Mon</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H47" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K47" s="16" t="s">
         <v>32</v>
@@ -11848,32 +11908,32 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F48" s="13" t="str">
         <f aca="false">C48&amp;D48&amp;E48</f>
         <v>$(PREFIX_MOD03)CSEPosErr-Mon</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K48" s="16" t="s">
         <v>32</v>
@@ -11900,32 +11960,32 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F49" s="13" t="str">
         <f aca="false">C49&amp;D49&amp;E49</f>
         <v>$(PREFIX_MOD03)CIDRawMtrEnc-Mon</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H49" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K49" s="16" t="s">
         <v>32</v>
@@ -11952,32 +12012,32 @@
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F50" s="13" t="str">
         <f aca="false">C50&amp;D50&amp;E50</f>
         <v>$(PREFIX_MOD03)CIERawMtrEnc-Mon</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H50" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K50" s="16" t="s">
         <v>32</v>
@@ -12004,32 +12064,32 @@
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F51" s="13" t="str">
         <f aca="false">C51&amp;D51&amp;E51</f>
         <v>$(PREFIX_MOD03)CSDRawMtrEnc-Mon</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H51" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="K51" s="16" t="s">
         <v>32</v>
@@ -12056,32 +12116,32 @@
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F52" s="13" t="str">
         <f aca="false">C52&amp;D52&amp;E52</f>
         <v>$(PREFIX_MOD03)CSERawMtrEnc-Mon</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H52" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K52" s="16" t="s">
         <v>32</v>
@@ -12108,32 +12168,32 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F53" s="13" t="str">
         <f aca="false">C53&amp;D53&amp;E53</f>
         <v>$(PREFIX_MOD03)CIDTorqueRef-Mon</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H53" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="K53" s="16" t="s">
         <v>32</v>
@@ -12160,32 +12220,32 @@
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F54" s="13" t="str">
         <f aca="false">C54&amp;D54&amp;E54</f>
         <v>$(PREFIX_MOD03)CIETorqueRef-Mon</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="K54" s="16" t="s">
         <v>32</v>
@@ -12212,32 +12272,32 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F55" s="13" t="str">
         <f aca="false">C55&amp;D55&amp;E55</f>
         <v>$(PREFIX_MOD03)CSDTorqueRef-Mon</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H55" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="K55" s="16" t="s">
         <v>32</v>
@@ -12264,32 +12324,32 @@
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F56" s="13" t="str">
         <f aca="false">C56&amp;D56&amp;E56</f>
         <v>$(PREFIX_MOD03)CSETorqueRef-Mon</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H56" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="K56" s="16" t="s">
         <v>32</v>
@@ -12316,32 +12376,32 @@
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F57" s="13" t="str">
         <f aca="false">C57&amp;D57&amp;E57</f>
         <v>$(PREFIX_MOD03)CIDFiltTorqueRef-Mon</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H57" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="K57" s="16" t="s">
         <v>32</v>
@@ -12368,32 +12428,32 @@
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F58" s="13" t="str">
         <f aca="false">C58&amp;D58&amp;E58</f>
         <v>$(PREFIX_MOD03)CIEFiltTorqueRef-Mon</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H58" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="K58" s="16" t="s">
         <v>32</v>
@@ -12420,32 +12480,32 @@
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F59" s="13" t="str">
         <f aca="false">C59&amp;D59&amp;E59</f>
         <v>$(PREFIX_MOD03)CSDFiltTorqueRef-Mon</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H59" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="K59" s="16" t="s">
         <v>32</v>
@@ -12472,32 +12532,32 @@
         <v>59</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F60" s="23" t="str">
         <f aca="false">C60&amp;D60&amp;E60</f>
         <v>$(PREFIX_MOD03)CSEFiltTorqueRef-Mon</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H60" s="24" t="s">
         <v>43</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J60" s="24" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="K60" s="26" t="s">
         <v>32</v>

--- a/etc/Delta_v2.xlsx
+++ b/etc/Delta_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24822"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Ondulador\etherip-ioc\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="536" documentId="13_ncr:1_{6378EC21-B70E-45CA-8FBF-B3322DB496BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21EBF05A-953C-4209-BFD8-7C71F4F3BFD4}"/>
+  <xr:revisionPtr revIDLastSave="632" documentId="13_ncr:1_{6378EC21-B70E-45CA-8FBF-B3322DB496BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59BC9397-F5B9-4189-8218-894221DBA26B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="5" r:id="rId1"/>
@@ -477,7 +477,7 @@
     <t>Actual pos virtual CID mod 01</t>
   </si>
   <si>
-    <t>VirtCIDActualPos</t>
+    <t>CIDVirtPos</t>
   </si>
   <si>
     <t>CID1_PTH.ActualPosition</t>
@@ -486,7 +486,7 @@
     <t>Actual pos virtual CIE mod 01</t>
   </si>
   <si>
-    <t>VirtCIEActualPos</t>
+    <t>CIEVirtPos</t>
   </si>
   <si>
     <t>CIE1_PTH.ActualPosition</t>
@@ -495,7 +495,7 @@
     <t>Actual pos virtual CSD mod 01</t>
   </si>
   <si>
-    <t>VirtCSDActualPos</t>
+    <t>CSDVirtPos</t>
   </si>
   <si>
     <t>CSD1_PTH.ActualPosition</t>
@@ -504,7 +504,7 @@
     <t>Actual pos virtual CSE mod 01</t>
   </si>
   <si>
-    <t>VirtCSEActualPos</t>
+    <t>CSEVirtPos</t>
   </si>
   <si>
     <t>CSE1_PTH.ActualPosition</t>
@@ -513,7 +513,7 @@
     <t>Actual velocity virtual CID mod 01</t>
   </si>
   <si>
-    <t>VirtCIDActualVelo</t>
+    <t>CIDVirtVelo</t>
   </si>
   <si>
     <t>CID1_PTH.ActualVelocity</t>
@@ -522,7 +522,7 @@
     <t>Actual velocity virtual CIE mod 01</t>
   </si>
   <si>
-    <t>VirtCIEActualVelo</t>
+    <t>CIEVirtVelo</t>
   </si>
   <si>
     <t>CIE1_PTH.ActualVelocity</t>
@@ -531,7 +531,7 @@
     <t>Actual velocity virtual CSD mod 01</t>
   </si>
   <si>
-    <t>VirtCSDActualVelo</t>
+    <t>CSDVirtVelo</t>
   </si>
   <si>
     <t>CSD1_PTH.ActualVelocity</t>
@@ -540,7 +540,7 @@
     <t>Actual velocity virtual CSE mod 01</t>
   </si>
   <si>
-    <t>VirtCSEActualVelo</t>
+    <t>CSEVirtVelo</t>
   </si>
   <si>
     <t>CSE1_PTH.ActualVelocity</t>
@@ -549,7 +549,7 @@
     <t>Actual position physical CID mod 01</t>
   </si>
   <si>
-    <t>PhyCIDActualPos</t>
+    <t>CIDPhyPos</t>
   </si>
   <si>
     <t>CID1_PHY.ActualPosition</t>
@@ -558,7 +558,7 @@
     <t>Actual position physical CIE mod 01</t>
   </si>
   <si>
-    <t>PhyCIEActualPos</t>
+    <t>CIEPhyPos</t>
   </si>
   <si>
     <t>CIE1_PHY.ActualPosition</t>
@@ -567,7 +567,7 @@
     <t>Actual position physical CSD mod 01</t>
   </si>
   <si>
-    <t>PhyCSDActualPos</t>
+    <t>CSDPhyPos</t>
   </si>
   <si>
     <t>CSD1_PHY.ActualPosition</t>
@@ -576,7 +576,7 @@
     <t>Actual position physical CSE mod 01</t>
   </si>
   <si>
-    <t>PhyCSEActualPos</t>
+    <t>CSEPhyPos</t>
   </si>
   <si>
     <t>CSE1_PHY.ActualPosition</t>
@@ -585,7 +585,7 @@
     <t>Actual velocity physical CID mod 01</t>
   </si>
   <si>
-    <t>PhyCIDActualVelo</t>
+    <t>CIDPhyVelo</t>
   </si>
   <si>
     <t>CID1_PHY.ActualVelocity</t>
@@ -594,7 +594,7 @@
     <t>Actual velocity physical CIE mod 01</t>
   </si>
   <si>
-    <t>PhyCIEActualVelo</t>
+    <t>CIEPhyVelo</t>
   </si>
   <si>
     <t>CIE1_PHY.ActualVelocity</t>
@@ -603,7 +603,7 @@
     <t>Actual velocity physical CSD mod 01</t>
   </si>
   <si>
-    <t>PhyCSDActualVelo</t>
+    <t>CSDPhyVelo</t>
   </si>
   <si>
     <t>CSD1_PHY.ActualVelocity</t>
@@ -612,7 +612,7 @@
     <t>Actual velocity physical CSE mod 01</t>
   </si>
   <si>
-    <t>PhyCSEActualVelo</t>
+    <t>CSEPhyVelo</t>
   </si>
   <si>
     <t>CSE1_PHY.ActualVelocity</t>
@@ -2146,14 +2146,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="35">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2165,22 +2165,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2207,16 +2207,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2225,22 +2225,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9026,7 +9026,7 @@
       </c>
       <c r="F29" s="9" t="str">
         <f>C29&amp;D29&amp;E29</f>
-        <v>$(PREFIX_MOD01)VirtCIDActualPos-Mon</v>
+        <v>$(PREFIX_MOD01)CIDVirtPos-Mon</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>121</v>
@@ -9078,7 +9078,7 @@
       </c>
       <c r="F30" s="9" t="str">
         <f>C30&amp;D30&amp;E30</f>
-        <v>$(PREFIX_MOD01)VirtCIEActualPos-Mon</v>
+        <v>$(PREFIX_MOD01)CIEVirtPos-Mon</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>121</v>
@@ -9130,7 +9130,7 @@
       </c>
       <c r="F31" s="9" t="str">
         <f>C31&amp;D31&amp;E31</f>
-        <v>$(PREFIX_MOD01)VirtCSDActualPos-Mon</v>
+        <v>$(PREFIX_MOD01)CSDVirtPos-Mon</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>121</v>
@@ -9182,7 +9182,7 @@
       </c>
       <c r="F32" s="9" t="str">
         <f>C32&amp;D32&amp;E32</f>
-        <v>$(PREFIX_MOD01)VirtCSEActualPos-Mon</v>
+        <v>$(PREFIX_MOD01)CSEVirtPos-Mon</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>121</v>
@@ -9234,7 +9234,7 @@
       </c>
       <c r="F33" s="9" t="str">
         <f>C33&amp;D33&amp;E33</f>
-        <v>$(PREFIX_MOD01)VirtCIDActualVelo-Mon</v>
+        <v>$(PREFIX_MOD01)CIDVirtVelo-Mon</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>121</v>
@@ -9286,7 +9286,7 @@
       </c>
       <c r="F34" s="9" t="str">
         <f>C34&amp;D34&amp;E34</f>
-        <v>$(PREFIX_MOD01)VirtCIEActualVelo-Mon</v>
+        <v>$(PREFIX_MOD01)CIEVirtVelo-Mon</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>121</v>
@@ -9338,7 +9338,7 @@
       </c>
       <c r="F35" s="9" t="str">
         <f>C35&amp;D35&amp;E35</f>
-        <v>$(PREFIX_MOD01)VirtCSDActualVelo-Mon</v>
+        <v>$(PREFIX_MOD01)CSDVirtVelo-Mon</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>121</v>
@@ -9390,7 +9390,7 @@
       </c>
       <c r="F36" s="9" t="str">
         <f>C36&amp;D36&amp;E36</f>
-        <v>$(PREFIX_MOD01)VirtCSEActualVelo-Mon</v>
+        <v>$(PREFIX_MOD01)CSEVirtVelo-Mon</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>121</v>
@@ -9442,7 +9442,7 @@
       </c>
       <c r="F37" s="9" t="str">
         <f>C37&amp;D37&amp;E37</f>
-        <v>$(PREFIX_MOD01)PhyCIDActualPos-Mon</v>
+        <v>$(PREFIX_MOD01)CIDPhyPos-Mon</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>121</v>
@@ -9494,7 +9494,7 @@
       </c>
       <c r="F38" s="9" t="str">
         <f>C38&amp;D38&amp;E38</f>
-        <v>$(PREFIX_MOD01)PhyCIEActualPos-Mon</v>
+        <v>$(PREFIX_MOD01)CIEPhyPos-Mon</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>121</v>
@@ -9546,7 +9546,7 @@
       </c>
       <c r="F39" s="9" t="str">
         <f>C39&amp;D39&amp;E39</f>
-        <v>$(PREFIX_MOD01)PhyCSDActualPos-Mon</v>
+        <v>$(PREFIX_MOD01)CSDPhyPos-Mon</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>121</v>
@@ -9598,7 +9598,7 @@
       </c>
       <c r="F40" s="9" t="str">
         <f>C40&amp;D40&amp;E40</f>
-        <v>$(PREFIX_MOD01)PhyCSEActualPos-Mon</v>
+        <v>$(PREFIX_MOD01)CSEPhyPos-Mon</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>121</v>
@@ -9650,7 +9650,7 @@
       </c>
       <c r="F41" s="9" t="str">
         <f>C41&amp;D41&amp;E41</f>
-        <v>$(PREFIX_MOD01)PhyCIDActualVelo-Mon</v>
+        <v>$(PREFIX_MOD01)CIDPhyVelo-Mon</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>121</v>
@@ -9702,7 +9702,7 @@
       </c>
       <c r="F42" s="9" t="str">
         <f>C42&amp;D42&amp;E42</f>
-        <v>$(PREFIX_MOD01)PhyCIEActualVelo-Mon</v>
+        <v>$(PREFIX_MOD01)CIEPhyVelo-Mon</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>121</v>
@@ -9754,7 +9754,7 @@
       </c>
       <c r="F43" s="9" t="str">
         <f>C43&amp;D43&amp;E43</f>
-        <v>$(PREFIX_MOD01)PhyCSDActualVelo-Mon</v>
+        <v>$(PREFIX_MOD01)CSDPhyVelo-Mon</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>121</v>
@@ -9806,7 +9806,7 @@
       </c>
       <c r="F44" s="9" t="str">
         <f>C44&amp;D44&amp;E44</f>
-        <v>$(PREFIX_MOD01)PhyCSEActualVelo-Mon</v>
+        <v>$(PREFIX_MOD01)CSEPhyVelo-Mon</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>121</v>
@@ -13554,7 +13554,7 @@
       </c>
       <c r="F29" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD02)VirtCIDActualPos-Mon</v>
+        <v>$(PREFIX_MOD02)CIDVirtPos-Mon</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>121</v>
@@ -13606,7 +13606,7 @@
       </c>
       <c r="F30" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD02)VirtCIEActualPos-Mon</v>
+        <v>$(PREFIX_MOD02)CIEVirtPos-Mon</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>121</v>
@@ -13658,7 +13658,7 @@
       </c>
       <c r="F31" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD02)VirtCSDActualPos-Mon</v>
+        <v>$(PREFIX_MOD02)CSDVirtPos-Mon</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>121</v>
@@ -13710,7 +13710,7 @@
       </c>
       <c r="F32" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD02)VirtCSEActualPos-Mon</v>
+        <v>$(PREFIX_MOD02)CSEVirtPos-Mon</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>121</v>
@@ -13762,7 +13762,7 @@
       </c>
       <c r="F33" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD02)VirtCIDActualVelo-Mon</v>
+        <v>$(PREFIX_MOD02)CIDVirtVelo-Mon</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>121</v>
@@ -13814,7 +13814,7 @@
       </c>
       <c r="F34" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD02)VirtCIEActualVelo-Mon</v>
+        <v>$(PREFIX_MOD02)CIEVirtVelo-Mon</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>121</v>
@@ -13866,7 +13866,7 @@
       </c>
       <c r="F35" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD02)VirtCSDActualVelo-Mon</v>
+        <v>$(PREFIX_MOD02)CSDVirtVelo-Mon</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>121</v>
@@ -13918,7 +13918,7 @@
       </c>
       <c r="F36" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD02)VirtCSEActualVelo-Mon</v>
+        <v>$(PREFIX_MOD02)CSEVirtVelo-Mon</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>121</v>
@@ -13970,7 +13970,7 @@
       </c>
       <c r="F37" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD02)PhyCIDActualPos-Mon</v>
+        <v>$(PREFIX_MOD02)CIDPhyPos-Mon</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>121</v>
@@ -14022,7 +14022,7 @@
       </c>
       <c r="F38" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD02)PhyCIEActualPos-Mon</v>
+        <v>$(PREFIX_MOD02)CIEPhyPos-Mon</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>121</v>
@@ -14074,7 +14074,7 @@
       </c>
       <c r="F39" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD02)PhyCSDActualPos-Mon</v>
+        <v>$(PREFIX_MOD02)CSDPhyPos-Mon</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>121</v>
@@ -14126,7 +14126,7 @@
       </c>
       <c r="F40" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD02)PhyCSEActualPos-Mon</v>
+        <v>$(PREFIX_MOD02)CSEPhyPos-Mon</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>121</v>
@@ -14178,7 +14178,7 @@
       </c>
       <c r="F41" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD02)PhyCIDActualVelo-Mon</v>
+        <v>$(PREFIX_MOD02)CIDPhyVelo-Mon</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>121</v>
@@ -14230,7 +14230,7 @@
       </c>
       <c r="F42" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD02)PhyCIEActualVelo-Mon</v>
+        <v>$(PREFIX_MOD02)CIEPhyVelo-Mon</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>121</v>
@@ -14282,7 +14282,7 @@
       </c>
       <c r="F43" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD02)PhyCSDActualVelo-Mon</v>
+        <v>$(PREFIX_MOD02)CSDPhyVelo-Mon</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>121</v>
@@ -14334,7 +14334,7 @@
       </c>
       <c r="F44" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD02)PhyCSEActualVelo-Mon</v>
+        <v>$(PREFIX_MOD02)CSEPhyVelo-Mon</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>121</v>
@@ -18027,7 +18027,7 @@
       </c>
       <c r="F29" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD03)VirtCIDActualPos-Mon</v>
+        <v>$(PREFIX_MOD03)CIDVirtPos-Mon</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>121</v>
@@ -18079,7 +18079,7 @@
       </c>
       <c r="F30" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD03)VirtCIEActualPos-Mon</v>
+        <v>$(PREFIX_MOD03)CIEVirtPos-Mon</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>121</v>
@@ -18131,7 +18131,7 @@
       </c>
       <c r="F31" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD03)VirtCSDActualPos-Mon</v>
+        <v>$(PREFIX_MOD03)CSDVirtPos-Mon</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>121</v>
@@ -18183,7 +18183,7 @@
       </c>
       <c r="F32" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD03)VirtCSEActualPos-Mon</v>
+        <v>$(PREFIX_MOD03)CSEVirtPos-Mon</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>121</v>
@@ -18235,7 +18235,7 @@
       </c>
       <c r="F33" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD03)VirtCIDActualVelo-Mon</v>
+        <v>$(PREFIX_MOD03)CIDVirtVelo-Mon</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>121</v>
@@ -18287,7 +18287,7 @@
       </c>
       <c r="F34" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD03)VirtCIEActualVelo-Mon</v>
+        <v>$(PREFIX_MOD03)CIEVirtVelo-Mon</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>121</v>
@@ -18339,7 +18339,7 @@
       </c>
       <c r="F35" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD03)VirtCSDActualVelo-Mon</v>
+        <v>$(PREFIX_MOD03)CSDVirtVelo-Mon</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>121</v>
@@ -18391,7 +18391,7 @@
       </c>
       <c r="F36" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD03)VirtCSEActualVelo-Mon</v>
+        <v>$(PREFIX_MOD03)CSEVirtVelo-Mon</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>121</v>
@@ -18443,7 +18443,7 @@
       </c>
       <c r="F37" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD03)PhyCIDActualPos-Mon</v>
+        <v>$(PREFIX_MOD03)CIDPhyPos-Mon</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>121</v>
@@ -18495,7 +18495,7 @@
       </c>
       <c r="F38" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD03)PhyCIEActualPos-Mon</v>
+        <v>$(PREFIX_MOD03)CIEPhyPos-Mon</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>121</v>
@@ -18547,7 +18547,7 @@
       </c>
       <c r="F39" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD03)PhyCSDActualPos-Mon</v>
+        <v>$(PREFIX_MOD03)CSDPhyPos-Mon</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>121</v>
@@ -18599,7 +18599,7 @@
       </c>
       <c r="F40" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD03)PhyCSEActualPos-Mon</v>
+        <v>$(PREFIX_MOD03)CSEPhyPos-Mon</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>121</v>
@@ -18651,7 +18651,7 @@
       </c>
       <c r="F41" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD03)PhyCIDActualVelo-Mon</v>
+        <v>$(PREFIX_MOD03)CIDPhyVelo-Mon</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>121</v>
@@ -18703,7 +18703,7 @@
       </c>
       <c r="F42" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD03)PhyCIEActualVelo-Mon</v>
+        <v>$(PREFIX_MOD03)CIEPhyVelo-Mon</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>121</v>
@@ -18755,7 +18755,7 @@
       </c>
       <c r="F43" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD03)PhyCSDActualVelo-Mon</v>
+        <v>$(PREFIX_MOD03)CSDPhyVelo-Mon</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>121</v>
@@ -18807,7 +18807,7 @@
       </c>
       <c r="F44" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>$(PREFIX_MOD03)PhyCSEActualVelo-Mon</v>
+        <v>$(PREFIX_MOD03)CSEPhyVelo-Mon</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>121</v>

--- a/etc/Delta_v2.xlsx
+++ b/etc/Delta_v2.xlsx
@@ -358,7 +358,10 @@
     <t xml:space="preserve">EW_Mov_Soft_Trg_Mod_01</t>
   </si>
   <si>
-    <t xml:space="preserve">Start</t>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">Enable status module 01</t>
@@ -947,9 +950,6 @@
   </si>
   <si>
     <t xml:space="preserve">EW_Reset_Mod_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reset</t>
   </si>
   <si>
     <t xml:space="preserve">State machine state idx mod 01</t>
@@ -2885,7 +2885,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.85"/>
@@ -3136,10 +3136,10 @@
   <dimension ref="A1:Y83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.57"/>
@@ -4128,7 +4128,7 @@
         <v>111</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
@@ -4147,13 +4147,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>76</v>
@@ -4170,7 +4170,7 @@
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K18" s="16" t="s">
         <v>32</v>
@@ -4179,10 +4179,10 @@
         <v>0</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O18" s="17"/>
       <c r="P18" s="17"/>
@@ -4201,32 +4201,32 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F19" s="13" t="str">
         <f aca="false">C19&amp;D19&amp;E19</f>
         <v>$(PREFIX_MOD01)RelPos-SP</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>32</v>
@@ -4253,32 +4253,32 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F20" s="13" t="str">
         <f aca="false">C20&amp;D20&amp;E20</f>
         <v>$(PREFIX_MOD01)RelPos-RB</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>32</v>
@@ -4305,32 +4305,32 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F21" s="13" t="str">
         <f aca="false">C21&amp;D21&amp;E21</f>
         <v>$(PREFIX_MOD01)Velo-SP</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>32</v>
@@ -4357,32 +4357,32 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="13" t="str">
         <f aca="false">C22&amp;D22&amp;E22</f>
         <v>$(PREFIX_MOD01)Velo-RB</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K22" s="16" t="s">
         <v>32</v>
@@ -4409,32 +4409,32 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F23" s="13" t="str">
         <f aca="false">C23&amp;D23&amp;E23</f>
         <v>$(PREFIX_MOD01)MovTime-SP</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K23" s="16" t="s">
         <v>32</v>
@@ -4461,32 +4461,32 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F24" s="13" t="str">
         <f aca="false">C24&amp;D24&amp;E24</f>
         <v>$(PREFIX_MOD01)MovTime-RB</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K24" s="16" t="s">
         <v>32</v>
@@ -4513,32 +4513,32 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F25" s="13" t="str">
         <f aca="false">C25&amp;D25&amp;E25</f>
         <v>$(PREFIX_MOD01)Acc-SP</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K25" s="16" t="s">
         <v>32</v>
@@ -4565,32 +4565,32 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F26" s="13" t="str">
         <f aca="false">C26&amp;D26&amp;E26</f>
         <v>$(PREFIX_MOD01)Acc-RB</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K26" s="16" t="s">
         <v>32</v>
@@ -4617,32 +4617,32 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F27" s="13" t="str">
         <f aca="false">C27&amp;D27&amp;E27</f>
         <v>$(PREFIX_MOD01)Decel-SP</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K27" s="16" t="s">
         <v>32</v>
@@ -4669,32 +4669,32 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F28" s="13" t="str">
         <f aca="false">C28&amp;D28&amp;E28</f>
         <v>$(PREFIX_MOD01)Decel-RB</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H28" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K28" s="16" t="s">
         <v>32</v>
@@ -4721,13 +4721,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>76</v>
@@ -4737,16 +4737,16 @@
         <v>$(PREFIX_MOD01)CIDVirtPos-Mon</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H29" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K29" s="16" t="s">
         <v>32</v>
@@ -4773,13 +4773,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>76</v>
@@ -4789,16 +4789,16 @@
         <v>$(PREFIX_MOD01)CIEVirtPos-Mon</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H30" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K30" s="16" t="s">
         <v>32</v>
@@ -4825,13 +4825,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>76</v>
@@ -4841,16 +4841,16 @@
         <v>$(PREFIX_MOD01)CSDVirtPos-Mon</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H31" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K31" s="16" t="s">
         <v>32</v>
@@ -4877,13 +4877,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>76</v>
@@ -4893,16 +4893,16 @@
         <v>$(PREFIX_MOD01)CSEVirtPos-Mon</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H32" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K32" s="16" t="s">
         <v>32</v>
@@ -4929,13 +4929,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>76</v>
@@ -4945,16 +4945,16 @@
         <v>$(PREFIX_MOD01)CIDVirtVelo-Mon</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H33" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K33" s="16" t="s">
         <v>32</v>
@@ -4981,13 +4981,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>76</v>
@@ -4997,16 +4997,16 @@
         <v>$(PREFIX_MOD01)CIEVirtVelo-Mon</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H34" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K34" s="16" t="s">
         <v>32</v>
@@ -5033,13 +5033,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>76</v>
@@ -5049,16 +5049,16 @@
         <v>$(PREFIX_MOD01)CSDVirtVelo-Mon</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H35" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K35" s="16" t="s">
         <v>32</v>
@@ -5085,13 +5085,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>76</v>
@@ -5101,16 +5101,16 @@
         <v>$(PREFIX_MOD01)CSEVirtVelo-Mon</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H36" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K36" s="16" t="s">
         <v>32</v>
@@ -5137,13 +5137,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>76</v>
@@ -5153,16 +5153,16 @@
         <v>$(PREFIX_MOD01)CIDPhyPos-Mon</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H37" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K37" s="16" t="s">
         <v>32</v>
@@ -5189,13 +5189,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>76</v>
@@ -5205,16 +5205,16 @@
         <v>$(PREFIX_MOD01)CIEPhyPos-Mon</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H38" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K38" s="16" t="s">
         <v>32</v>
@@ -5241,13 +5241,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>76</v>
@@ -5257,16 +5257,16 @@
         <v>$(PREFIX_MOD01)CSDPhyPos-Mon</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H39" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K39" s="16" t="s">
         <v>32</v>
@@ -5293,13 +5293,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>76</v>
@@ -5309,16 +5309,16 @@
         <v>$(PREFIX_MOD01)CSEPhyPos-Mon</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H40" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K40" s="16" t="s">
         <v>32</v>
@@ -5345,13 +5345,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>76</v>
@@ -5361,16 +5361,16 @@
         <v>$(PREFIX_MOD01)CIDPhyVelo-Mon</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K41" s="16" t="s">
         <v>32</v>
@@ -5397,13 +5397,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>76</v>
@@ -5413,16 +5413,16 @@
         <v>$(PREFIX_MOD01)CIEPhyVelo-Mon</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H42" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K42" s="16" t="s">
         <v>32</v>
@@ -5449,13 +5449,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>76</v>
@@ -5465,16 +5465,16 @@
         <v>$(PREFIX_MOD01)CSDPhyVelo-Mon</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H43" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K43" s="16" t="s">
         <v>32</v>
@@ -5501,13 +5501,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>76</v>
@@ -5517,16 +5517,16 @@
         <v>$(PREFIX_MOD01)CSEPhyVelo-Mon</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H44" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K44" s="16" t="s">
         <v>32</v>
@@ -5553,13 +5553,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>76</v>
@@ -5569,16 +5569,16 @@
         <v>$(PREFIX_MOD01)CIDPosErr-Mon</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H45" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K45" s="16" t="s">
         <v>32</v>
@@ -5605,13 +5605,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>76</v>
@@ -5621,16 +5621,16 @@
         <v>$(PREFIX_MOD01)CIEPosErr-Mon</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H46" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K46" s="16" t="s">
         <v>32</v>
@@ -5657,13 +5657,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>76</v>
@@ -5673,16 +5673,16 @@
         <v>$(PREFIX_MOD01)CSDPosErr-Mon</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H47" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K47" s="16" t="s">
         <v>32</v>
@@ -5709,13 +5709,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>76</v>
@@ -5725,16 +5725,16 @@
         <v>$(PREFIX_MOD01)CSEPosErr-Mon</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K48" s="16" t="s">
         <v>32</v>
@@ -5761,13 +5761,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>76</v>
@@ -5777,16 +5777,16 @@
         <v>$(PREFIX_MOD01)CIDRawMtrEnc-Mon</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H49" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K49" s="16" t="s">
         <v>32</v>
@@ -5813,13 +5813,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>76</v>
@@ -5829,16 +5829,16 @@
         <v>$(PREFIX_MOD01)CIERawMtrEnc-Mon</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H50" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K50" s="16" t="s">
         <v>32</v>
@@ -5865,13 +5865,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>76</v>
@@ -5881,16 +5881,16 @@
         <v>$(PREFIX_MOD01)CSDRawMtrEnc-Mon</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H51" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K51" s="16" t="s">
         <v>32</v>
@@ -5917,13 +5917,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>76</v>
@@ -5933,16 +5933,16 @@
         <v>$(PREFIX_MOD01)CSERawMtrEnc-Mon</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H52" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K52" s="16" t="s">
         <v>32</v>
@@ -5969,13 +5969,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>76</v>
@@ -5985,16 +5985,16 @@
         <v>$(PREFIX_MOD01)CIDTorqueRef-Mon</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H53" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K53" s="16" t="s">
         <v>32</v>
@@ -6021,13 +6021,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>76</v>
@@ -6037,16 +6037,16 @@
         <v>$(PREFIX_MOD01)CIETorqueRef-Mon</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K54" s="16" t="s">
         <v>32</v>
@@ -6073,13 +6073,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>76</v>
@@ -6089,16 +6089,16 @@
         <v>$(PREFIX_MOD01)CSDTorqueRef-Mon</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H55" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K55" s="16" t="s">
         <v>32</v>
@@ -6125,13 +6125,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>76</v>
@@ -6141,16 +6141,16 @@
         <v>$(PREFIX_MOD01)CSETorqueRef-Mon</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H56" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K56" s="16" t="s">
         <v>32</v>
@@ -6177,13 +6177,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>76</v>
@@ -6193,16 +6193,16 @@
         <v>$(PREFIX_MOD01)CIDFiltTorqueRef-Mon</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H57" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K57" s="16" t="s">
         <v>32</v>
@@ -6229,13 +6229,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>76</v>
@@ -6245,16 +6245,16 @@
         <v>$(PREFIX_MOD01)CIEFiltTorqueRef-Mon</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H58" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K58" s="16" t="s">
         <v>32</v>
@@ -6281,13 +6281,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>76</v>
@@ -6297,16 +6297,16 @@
         <v>$(PREFIX_MOD01)CSDFiltTorqueRef-Mon</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H59" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K59" s="16" t="s">
         <v>32</v>
@@ -6333,13 +6333,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>76</v>
@@ -6349,16 +6349,16 @@
         <v>$(PREFIX_MOD01)CSEFiltTorqueRef-Mon</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H60" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K60" s="16" t="s">
         <v>32</v>
@@ -6385,13 +6385,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>76</v>
@@ -6408,17 +6408,17 @@
       </c>
       <c r="I61" s="24"/>
       <c r="J61" s="24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K61" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L61" s="24"/>
       <c r="M61" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N61" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O61" s="27"/>
       <c r="P61" s="27"/>
@@ -6437,13 +6437,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>76</v>
@@ -6460,17 +6460,17 @@
       </c>
       <c r="I62" s="24"/>
       <c r="J62" s="24" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K62" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L62" s="24"/>
       <c r="M62" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N62" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O62" s="27"/>
       <c r="P62" s="27"/>
@@ -6489,13 +6489,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>76</v>
@@ -6512,17 +6512,17 @@
       </c>
       <c r="I63" s="24"/>
       <c r="J63" s="24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K63" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L63" s="24"/>
       <c r="M63" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N63" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O63" s="27"/>
       <c r="P63" s="27"/>
@@ -6541,13 +6541,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>76</v>
@@ -6564,17 +6564,17 @@
       </c>
       <c r="I64" s="24"/>
       <c r="J64" s="24" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K64" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L64" s="24"/>
       <c r="M64" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N64" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O64" s="27"/>
       <c r="P64" s="27"/>
@@ -6593,13 +6593,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>76</v>
@@ -6616,17 +6616,17 @@
       </c>
       <c r="I65" s="24"/>
       <c r="J65" s="24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K65" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L65" s="24"/>
       <c r="M65" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N65" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O65" s="27"/>
       <c r="P65" s="27"/>
@@ -6645,13 +6645,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>76</v>
@@ -6668,17 +6668,17 @@
       </c>
       <c r="I66" s="24"/>
       <c r="J66" s="24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K66" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L66" s="24"/>
       <c r="M66" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N66" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O66" s="27"/>
       <c r="P66" s="27"/>
@@ -6697,13 +6697,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>76</v>
@@ -6720,17 +6720,17 @@
       </c>
       <c r="I67" s="24"/>
       <c r="J67" s="24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K67" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L67" s="24"/>
       <c r="M67" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N67" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O67" s="27"/>
       <c r="P67" s="27"/>
@@ -6749,13 +6749,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>76</v>
@@ -6772,17 +6772,17 @@
       </c>
       <c r="I68" s="24"/>
       <c r="J68" s="24" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K68" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L68" s="24"/>
       <c r="M68" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N68" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O68" s="27"/>
       <c r="P68" s="27"/>
@@ -6801,13 +6801,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>76</v>
@@ -6824,17 +6824,17 @@
       </c>
       <c r="I69" s="24"/>
       <c r="J69" s="24" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K69" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L69" s="24"/>
       <c r="M69" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N69" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O69" s="27"/>
       <c r="P69" s="27"/>
@@ -6853,13 +6853,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>76</v>
@@ -6876,17 +6876,17 @@
       </c>
       <c r="I70" s="24"/>
       <c r="J70" s="24" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K70" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L70" s="24"/>
       <c r="M70" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N70" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O70" s="27"/>
       <c r="P70" s="27"/>
@@ -6905,13 +6905,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>76</v>
@@ -6928,17 +6928,17 @@
       </c>
       <c r="I71" s="24"/>
       <c r="J71" s="24" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K71" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L71" s="24"/>
       <c r="M71" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N71" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O71" s="27"/>
       <c r="P71" s="27"/>
@@ -6957,13 +6957,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>76</v>
@@ -6980,17 +6980,17 @@
       </c>
       <c r="I72" s="24"/>
       <c r="J72" s="24" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K72" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L72" s="24"/>
       <c r="M72" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N72" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O72" s="27"/>
       <c r="P72" s="27"/>
@@ -7009,13 +7009,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E73" s="12" t="s">
         <v>76</v>
@@ -7032,17 +7032,17 @@
       </c>
       <c r="I73" s="24"/>
       <c r="J73" s="24" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K73" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L73" s="24"/>
       <c r="M73" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N73" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O73" s="27"/>
       <c r="P73" s="27"/>
@@ -7061,13 +7061,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E74" s="12" t="s">
         <v>76</v>
@@ -7084,17 +7084,17 @@
       </c>
       <c r="I74" s="14"/>
       <c r="J74" s="24" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K74" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L74" s="14"/>
       <c r="M74" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N74" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O74" s="17"/>
       <c r="P74" s="17"/>
@@ -7113,13 +7113,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>76</v>
@@ -7136,17 +7136,17 @@
       </c>
       <c r="I75" s="14"/>
       <c r="J75" s="24" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K75" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L75" s="14"/>
       <c r="M75" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N75" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O75" s="17"/>
       <c r="P75" s="17"/>
@@ -7165,13 +7165,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>76</v>
@@ -7188,17 +7188,17 @@
       </c>
       <c r="I76" s="14"/>
       <c r="J76" s="24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K76" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L76" s="14"/>
       <c r="M76" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N76" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O76" s="17"/>
       <c r="P76" s="17"/>
@@ -7217,13 +7217,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>76</v>
@@ -7240,17 +7240,17 @@
       </c>
       <c r="I77" s="24"/>
       <c r="J77" s="24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K77" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L77" s="24"/>
       <c r="M77" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N77" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O77" s="27"/>
       <c r="P77" s="27"/>
@@ -7269,13 +7269,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>76</v>
@@ -7292,17 +7292,17 @@
       </c>
       <c r="I78" s="24"/>
       <c r="J78" s="24" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K78" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L78" s="24"/>
       <c r="M78" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N78" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O78" s="27"/>
       <c r="P78" s="27"/>
@@ -7321,13 +7321,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E79" s="12" t="s">
         <v>76</v>
@@ -7344,17 +7344,17 @@
       </c>
       <c r="I79" s="24"/>
       <c r="J79" s="24" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K79" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L79" s="24"/>
       <c r="M79" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N79" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O79" s="27"/>
       <c r="P79" s="27"/>
@@ -7373,13 +7373,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E80" s="12" t="s">
         <v>76</v>
@@ -7396,17 +7396,17 @@
       </c>
       <c r="I80" s="24"/>
       <c r="J80" s="24" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K80" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L80" s="24"/>
       <c r="M80" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N80" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O80" s="27"/>
       <c r="P80" s="27"/>
@@ -7425,13 +7425,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E81" s="29" t="s">
         <v>109</v>
@@ -7448,17 +7448,17 @@
       </c>
       <c r="I81" s="24"/>
       <c r="J81" s="24" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K81" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L81" s="24"/>
       <c r="M81" s="27" t="s">
-        <v>303</v>
+        <v>111</v>
       </c>
       <c r="N81" s="27" t="s">
-        <v>303</v>
+        <v>112</v>
       </c>
       <c r="O81" s="27"/>
       <c r="P81" s="27"/>
@@ -7477,13 +7477,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E82" s="29" t="s">
         <v>109</v>
@@ -7500,17 +7500,17 @@
       </c>
       <c r="I82" s="24"/>
       <c r="J82" s="24" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K82" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L82" s="24"/>
       <c r="M82" s="27" t="s">
-        <v>308</v>
+        <v>111</v>
       </c>
       <c r="N82" s="27" t="s">
-        <v>308</v>
+        <v>112</v>
       </c>
       <c r="O82" s="27"/>
       <c r="P82" s="27"/>
@@ -7545,7 +7545,7 @@
         <v>$(PREFIX_MOD01)StateIdx-Mon</v>
       </c>
       <c r="G83" s="24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H83" s="24" t="s">
         <v>43</v>
@@ -7674,11 +7674,11 @@
   </sheetPr>
   <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E53" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N83" activeCellId="0" sqref="N83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.57"/>
@@ -8666,7 +8666,7 @@
         <v>111</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
@@ -8691,7 +8691,7 @@
         <v>313</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>76</v>
@@ -8717,10 +8717,10 @@
         <v>0</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O18" s="17"/>
       <c r="P18" s="17"/>
@@ -8745,23 +8745,23 @@
         <v>313</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F19" s="13" t="str">
         <f aca="false">C19&amp;D19&amp;E19</f>
         <v>$(PREFIX_MOD02)RelPos-SP</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J19" s="14" t="s">
         <v>347</v>
@@ -8797,23 +8797,23 @@
         <v>313</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F20" s="13" t="str">
         <f aca="false">C20&amp;D20&amp;E20</f>
         <v>$(PREFIX_MOD02)RelPos-RB</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>347</v>
@@ -8849,23 +8849,23 @@
         <v>313</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F21" s="13" t="str">
         <f aca="false">C21&amp;D21&amp;E21</f>
         <v>$(PREFIX_MOD02)Velo-SP</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>350</v>
@@ -8901,23 +8901,23 @@
         <v>313</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="13" t="str">
         <f aca="false">C22&amp;D22&amp;E22</f>
         <v>$(PREFIX_MOD02)Velo-RB</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J22" s="14" t="s">
         <v>350</v>
@@ -8953,23 +8953,23 @@
         <v>313</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F23" s="13" t="str">
         <f aca="false">C23&amp;D23&amp;E23</f>
         <v>$(PREFIX_MOD02)MovTime-SP</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J23" s="14" t="s">
         <v>353</v>
@@ -9005,23 +9005,23 @@
         <v>313</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F24" s="13" t="str">
         <f aca="false">C24&amp;D24&amp;E24</f>
         <v>$(PREFIX_MOD02)MovTime-RB</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J24" s="14" t="s">
         <v>353</v>
@@ -9057,23 +9057,23 @@
         <v>313</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F25" s="13" t="str">
         <f aca="false">C25&amp;D25&amp;E25</f>
         <v>$(PREFIX_MOD02)Acc-SP</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>356</v>
@@ -9109,23 +9109,23 @@
         <v>313</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F26" s="13" t="str">
         <f aca="false">C26&amp;D26&amp;E26</f>
         <v>$(PREFIX_MOD02)Acc-RB</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>356</v>
@@ -9161,23 +9161,23 @@
         <v>313</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F27" s="13" t="str">
         <f aca="false">C27&amp;D27&amp;E27</f>
         <v>$(PREFIX_MOD02)Decel-SP</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J27" s="14" t="s">
         <v>359</v>
@@ -9213,23 +9213,23 @@
         <v>313</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F28" s="13" t="str">
         <f aca="false">C28&amp;D28&amp;E28</f>
         <v>$(PREFIX_MOD02)Decel-RB</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H28" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J28" s="14" t="s">
         <v>359</v>
@@ -9265,7 +9265,7 @@
         <v>313</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>76</v>
@@ -9275,13 +9275,13 @@
         <v>$(PREFIX_MOD02)CIDVirtPos-Mon</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H29" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>362</v>
@@ -9317,7 +9317,7 @@
         <v>313</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>76</v>
@@ -9327,13 +9327,13 @@
         <v>$(PREFIX_MOD02)CIEVirtPos-Mon</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J30" s="14" t="s">
         <v>364</v>
@@ -9369,7 +9369,7 @@
         <v>313</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>76</v>
@@ -9379,13 +9379,13 @@
         <v>$(PREFIX_MOD02)CSDVirtPos-Mon</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H31" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J31" s="14" t="s">
         <v>366</v>
@@ -9421,7 +9421,7 @@
         <v>313</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>76</v>
@@ -9431,13 +9431,13 @@
         <v>$(PREFIX_MOD02)CSEVirtPos-Mon</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H32" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J32" s="14" t="s">
         <v>368</v>
@@ -9473,7 +9473,7 @@
         <v>313</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>76</v>
@@ -9483,13 +9483,13 @@
         <v>$(PREFIX_MOD02)CIDVirtVelo-Mon</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H33" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J33" s="14" t="s">
         <v>370</v>
@@ -9525,7 +9525,7 @@
         <v>313</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>76</v>
@@ -9535,13 +9535,13 @@
         <v>$(PREFIX_MOD02)CIEVirtVelo-Mon</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H34" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J34" s="14" t="s">
         <v>372</v>
@@ -9577,7 +9577,7 @@
         <v>313</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>76</v>
@@ -9587,13 +9587,13 @@
         <v>$(PREFIX_MOD02)CSDVirtVelo-Mon</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H35" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J35" s="14" t="s">
         <v>374</v>
@@ -9629,7 +9629,7 @@
         <v>313</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>76</v>
@@ -9639,13 +9639,13 @@
         <v>$(PREFIX_MOD02)CSEVirtVelo-Mon</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H36" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J36" s="14" t="s">
         <v>376</v>
@@ -9681,7 +9681,7 @@
         <v>313</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>76</v>
@@ -9691,13 +9691,13 @@
         <v>$(PREFIX_MOD02)CIDPhyPos-Mon</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H37" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J37" s="14" t="s">
         <v>378</v>
@@ -9733,7 +9733,7 @@
         <v>313</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>76</v>
@@ -9743,13 +9743,13 @@
         <v>$(PREFIX_MOD02)CIEPhyPos-Mon</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H38" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J38" s="14" t="s">
         <v>380</v>
@@ -9785,7 +9785,7 @@
         <v>313</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>76</v>
@@ -9795,13 +9795,13 @@
         <v>$(PREFIX_MOD02)CSDPhyPos-Mon</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H39" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J39" s="14" t="s">
         <v>382</v>
@@ -9837,7 +9837,7 @@
         <v>313</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>76</v>
@@ -9847,13 +9847,13 @@
         <v>$(PREFIX_MOD02)CSEPhyPos-Mon</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H40" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J40" s="14" t="s">
         <v>384</v>
@@ -9889,7 +9889,7 @@
         <v>313</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>76</v>
@@ -9899,13 +9899,13 @@
         <v>$(PREFIX_MOD02)CIDPhyVelo-Mon</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J41" s="14" t="s">
         <v>386</v>
@@ -9941,7 +9941,7 @@
         <v>313</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>76</v>
@@ -9951,13 +9951,13 @@
         <v>$(PREFIX_MOD02)CIEPhyVelo-Mon</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H42" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J42" s="14" t="s">
         <v>388</v>
@@ -9993,7 +9993,7 @@
         <v>313</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>76</v>
@@ -10003,13 +10003,13 @@
         <v>$(PREFIX_MOD02)CSDPhyVelo-Mon</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H43" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J43" s="14" t="s">
         <v>390</v>
@@ -10045,7 +10045,7 @@
         <v>313</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>76</v>
@@ -10055,13 +10055,13 @@
         <v>$(PREFIX_MOD02)CSEPhyVelo-Mon</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H44" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J44" s="14" t="s">
         <v>392</v>
@@ -10097,7 +10097,7 @@
         <v>313</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>76</v>
@@ -10107,13 +10107,13 @@
         <v>$(PREFIX_MOD02)CIDPosErr-Mon</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H45" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J45" s="14" t="s">
         <v>394</v>
@@ -10149,7 +10149,7 @@
         <v>313</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>76</v>
@@ -10159,13 +10159,13 @@
         <v>$(PREFIX_MOD02)CIEPosErr-Mon</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H46" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J46" s="14" t="s">
         <v>396</v>
@@ -10201,7 +10201,7 @@
         <v>313</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>76</v>
@@ -10211,13 +10211,13 @@
         <v>$(PREFIX_MOD02)CSDPosErr-Mon</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H47" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J47" s="14" t="s">
         <v>398</v>
@@ -10253,7 +10253,7 @@
         <v>313</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>76</v>
@@ -10263,13 +10263,13 @@
         <v>$(PREFIX_MOD02)CSEPosErr-Mon</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J48" s="14" t="s">
         <v>400</v>
@@ -10305,7 +10305,7 @@
         <v>313</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>76</v>
@@ -10315,13 +10315,13 @@
         <v>$(PREFIX_MOD02)CIDRawMtrEnc-Mon</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H49" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J49" s="14" t="s">
         <v>402</v>
@@ -10357,7 +10357,7 @@
         <v>313</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>76</v>
@@ -10367,13 +10367,13 @@
         <v>$(PREFIX_MOD02)CIERawMtrEnc-Mon</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H50" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J50" s="14" t="s">
         <v>404</v>
@@ -10409,7 +10409,7 @@
         <v>313</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>76</v>
@@ -10419,13 +10419,13 @@
         <v>$(PREFIX_MOD02)CSDRawMtrEnc-Mon</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H51" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J51" s="14" t="s">
         <v>406</v>
@@ -10461,7 +10461,7 @@
         <v>313</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>76</v>
@@ -10471,13 +10471,13 @@
         <v>$(PREFIX_MOD02)CSERawMtrEnc-Mon</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H52" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J52" s="14" t="s">
         <v>408</v>
@@ -10513,7 +10513,7 @@
         <v>313</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>76</v>
@@ -10523,13 +10523,13 @@
         <v>$(PREFIX_MOD02)CIDTorqueRef-Mon</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H53" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J53" s="14" t="s">
         <v>410</v>
@@ -10565,7 +10565,7 @@
         <v>313</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>76</v>
@@ -10575,13 +10575,13 @@
         <v>$(PREFIX_MOD02)CIETorqueRef-Mon</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J54" s="14" t="s">
         <v>412</v>
@@ -10617,7 +10617,7 @@
         <v>313</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>76</v>
@@ -10627,13 +10627,13 @@
         <v>$(PREFIX_MOD02)CSDTorqueRef-Mon</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H55" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J55" s="14" t="s">
         <v>414</v>
@@ -10669,7 +10669,7 @@
         <v>313</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>76</v>
@@ -10679,13 +10679,13 @@
         <v>$(PREFIX_MOD02)CSETorqueRef-Mon</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H56" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J56" s="14" t="s">
         <v>416</v>
@@ -10721,7 +10721,7 @@
         <v>313</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>76</v>
@@ -10731,13 +10731,13 @@
         <v>$(PREFIX_MOD02)CIDFiltTorqueRef-Mon</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H57" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J57" s="14" t="s">
         <v>418</v>
@@ -10773,7 +10773,7 @@
         <v>313</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>76</v>
@@ -10783,13 +10783,13 @@
         <v>$(PREFIX_MOD02)CIEFiltTorqueRef-Mon</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H58" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J58" s="14" t="s">
         <v>420</v>
@@ -10825,7 +10825,7 @@
         <v>313</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>76</v>
@@ -10835,13 +10835,13 @@
         <v>$(PREFIX_MOD02)CSDFiltTorqueRef-Mon</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H59" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J59" s="14" t="s">
         <v>422</v>
@@ -10877,7 +10877,7 @@
         <v>313</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>76</v>
@@ -10887,13 +10887,13 @@
         <v>$(PREFIX_MOD02)CSEFiltTorqueRef-Mon</v>
       </c>
       <c r="G60" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H60" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J60" s="14" t="s">
         <v>424</v>
@@ -10929,7 +10929,7 @@
         <v>313</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>76</v>
@@ -10953,10 +10953,10 @@
       </c>
       <c r="L61" s="14"/>
       <c r="M61" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N61" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O61" s="17"/>
       <c r="P61" s="17"/>
@@ -10981,7 +10981,7 @@
         <v>313</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>76</v>
@@ -11005,10 +11005,10 @@
       </c>
       <c r="L62" s="14"/>
       <c r="M62" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N62" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O62" s="17"/>
       <c r="P62" s="17"/>
@@ -11033,7 +11033,7 @@
         <v>313</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>76</v>
@@ -11057,10 +11057,10 @@
       </c>
       <c r="L63" s="14"/>
       <c r="M63" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N63" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O63" s="17"/>
       <c r="P63" s="17"/>
@@ -11085,7 +11085,7 @@
         <v>313</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>76</v>
@@ -11109,10 +11109,10 @@
       </c>
       <c r="L64" s="14"/>
       <c r="M64" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N64" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O64" s="17"/>
       <c r="P64" s="17"/>
@@ -11137,7 +11137,7 @@
         <v>313</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>76</v>
@@ -11161,10 +11161,10 @@
       </c>
       <c r="L65" s="14"/>
       <c r="M65" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N65" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O65" s="17"/>
       <c r="P65" s="17"/>
@@ -11189,7 +11189,7 @@
         <v>313</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>76</v>
@@ -11213,10 +11213,10 @@
       </c>
       <c r="L66" s="14"/>
       <c r="M66" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N66" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O66" s="17"/>
       <c r="P66" s="17"/>
@@ -11241,7 +11241,7 @@
         <v>313</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>76</v>
@@ -11265,10 +11265,10 @@
       </c>
       <c r="L67" s="14"/>
       <c r="M67" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N67" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O67" s="17"/>
       <c r="P67" s="17"/>
@@ -11293,7 +11293,7 @@
         <v>313</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>76</v>
@@ -11317,10 +11317,10 @@
       </c>
       <c r="L68" s="14"/>
       <c r="M68" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N68" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O68" s="17"/>
       <c r="P68" s="17"/>
@@ -11345,7 +11345,7 @@
         <v>313</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>76</v>
@@ -11369,10 +11369,10 @@
       </c>
       <c r="L69" s="24"/>
       <c r="M69" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N69" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O69" s="17"/>
       <c r="P69" s="17"/>
@@ -11397,7 +11397,7 @@
         <v>313</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>76</v>
@@ -11421,10 +11421,10 @@
       </c>
       <c r="L70" s="24"/>
       <c r="M70" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N70" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O70" s="17"/>
       <c r="P70" s="17"/>
@@ -11449,7 +11449,7 @@
         <v>313</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>76</v>
@@ -11473,10 +11473,10 @@
       </c>
       <c r="L71" s="24"/>
       <c r="M71" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N71" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O71" s="17"/>
       <c r="P71" s="17"/>
@@ -11501,7 +11501,7 @@
         <v>313</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>76</v>
@@ -11525,10 +11525,10 @@
       </c>
       <c r="L72" s="24"/>
       <c r="M72" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N72" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O72" s="17"/>
       <c r="P72" s="17"/>
@@ -11553,7 +11553,7 @@
         <v>313</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E73" s="12" t="s">
         <v>76</v>
@@ -11577,10 +11577,10 @@
       </c>
       <c r="L73" s="24"/>
       <c r="M73" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N73" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O73" s="17"/>
       <c r="P73" s="17"/>
@@ -11605,7 +11605,7 @@
         <v>313</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E74" s="12" t="s">
         <v>76</v>
@@ -11629,10 +11629,10 @@
       </c>
       <c r="L74" s="14"/>
       <c r="M74" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N74" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O74" s="17"/>
       <c r="P74" s="17"/>
@@ -11657,7 +11657,7 @@
         <v>313</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>76</v>
@@ -11681,10 +11681,10 @@
       </c>
       <c r="L75" s="14"/>
       <c r="M75" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N75" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O75" s="17"/>
       <c r="P75" s="17"/>
@@ -11709,7 +11709,7 @@
         <v>313</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>76</v>
@@ -11733,10 +11733,10 @@
       </c>
       <c r="L76" s="14"/>
       <c r="M76" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N76" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O76" s="17"/>
       <c r="P76" s="17"/>
@@ -11761,7 +11761,7 @@
         <v>313</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>76</v>
@@ -11785,10 +11785,10 @@
       </c>
       <c r="L77" s="24"/>
       <c r="M77" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N77" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O77" s="17"/>
       <c r="P77" s="17"/>
@@ -11813,7 +11813,7 @@
         <v>313</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>76</v>
@@ -11837,10 +11837,10 @@
       </c>
       <c r="L78" s="24"/>
       <c r="M78" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N78" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O78" s="17"/>
       <c r="P78" s="17"/>
@@ -11865,7 +11865,7 @@
         <v>313</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E79" s="12" t="s">
         <v>76</v>
@@ -11889,10 +11889,10 @@
       </c>
       <c r="L79" s="24"/>
       <c r="M79" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N79" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O79" s="17"/>
       <c r="P79" s="17"/>
@@ -11917,7 +11917,7 @@
         <v>313</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E80" s="12" t="s">
         <v>76</v>
@@ -11941,10 +11941,10 @@
       </c>
       <c r="L80" s="24"/>
       <c r="M80" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N80" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O80" s="17"/>
       <c r="P80" s="17"/>
@@ -11969,7 +11969,7 @@
         <v>313</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E81" s="29" t="s">
         <v>109</v>
@@ -11993,10 +11993,10 @@
       </c>
       <c r="L81" s="24"/>
       <c r="M81" s="27" t="s">
-        <v>303</v>
+        <v>111</v>
       </c>
       <c r="N81" s="27" t="s">
-        <v>303</v>
+        <v>112</v>
       </c>
       <c r="O81" s="27"/>
       <c r="P81" s="27"/>
@@ -12021,7 +12021,7 @@
         <v>313</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E82" s="29" t="s">
         <v>109</v>
@@ -12045,10 +12045,10 @@
       </c>
       <c r="L82" s="24"/>
       <c r="M82" s="27" t="s">
-        <v>308</v>
+        <v>111</v>
       </c>
       <c r="N82" s="27" t="s">
-        <v>308</v>
+        <v>112</v>
       </c>
       <c r="O82" s="27"/>
       <c r="P82" s="27"/>
@@ -12083,7 +12083,7 @@
         <v>$(PREFIX_MOD02)StateIdx-Mon</v>
       </c>
       <c r="G83" s="24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H83" s="24" t="s">
         <v>43</v>
@@ -12157,11 +12157,11 @@
   </sheetPr>
   <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N83" activeCellId="0" sqref="N83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.57"/>
@@ -13149,7 +13149,7 @@
         <v>111</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
@@ -13174,7 +13174,7 @@
         <v>464</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>76</v>
@@ -13200,10 +13200,10 @@
         <v>0</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O18" s="17"/>
       <c r="P18" s="17"/>
@@ -13228,23 +13228,23 @@
         <v>464</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F19" s="13" t="str">
         <f aca="false">C19&amp;D19&amp;E19</f>
         <v>$(PREFIX_MOD03)RelPos-SP</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J19" s="14" t="s">
         <v>498</v>
@@ -13280,23 +13280,23 @@
         <v>464</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F20" s="13" t="str">
         <f aca="false">C20&amp;D20&amp;E20</f>
         <v>$(PREFIX_MOD03)RelPos-RB</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>498</v>
@@ -13332,23 +13332,23 @@
         <v>464</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F21" s="13" t="str">
         <f aca="false">C21&amp;D21&amp;E21</f>
         <v>$(PREFIX_MOD03)Velo-SP</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H21" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>501</v>
@@ -13384,23 +13384,23 @@
         <v>464</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="13" t="str">
         <f aca="false">C22&amp;D22&amp;E22</f>
         <v>$(PREFIX_MOD03)Velo-RB</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H22" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J22" s="14" t="s">
         <v>501</v>
@@ -13436,23 +13436,23 @@
         <v>464</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F23" s="13" t="str">
         <f aca="false">C23&amp;D23&amp;E23</f>
         <v>$(PREFIX_MOD03)MovTime-SP</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J23" s="14" t="s">
         <v>504</v>
@@ -13488,23 +13488,23 @@
         <v>464</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F24" s="13" t="str">
         <f aca="false">C24&amp;D24&amp;E24</f>
         <v>$(PREFIX_MOD03)MovTime-RB</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J24" s="14" t="s">
         <v>504</v>
@@ -13540,23 +13540,23 @@
         <v>464</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F25" s="13" t="str">
         <f aca="false">C25&amp;D25&amp;E25</f>
         <v>$(PREFIX_MOD03)Acc-SP</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>507</v>
@@ -13592,23 +13592,23 @@
         <v>464</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F26" s="13" t="str">
         <f aca="false">C26&amp;D26&amp;E26</f>
         <v>$(PREFIX_MOD03)Acc-RB</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J26" s="14" t="s">
         <v>507</v>
@@ -13644,23 +13644,23 @@
         <v>464</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F27" s="13" t="str">
         <f aca="false">C27&amp;D27&amp;E27</f>
         <v>$(PREFIX_MOD03)Decel-SP</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J27" s="14" t="s">
         <v>510</v>
@@ -13696,23 +13696,23 @@
         <v>464</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F28" s="13" t="str">
         <f aca="false">C28&amp;D28&amp;E28</f>
         <v>$(PREFIX_MOD03)Decel-RB</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H28" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J28" s="14" t="s">
         <v>510</v>
@@ -13748,7 +13748,7 @@
         <v>464</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E29" s="29" t="s">
         <v>76</v>
@@ -13758,13 +13758,13 @@
         <v>$(PREFIX_MOD03)CIDVirtPos-Mon</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H29" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>513</v>
@@ -13800,7 +13800,7 @@
         <v>464</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E30" s="29" t="s">
         <v>76</v>
@@ -13810,13 +13810,13 @@
         <v>$(PREFIX_MOD03)CIEVirtPos-Mon</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H30" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J30" s="14" t="s">
         <v>515</v>
@@ -13852,7 +13852,7 @@
         <v>464</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E31" s="29" t="s">
         <v>76</v>
@@ -13862,13 +13862,13 @@
         <v>$(PREFIX_MOD03)CSDVirtPos-Mon</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H31" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J31" s="14" t="s">
         <v>517</v>
@@ -13904,7 +13904,7 @@
         <v>464</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E32" s="29" t="s">
         <v>76</v>
@@ -13914,13 +13914,13 @@
         <v>$(PREFIX_MOD03)CSEVirtPos-Mon</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H32" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J32" s="14" t="s">
         <v>519</v>
@@ -13956,7 +13956,7 @@
         <v>464</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>76</v>
@@ -13966,13 +13966,13 @@
         <v>$(PREFIX_MOD03)CIDVirtVelo-Mon</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H33" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J33" s="14" t="s">
         <v>521</v>
@@ -14008,7 +14008,7 @@
         <v>464</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E34" s="29" t="s">
         <v>76</v>
@@ -14018,13 +14018,13 @@
         <v>$(PREFIX_MOD03)CIEVirtVelo-Mon</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H34" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J34" s="14" t="s">
         <v>523</v>
@@ -14060,7 +14060,7 @@
         <v>464</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E35" s="29" t="s">
         <v>76</v>
@@ -14070,13 +14070,13 @@
         <v>$(PREFIX_MOD03)CSDVirtVelo-Mon</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H35" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J35" s="14" t="s">
         <v>525</v>
@@ -14112,7 +14112,7 @@
         <v>464</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E36" s="29" t="s">
         <v>76</v>
@@ -14122,13 +14122,13 @@
         <v>$(PREFIX_MOD03)CSEVirtVelo-Mon</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H36" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J36" s="14" t="s">
         <v>527</v>
@@ -14164,7 +14164,7 @@
         <v>464</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E37" s="29" t="s">
         <v>76</v>
@@ -14174,13 +14174,13 @@
         <v>$(PREFIX_MOD03)CIDPhyPos-Mon</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H37" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J37" s="14" t="s">
         <v>529</v>
@@ -14216,7 +14216,7 @@
         <v>464</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E38" s="29" t="s">
         <v>76</v>
@@ -14226,13 +14226,13 @@
         <v>$(PREFIX_MOD03)CIEPhyPos-Mon</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H38" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J38" s="14" t="s">
         <v>531</v>
@@ -14268,7 +14268,7 @@
         <v>464</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E39" s="29" t="s">
         <v>76</v>
@@ -14278,13 +14278,13 @@
         <v>$(PREFIX_MOD03)CSDPhyPos-Mon</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H39" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J39" s="14" t="s">
         <v>533</v>
@@ -14320,7 +14320,7 @@
         <v>464</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E40" s="29" t="s">
         <v>76</v>
@@ -14330,13 +14330,13 @@
         <v>$(PREFIX_MOD03)CSEPhyPos-Mon</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H40" s="15" t="s">
         <v>43</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J40" s="14" t="s">
         <v>535</v>
@@ -14372,7 +14372,7 @@
         <v>464</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E41" s="29" t="s">
         <v>76</v>
@@ -14382,13 +14382,13 @@
         <v>$(PREFIX_MOD03)CIDPhyVelo-Mon</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J41" s="14" t="s">
         <v>537</v>
@@ -14424,7 +14424,7 @@
         <v>464</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E42" s="29" t="s">
         <v>76</v>
@@ -14434,13 +14434,13 @@
         <v>$(PREFIX_MOD03)CIEPhyVelo-Mon</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H42" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J42" s="14" t="s">
         <v>539</v>
@@ -14476,7 +14476,7 @@
         <v>464</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E43" s="29" t="s">
         <v>76</v>
@@ -14486,13 +14486,13 @@
         <v>$(PREFIX_MOD03)CSDPhyVelo-Mon</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H43" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J43" s="14" t="s">
         <v>541</v>
@@ -14528,7 +14528,7 @@
         <v>464</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E44" s="29" t="s">
         <v>76</v>
@@ -14538,13 +14538,13 @@
         <v>$(PREFIX_MOD03)CSEPhyVelo-Mon</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H44" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J44" s="14" t="s">
         <v>543</v>
@@ -14580,7 +14580,7 @@
         <v>464</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E45" s="29" t="s">
         <v>76</v>
@@ -14590,13 +14590,13 @@
         <v>$(PREFIX_MOD03)CIDPosErr-Mon</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H45" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J45" s="14" t="s">
         <v>545</v>
@@ -14632,7 +14632,7 @@
         <v>464</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E46" s="29" t="s">
         <v>76</v>
@@ -14642,13 +14642,13 @@
         <v>$(PREFIX_MOD03)CIEPosErr-Mon</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H46" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J46" s="14" t="s">
         <v>547</v>
@@ -14684,7 +14684,7 @@
         <v>464</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E47" s="29" t="s">
         <v>76</v>
@@ -14694,13 +14694,13 @@
         <v>$(PREFIX_MOD03)CSDPosErr-Mon</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H47" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J47" s="14" t="s">
         <v>549</v>
@@ -14736,7 +14736,7 @@
         <v>464</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E48" s="29" t="s">
         <v>76</v>
@@ -14746,13 +14746,13 @@
         <v>$(PREFIX_MOD03)CSEPosErr-Mon</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J48" s="14" t="s">
         <v>551</v>
@@ -14788,7 +14788,7 @@
         <v>464</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E49" s="29" t="s">
         <v>76</v>
@@ -14798,13 +14798,13 @@
         <v>$(PREFIX_MOD03)CIDRawMtrEnc-Mon</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H49" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J49" s="14" t="s">
         <v>553</v>
@@ -14840,7 +14840,7 @@
         <v>464</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E50" s="29" t="s">
         <v>76</v>
@@ -14850,13 +14850,13 @@
         <v>$(PREFIX_MOD03)CIERawMtrEnc-Mon</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H50" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J50" s="14" t="s">
         <v>555</v>
@@ -14892,7 +14892,7 @@
         <v>464</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E51" s="29" t="s">
         <v>76</v>
@@ -14902,13 +14902,13 @@
         <v>$(PREFIX_MOD03)CSDRawMtrEnc-Mon</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H51" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J51" s="14" t="s">
         <v>557</v>
@@ -14944,7 +14944,7 @@
         <v>464</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E52" s="29" t="s">
         <v>76</v>
@@ -14954,13 +14954,13 @@
         <v>$(PREFIX_MOD03)CSERawMtrEnc-Mon</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H52" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J52" s="14" t="s">
         <v>559</v>
@@ -14996,7 +14996,7 @@
         <v>464</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E53" s="29" t="s">
         <v>76</v>
@@ -15006,13 +15006,13 @@
         <v>$(PREFIX_MOD03)CIDTorqueRef-Mon</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H53" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J53" s="14" t="s">
         <v>561</v>
@@ -15048,7 +15048,7 @@
         <v>464</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E54" s="29" t="s">
         <v>76</v>
@@ -15058,13 +15058,13 @@
         <v>$(PREFIX_MOD03)CIETorqueRef-Mon</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H54" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J54" s="14" t="s">
         <v>563</v>
@@ -15100,7 +15100,7 @@
         <v>464</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E55" s="29" t="s">
         <v>76</v>
@@ -15110,13 +15110,13 @@
         <v>$(PREFIX_MOD03)CSDTorqueRef-Mon</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H55" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J55" s="14" t="s">
         <v>565</v>
@@ -15152,7 +15152,7 @@
         <v>464</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E56" s="29" t="s">
         <v>76</v>
@@ -15162,13 +15162,13 @@
         <v>$(PREFIX_MOD03)CSETorqueRef-Mon</v>
       </c>
       <c r="G56" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H56" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J56" s="14" t="s">
         <v>567</v>
@@ -15204,7 +15204,7 @@
         <v>464</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E57" s="29" t="s">
         <v>76</v>
@@ -15214,13 +15214,13 @@
         <v>$(PREFIX_MOD03)CIDFiltTorqueRef-Mon</v>
       </c>
       <c r="G57" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H57" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J57" s="14" t="s">
         <v>569</v>
@@ -15256,7 +15256,7 @@
         <v>464</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E58" s="29" t="s">
         <v>76</v>
@@ -15266,13 +15266,13 @@
         <v>$(PREFIX_MOD03)CIEFiltTorqueRef-Mon</v>
       </c>
       <c r="G58" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H58" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J58" s="14" t="s">
         <v>571</v>
@@ -15308,7 +15308,7 @@
         <v>464</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E59" s="29" t="s">
         <v>76</v>
@@ -15318,13 +15318,13 @@
         <v>$(PREFIX_MOD03)CSDFiltTorqueRef-Mon</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H59" s="14" t="s">
         <v>43</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J59" s="14" t="s">
         <v>573</v>
@@ -15360,7 +15360,7 @@
         <v>464</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E60" s="30" t="s">
         <v>76</v>
@@ -15370,13 +15370,13 @@
         <v>$(PREFIX_MOD03)CSEFiltTorqueRef-Mon</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H60" s="24" t="s">
         <v>43</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J60" s="24" t="s">
         <v>575</v>
@@ -15412,7 +15412,7 @@
         <v>464</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E61" s="29" t="s">
         <v>76</v>
@@ -15436,10 +15436,10 @@
       </c>
       <c r="L61" s="14"/>
       <c r="M61" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N61" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O61" s="17"/>
       <c r="P61" s="17"/>
@@ -15464,7 +15464,7 @@
         <v>464</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E62" s="29" t="s">
         <v>76</v>
@@ -15488,10 +15488,10 @@
       </c>
       <c r="L62" s="14"/>
       <c r="M62" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N62" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O62" s="17"/>
       <c r="P62" s="17"/>
@@ -15516,7 +15516,7 @@
         <v>464</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E63" s="29" t="s">
         <v>76</v>
@@ -15540,10 +15540,10 @@
       </c>
       <c r="L63" s="14"/>
       <c r="M63" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N63" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O63" s="17"/>
       <c r="P63" s="17"/>
@@ -15568,7 +15568,7 @@
         <v>464</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E64" s="29" t="s">
         <v>76</v>
@@ -15592,10 +15592,10 @@
       </c>
       <c r="L64" s="14"/>
       <c r="M64" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N64" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O64" s="17"/>
       <c r="P64" s="17"/>
@@ -15620,7 +15620,7 @@
         <v>464</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E65" s="29" t="s">
         <v>76</v>
@@ -15644,10 +15644,10 @@
       </c>
       <c r="L65" s="14"/>
       <c r="M65" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N65" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O65" s="17"/>
       <c r="P65" s="17"/>
@@ -15672,7 +15672,7 @@
         <v>464</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E66" s="29" t="s">
         <v>76</v>
@@ -15696,10 +15696,10 @@
       </c>
       <c r="L66" s="14"/>
       <c r="M66" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N66" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O66" s="17"/>
       <c r="P66" s="17"/>
@@ -15724,7 +15724,7 @@
         <v>464</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E67" s="29" t="s">
         <v>76</v>
@@ -15748,10 +15748,10 @@
       </c>
       <c r="L67" s="14"/>
       <c r="M67" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N67" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O67" s="17"/>
       <c r="P67" s="17"/>
@@ -15776,7 +15776,7 @@
         <v>464</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E68" s="29" t="s">
         <v>76</v>
@@ -15800,10 +15800,10 @@
       </c>
       <c r="L68" s="14"/>
       <c r="M68" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N68" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O68" s="17"/>
       <c r="P68" s="17"/>
@@ -15828,7 +15828,7 @@
         <v>464</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E69" s="29" t="s">
         <v>76</v>
@@ -15852,10 +15852,10 @@
       </c>
       <c r="L69" s="24"/>
       <c r="M69" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N69" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O69" s="17"/>
       <c r="P69" s="17"/>
@@ -15880,7 +15880,7 @@
         <v>464</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E70" s="29" t="s">
         <v>76</v>
@@ -15904,10 +15904,10 @@
       </c>
       <c r="L70" s="24"/>
       <c r="M70" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N70" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O70" s="17"/>
       <c r="P70" s="17"/>
@@ -15932,7 +15932,7 @@
         <v>464</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E71" s="29" t="s">
         <v>76</v>
@@ -15956,10 +15956,10 @@
       </c>
       <c r="L71" s="24"/>
       <c r="M71" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N71" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O71" s="17"/>
       <c r="P71" s="17"/>
@@ -15984,7 +15984,7 @@
         <v>464</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E72" s="29" t="s">
         <v>76</v>
@@ -16008,10 +16008,10 @@
       </c>
       <c r="L72" s="24"/>
       <c r="M72" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N72" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O72" s="17"/>
       <c r="P72" s="17"/>
@@ -16036,7 +16036,7 @@
         <v>464</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E73" s="29" t="s">
         <v>76</v>
@@ -16060,10 +16060,10 @@
       </c>
       <c r="L73" s="24"/>
       <c r="M73" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N73" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O73" s="17"/>
       <c r="P73" s="17"/>
@@ -16088,7 +16088,7 @@
         <v>464</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E74" s="29" t="s">
         <v>76</v>
@@ -16112,10 +16112,10 @@
       </c>
       <c r="L74" s="14"/>
       <c r="M74" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N74" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O74" s="17"/>
       <c r="P74" s="17"/>
@@ -16140,7 +16140,7 @@
         <v>464</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E75" s="29" t="s">
         <v>76</v>
@@ -16164,10 +16164,10 @@
       </c>
       <c r="L75" s="14"/>
       <c r="M75" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N75" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O75" s="17"/>
       <c r="P75" s="17"/>
@@ -16192,7 +16192,7 @@
         <v>464</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E76" s="29" t="s">
         <v>76</v>
@@ -16216,10 +16216,10 @@
       </c>
       <c r="L76" s="14"/>
       <c r="M76" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N76" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O76" s="17"/>
       <c r="P76" s="17"/>
@@ -16244,7 +16244,7 @@
         <v>464</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E77" s="29" t="s">
         <v>76</v>
@@ -16268,10 +16268,10 @@
       </c>
       <c r="L77" s="24"/>
       <c r="M77" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N77" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O77" s="17"/>
       <c r="P77" s="17"/>
@@ -16296,7 +16296,7 @@
         <v>464</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E78" s="29" t="s">
         <v>76</v>
@@ -16320,10 +16320,10 @@
       </c>
       <c r="L78" s="24"/>
       <c r="M78" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N78" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O78" s="17"/>
       <c r="P78" s="17"/>
@@ -16348,7 +16348,7 @@
         <v>464</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E79" s="29" t="s">
         <v>76</v>
@@ -16372,10 +16372,10 @@
       </c>
       <c r="L79" s="24"/>
       <c r="M79" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N79" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O79" s="17"/>
       <c r="P79" s="17"/>
@@ -16400,7 +16400,7 @@
         <v>464</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E80" s="29" t="s">
         <v>76</v>
@@ -16424,10 +16424,10 @@
       </c>
       <c r="L80" s="24"/>
       <c r="M80" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N80" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O80" s="17"/>
       <c r="P80" s="17"/>
@@ -16452,7 +16452,7 @@
         <v>464</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E81" s="29" t="s">
         <v>109</v>
@@ -16476,10 +16476,10 @@
       </c>
       <c r="L81" s="24"/>
       <c r="M81" s="27" t="s">
-        <v>303</v>
+        <v>111</v>
       </c>
       <c r="N81" s="27" t="s">
-        <v>303</v>
+        <v>112</v>
       </c>
       <c r="O81" s="27"/>
       <c r="P81" s="27"/>
@@ -16504,7 +16504,7 @@
         <v>464</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E82" s="29" t="s">
         <v>109</v>
@@ -16528,10 +16528,10 @@
       </c>
       <c r="L82" s="24"/>
       <c r="M82" s="27" t="s">
-        <v>308</v>
+        <v>111</v>
       </c>
       <c r="N82" s="27" t="s">
-        <v>308</v>
+        <v>112</v>
       </c>
       <c r="O82" s="27"/>
       <c r="P82" s="27"/>
@@ -16566,7 +16566,7 @@
         <v>$(PREFIX_MOD03)StateIdx-Mon</v>
       </c>
       <c r="G83" s="24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H83" s="24" t="s">
         <v>43</v>

--- a/etc/Delta_v2.xlsx
+++ b/etc/Delta_v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2526" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="586">
   <si>
     <t xml:space="preserve">Nº</t>
   </si>
@@ -718,42 +718,6 @@
     <t xml:space="preserve">CSE1_PHY.TorqueReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Filtered torque reference CID mod 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIDFiltTorqueRef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CID1_PHY.TorqueReferenceFiltered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtered torque reference CIE mod 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIEFiltTorqueRef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIE1_PHY.TorqueReferenceFiltered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtered torque reference CSD mod 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSDFiltTorqueRef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSD1_PHY.TorqueReferenceFiltered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtered torque reference CSE mod 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSEFiltTorqueRef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE1_PHY.TorqueReferenceFiltered</t>
-  </si>
-  <si>
     <t xml:space="preserve">Positive kill switch sts CID mod 01</t>
   </si>
   <si>
@@ -1276,30 +1240,6 @@
     <t xml:space="preserve">CSE2_PHY.TorqueReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Filtered torque reference CID mod 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CID2_PHY.TorqueReferenceFiltered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtered torque reference CIE mod 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIE2_PHY.TorqueReferenceFiltered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtered torque reference CSD mod 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSD2_PHY.TorqueReferenceFiltered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtered torque reference CSE mod 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE2_PHY.TorqueReferenceFiltered</t>
-  </si>
-  <si>
     <t xml:space="preserve">Positive limit switch sts CID mod 02</t>
   </si>
   <si>
@@ -1727,30 +1667,6 @@
   </si>
   <si>
     <t xml:space="preserve">CSE3_PHY.TorqueReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtered torque reference CID mod 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CID3_PHY.TorqueReferenceFiltered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtered torque reference CIE mod 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIE3_PHY.TorqueReferenceFiltered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtered torque reference CSD mod 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSD3_PHY.TorqueReferenceFiltered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtered torque reference CSE mod 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSE3_PHY.TorqueReferenceFiltered</t>
   </si>
   <si>
     <t xml:space="preserve">Positive limit switch sts CID mod 03</t>
@@ -2743,8 +2659,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:Y83" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:Y83"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:Y79" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:Y79"/>
   <tableColumns count="25">
     <tableColumn id="1" name="Nº"/>
     <tableColumn id="2" name="Description"/>
@@ -2776,8 +2692,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:Y83" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:Y83"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:Y79" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:Y79"/>
   <tableColumns count="25">
     <tableColumn id="1" name="Nº"/>
     <tableColumn id="2" name="Description"/>
@@ -2809,8 +2725,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela25" displayName="Tabela25" ref="A1:Y83" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:Y83"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela25" displayName="Tabela25" ref="A1:Y79" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:Y79"/>
   <tableColumns count="25">
     <tableColumn id="1" name="Nº"/>
     <tableColumn id="2" name="Description"/>
@@ -3133,10 +3049,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y83"/>
+  <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F56" activeCellId="0" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5652,7 +5568,7 @@
       <c r="X46" s="17"/>
       <c r="Y46" s="17"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="n">
         <v>46</v>
       </c>
@@ -5704,7 +5620,7 @@
       <c r="X47" s="17"/>
       <c r="Y47" s="17"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="n">
         <v>47</v>
       </c>
@@ -5756,7 +5672,7 @@
       <c r="X48" s="17"/>
       <c r="Y48" s="17"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="n">
         <v>48</v>
       </c>
@@ -5808,7 +5724,7 @@
       <c r="X49" s="17"/>
       <c r="Y49" s="17"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="n">
         <v>49</v>
       </c>
@@ -5860,7 +5776,7 @@
       <c r="X50" s="17"/>
       <c r="Y50" s="17"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="n">
         <v>50</v>
       </c>
@@ -5912,7 +5828,7 @@
       <c r="X51" s="17"/>
       <c r="Y51" s="17"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="n">
         <v>51</v>
       </c>
@@ -5964,7 +5880,7 @@
       <c r="X52" s="17"/>
       <c r="Y52" s="17"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="n">
         <v>52</v>
       </c>
@@ -6016,7 +5932,7 @@
       <c r="X53" s="17"/>
       <c r="Y53" s="17"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="n">
         <v>53</v>
       </c>
@@ -6068,7 +5984,7 @@
       <c r="X54" s="17"/>
       <c r="Y54" s="17"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="n">
         <v>54</v>
       </c>
@@ -6120,7 +6036,7 @@
       <c r="X55" s="17"/>
       <c r="Y55" s="17"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="n">
         <v>55</v>
       </c>
@@ -6172,7 +6088,7 @@
       <c r="X56" s="17"/>
       <c r="Y56" s="17"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="n">
         <v>56</v>
       </c>
@@ -6182,7 +6098,7 @@
       <c r="C57" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="21" t="s">
         <v>232</v>
       </c>
       <c r="E57" s="12" t="s">
@@ -6190,41 +6106,41 @@
       </c>
       <c r="F57" s="13" t="str">
         <f aca="false">C57&amp;D57&amp;E57</f>
-        <v>$(PREFIX_MOD01)CIDFiltTorqueRef-Mon</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>121</v>
+        <v>$(PREFIX_MOD01)CIDPosKillSw-Mon</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="H57" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I57" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="J57" s="14" t="s">
+      <c r="I57" s="24"/>
+      <c r="J57" s="24" t="s">
         <v>233</v>
       </c>
       <c r="K57" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L57" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
-      <c r="R57" s="17"/>
-      <c r="S57" s="17"/>
-      <c r="T57" s="17"/>
-      <c r="U57" s="17"/>
-      <c r="V57" s="17"/>
-      <c r="W57" s="17"/>
-      <c r="X57" s="17"/>
-      <c r="Y57" s="17"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L57" s="24"/>
+      <c r="M57" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N57" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O57" s="27"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="27"/>
+      <c r="T57" s="27"/>
+      <c r="U57" s="27"/>
+      <c r="V57" s="27"/>
+      <c r="W57" s="27"/>
+      <c r="X57" s="27"/>
+      <c r="Y57" s="27"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="n">
         <v>57</v>
       </c>
@@ -6234,7 +6150,7 @@
       <c r="C58" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="21" t="s">
         <v>235</v>
       </c>
       <c r="E58" s="12" t="s">
@@ -6242,41 +6158,41 @@
       </c>
       <c r="F58" s="13" t="str">
         <f aca="false">C58&amp;D58&amp;E58</f>
-        <v>$(PREFIX_MOD01)CIEFiltTorqueRef-Mon</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>121</v>
+        <v>$(PREFIX_MOD01)CIEPosKillSw-Mon</v>
+      </c>
+      <c r="G58" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="H58" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I58" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="J58" s="14" t="s">
+      <c r="I58" s="24"/>
+      <c r="J58" s="24" t="s">
         <v>236</v>
       </c>
       <c r="K58" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L58" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="17"/>
-      <c r="T58" s="17"/>
-      <c r="U58" s="17"/>
-      <c r="V58" s="17"/>
-      <c r="W58" s="17"/>
-      <c r="X58" s="17"/>
-      <c r="Y58" s="17"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L58" s="24"/>
+      <c r="M58" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N58" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O58" s="27"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="27"/>
+      <c r="T58" s="27"/>
+      <c r="U58" s="27"/>
+      <c r="V58" s="27"/>
+      <c r="W58" s="27"/>
+      <c r="X58" s="27"/>
+      <c r="Y58" s="27"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="n">
         <v>58</v>
       </c>
@@ -6286,7 +6202,7 @@
       <c r="C59" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="21" t="s">
         <v>238</v>
       </c>
       <c r="E59" s="12" t="s">
@@ -6294,41 +6210,41 @@
       </c>
       <c r="F59" s="13" t="str">
         <f aca="false">C59&amp;D59&amp;E59</f>
-        <v>$(PREFIX_MOD01)CSDFiltTorqueRef-Mon</v>
-      </c>
-      <c r="G59" s="14" t="s">
-        <v>121</v>
+        <v>$(PREFIX_MOD01)CSDPosKillSw-Mon</v>
+      </c>
+      <c r="G59" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="H59" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I59" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="J59" s="14" t="s">
+      <c r="I59" s="24"/>
+      <c r="J59" s="24" t="s">
         <v>239</v>
       </c>
       <c r="K59" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L59" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
-      <c r="R59" s="17"/>
-      <c r="S59" s="17"/>
-      <c r="T59" s="17"/>
-      <c r="U59" s="17"/>
-      <c r="V59" s="17"/>
-      <c r="W59" s="17"/>
-      <c r="X59" s="17"/>
-      <c r="Y59" s="17"/>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L59" s="24"/>
+      <c r="M59" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N59" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O59" s="27"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="27"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="27"/>
+      <c r="T59" s="27"/>
+      <c r="U59" s="27"/>
+      <c r="V59" s="27"/>
+      <c r="W59" s="27"/>
+      <c r="X59" s="27"/>
+      <c r="Y59" s="27"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="n">
         <v>59</v>
       </c>
@@ -6338,7 +6254,7 @@
       <c r="C60" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="21" t="s">
         <v>241</v>
       </c>
       <c r="E60" s="12" t="s">
@@ -6346,41 +6262,41 @@
       </c>
       <c r="F60" s="13" t="str">
         <f aca="false">C60&amp;D60&amp;E60</f>
-        <v>$(PREFIX_MOD01)CSEFiltTorqueRef-Mon</v>
-      </c>
-      <c r="G60" s="14" t="s">
-        <v>121</v>
+        <v>$(PREFIX_MOD01)CSEPosKillSw-Mon</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="H60" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I60" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="J60" s="14" t="s">
+      <c r="I60" s="24"/>
+      <c r="J60" s="24" t="s">
         <v>242</v>
       </c>
       <c r="K60" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L60" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
-      <c r="R60" s="17"/>
-      <c r="S60" s="17"/>
-      <c r="T60" s="17"/>
-      <c r="U60" s="17"/>
-      <c r="V60" s="17"/>
-      <c r="W60" s="17"/>
-      <c r="X60" s="17"/>
-      <c r="Y60" s="17"/>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L60" s="24"/>
+      <c r="M60" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N60" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O60" s="27"/>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="27"/>
+      <c r="R60" s="27"/>
+      <c r="S60" s="27"/>
+      <c r="T60" s="27"/>
+      <c r="U60" s="27"/>
+      <c r="V60" s="27"/>
+      <c r="W60" s="27"/>
+      <c r="X60" s="27"/>
+      <c r="Y60" s="27"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="n">
         <v>60</v>
       </c>
@@ -6398,7 +6314,7 @@
       </c>
       <c r="F61" s="13" t="str">
         <f aca="false">C61&amp;D61&amp;E61</f>
-        <v>$(PREFIX_MOD01)CIDPosKillSw-Mon</v>
+        <v>$(PREFIX_MOD01)CIDNegKillSw-Mon</v>
       </c>
       <c r="G61" s="24" t="s">
         <v>71</v>
@@ -6432,7 +6348,7 @@
       <c r="X61" s="27"/>
       <c r="Y61" s="27"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="n">
         <v>61</v>
       </c>
@@ -6450,7 +6366,7 @@
       </c>
       <c r="F62" s="13" t="str">
         <f aca="false">C62&amp;D62&amp;E62</f>
-        <v>$(PREFIX_MOD01)CIEPosKillSw-Mon</v>
+        <v>$(PREFIX_MOD01)CIENegKillSw-Mon</v>
       </c>
       <c r="G62" s="24" t="s">
         <v>71</v>
@@ -6484,7 +6400,7 @@
       <c r="X62" s="27"/>
       <c r="Y62" s="27"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="n">
         <v>62</v>
       </c>
@@ -6502,7 +6418,7 @@
       </c>
       <c r="F63" s="13" t="str">
         <f aca="false">C63&amp;D63&amp;E63</f>
-        <v>$(PREFIX_MOD01)CSDPosKillSw-Mon</v>
+        <v>$(PREFIX_MOD01)CSDNegKillSw-Mon</v>
       </c>
       <c r="G63" s="24" t="s">
         <v>71</v>
@@ -6536,7 +6452,7 @@
       <c r="X63" s="27"/>
       <c r="Y63" s="27"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="n">
         <v>63</v>
       </c>
@@ -6554,7 +6470,7 @@
       </c>
       <c r="F64" s="13" t="str">
         <f aca="false">C64&amp;D64&amp;E64</f>
-        <v>$(PREFIX_MOD01)CSEPosKillSw-Mon</v>
+        <v>$(PREFIX_MOD01)CSENegKillSw-Mon</v>
       </c>
       <c r="G64" s="24" t="s">
         <v>71</v>
@@ -6588,7 +6504,7 @@
       <c r="X64" s="27"/>
       <c r="Y64" s="27"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="n">
         <v>64</v>
       </c>
@@ -6606,7 +6522,7 @@
       </c>
       <c r="F65" s="13" t="str">
         <f aca="false">C65&amp;D65&amp;E65</f>
-        <v>$(PREFIX_MOD01)CIDNegKillSw-Mon</v>
+        <v>$(PREFIX_MOD01)CIDPosLimSw-Mon</v>
       </c>
       <c r="G65" s="24" t="s">
         <v>71</v>
@@ -6640,7 +6556,7 @@
       <c r="X65" s="27"/>
       <c r="Y65" s="27"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="n">
         <v>65</v>
       </c>
@@ -6656,9 +6572,9 @@
       <c r="E66" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F66" s="13" t="str">
+      <c r="F66" s="23" t="str">
         <f aca="false">C66&amp;D66&amp;E66</f>
-        <v>$(PREFIX_MOD01)CIENegKillSw-Mon</v>
+        <v>$(PREFIX_MOD01)CIEPosLimSw-Mon</v>
       </c>
       <c r="G66" s="24" t="s">
         <v>71</v>
@@ -6692,7 +6608,7 @@
       <c r="X66" s="27"/>
       <c r="Y66" s="27"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="n">
         <v>66</v>
       </c>
@@ -6708,9 +6624,9 @@
       <c r="E67" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F67" s="13" t="str">
+      <c r="F67" s="23" t="str">
         <f aca="false">C67&amp;D67&amp;E67</f>
-        <v>$(PREFIX_MOD01)CSDNegKillSw-Mon</v>
+        <v>$(PREFIX_MOD01)CSDPosLimSw-Mon</v>
       </c>
       <c r="G67" s="24" t="s">
         <v>71</v>
@@ -6744,7 +6660,7 @@
       <c r="X67" s="27"/>
       <c r="Y67" s="27"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="8" t="n">
         <v>67</v>
       </c>
@@ -6760,9 +6676,9 @@
       <c r="E68" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F68" s="13" t="str">
+      <c r="F68" s="23" t="str">
         <f aca="false">C68&amp;D68&amp;E68</f>
-        <v>$(PREFIX_MOD01)CSENegKillSw-Mon</v>
+        <v>$(PREFIX_MOD01)CSEPosLimSw-Mon</v>
       </c>
       <c r="G68" s="24" t="s">
         <v>71</v>
@@ -6796,7 +6712,7 @@
       <c r="X68" s="27"/>
       <c r="Y68" s="27"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="8" t="n">
         <v>68</v>
       </c>
@@ -6812,9 +6728,9 @@
       <c r="E69" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F69" s="13" t="str">
+      <c r="F69" s="23" t="str">
         <f aca="false">C69&amp;D69&amp;E69</f>
-        <v>$(PREFIX_MOD01)CIDPosLimSw-Mon</v>
+        <v>$(PREFIX_MOD01)CIDNegLimSw-Mon</v>
       </c>
       <c r="G69" s="24" t="s">
         <v>71</v>
@@ -6848,7 +6764,7 @@
       <c r="X69" s="27"/>
       <c r="Y69" s="27"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="n">
         <v>69</v>
       </c>
@@ -6864,9 +6780,9 @@
       <c r="E70" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F70" s="23" t="str">
+      <c r="F70" s="13" t="str">
         <f aca="false">C70&amp;D70&amp;E70</f>
-        <v>$(PREFIX_MOD01)CIEPosLimSw-Mon</v>
+        <v>$(PREFIX_MOD01)CIENegLimSw-Mon</v>
       </c>
       <c r="G70" s="24" t="s">
         <v>71</v>
@@ -6874,33 +6790,33 @@
       <c r="H70" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I70" s="24"/>
+      <c r="I70" s="14"/>
       <c r="J70" s="24" t="s">
         <v>272</v>
       </c>
       <c r="K70" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L70" s="24"/>
+      <c r="L70" s="14"/>
       <c r="M70" s="27" t="s">
         <v>116</v>
       </c>
       <c r="N70" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="O70" s="27"/>
-      <c r="P70" s="27"/>
-      <c r="Q70" s="27"/>
-      <c r="R70" s="27"/>
-      <c r="S70" s="27"/>
-      <c r="T70" s="27"/>
-      <c r="U70" s="27"/>
-      <c r="V70" s="27"/>
-      <c r="W70" s="27"/>
-      <c r="X70" s="27"/>
-      <c r="Y70" s="27"/>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
+      <c r="R70" s="17"/>
+      <c r="S70" s="17"/>
+      <c r="T70" s="17"/>
+      <c r="U70" s="17"/>
+      <c r="V70" s="17"/>
+      <c r="W70" s="17"/>
+      <c r="X70" s="17"/>
+      <c r="Y70" s="17"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="n">
         <v>70</v>
       </c>
@@ -6916,9 +6832,9 @@
       <c r="E71" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F71" s="23" t="str">
+      <c r="F71" s="13" t="str">
         <f aca="false">C71&amp;D71&amp;E71</f>
-        <v>$(PREFIX_MOD01)CSDPosLimSw-Mon</v>
+        <v>$(PREFIX_MOD01)CSDNegLimSw-Mon</v>
       </c>
       <c r="G71" s="24" t="s">
         <v>71</v>
@@ -6926,33 +6842,33 @@
       <c r="H71" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I71" s="24"/>
+      <c r="I71" s="14"/>
       <c r="J71" s="24" t="s">
         <v>275</v>
       </c>
       <c r="K71" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L71" s="24"/>
+      <c r="L71" s="14"/>
       <c r="M71" s="27" t="s">
         <v>116</v>
       </c>
       <c r="N71" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="O71" s="27"/>
-      <c r="P71" s="27"/>
-      <c r="Q71" s="27"/>
-      <c r="R71" s="27"/>
-      <c r="S71" s="27"/>
-      <c r="T71" s="27"/>
-      <c r="U71" s="27"/>
-      <c r="V71" s="27"/>
-      <c r="W71" s="27"/>
-      <c r="X71" s="27"/>
-      <c r="Y71" s="27"/>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
+      <c r="R71" s="17"/>
+      <c r="S71" s="17"/>
+      <c r="T71" s="17"/>
+      <c r="U71" s="17"/>
+      <c r="V71" s="17"/>
+      <c r="W71" s="17"/>
+      <c r="X71" s="17"/>
+      <c r="Y71" s="17"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="8" t="n">
         <v>71</v>
       </c>
@@ -6968,9 +6884,9 @@
       <c r="E72" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F72" s="23" t="str">
+      <c r="F72" s="13" t="str">
         <f aca="false">C72&amp;D72&amp;E72</f>
-        <v>$(PREFIX_MOD01)CSEPosLimSw-Mon</v>
+        <v>$(PREFIX_MOD01)CSENegLimSw-Mon</v>
       </c>
       <c r="G72" s="24" t="s">
         <v>71</v>
@@ -6978,37 +6894,37 @@
       <c r="H72" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I72" s="24"/>
+      <c r="I72" s="14"/>
       <c r="J72" s="24" t="s">
         <v>278</v>
       </c>
       <c r="K72" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L72" s="24"/>
+      <c r="L72" s="14"/>
       <c r="M72" s="27" t="s">
         <v>116</v>
       </c>
       <c r="N72" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="O72" s="27"/>
-      <c r="P72" s="27"/>
-      <c r="Q72" s="27"/>
-      <c r="R72" s="27"/>
-      <c r="S72" s="27"/>
-      <c r="T72" s="27"/>
-      <c r="U72" s="27"/>
-      <c r="V72" s="27"/>
-      <c r="W72" s="27"/>
-      <c r="X72" s="27"/>
-      <c r="Y72" s="27"/>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
+      <c r="R72" s="17"/>
+      <c r="S72" s="17"/>
+      <c r="T72" s="17"/>
+      <c r="U72" s="17"/>
+      <c r="V72" s="17"/>
+      <c r="W72" s="17"/>
+      <c r="X72" s="17"/>
+      <c r="Y72" s="17"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="19" t="s">
         <v>279</v>
       </c>
       <c r="C73" s="10" t="s">
@@ -7022,7 +6938,7 @@
       </c>
       <c r="F73" s="23" t="str">
         <f aca="false">C73&amp;D73&amp;E73</f>
-        <v>$(PREFIX_MOD01)CIDNegLimSw-Mon</v>
+        <v>$(PREFIX_MOD01)CIDEnbl-Mon</v>
       </c>
       <c r="G73" s="24" t="s">
         <v>71</v>
@@ -7056,11 +6972,11 @@
       <c r="X73" s="27"/>
       <c r="Y73" s="27"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="19" t="s">
         <v>282</v>
       </c>
       <c r="C74" s="10" t="s">
@@ -7072,9 +6988,9 @@
       <c r="E74" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F74" s="13" t="str">
+      <c r="F74" s="23" t="str">
         <f aca="false">C74&amp;D74&amp;E74</f>
-        <v>$(PREFIX_MOD01)CIENegLimSw-Mon</v>
+        <v>$(PREFIX_MOD01)CIEEnbl-Mon</v>
       </c>
       <c r="G74" s="24" t="s">
         <v>71</v>
@@ -7082,37 +6998,37 @@
       <c r="H74" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I74" s="14"/>
+      <c r="I74" s="24"/>
       <c r="J74" s="24" t="s">
         <v>284</v>
       </c>
       <c r="K74" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L74" s="14"/>
+      <c r="L74" s="24"/>
       <c r="M74" s="27" t="s">
         <v>116</v>
       </c>
       <c r="N74" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
-      <c r="R74" s="17"/>
-      <c r="S74" s="17"/>
-      <c r="T74" s="17"/>
-      <c r="U74" s="17"/>
-      <c r="V74" s="17"/>
-      <c r="W74" s="17"/>
-      <c r="X74" s="17"/>
-      <c r="Y74" s="17"/>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O74" s="27"/>
+      <c r="P74" s="27"/>
+      <c r="Q74" s="27"/>
+      <c r="R74" s="27"/>
+      <c r="S74" s="27"/>
+      <c r="T74" s="27"/>
+      <c r="U74" s="27"/>
+      <c r="V74" s="27"/>
+      <c r="W74" s="27"/>
+      <c r="X74" s="27"/>
+      <c r="Y74" s="27"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="n">
         <v>74</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="19" t="s">
         <v>285</v>
       </c>
       <c r="C75" s="10" t="s">
@@ -7124,9 +7040,9 @@
       <c r="E75" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F75" s="13" t="str">
+      <c r="F75" s="23" t="str">
         <f aca="false">C75&amp;D75&amp;E75</f>
-        <v>$(PREFIX_MOD01)CSDNegLimSw-Mon</v>
+        <v>$(PREFIX_MOD01)CSDEnbl-Mon</v>
       </c>
       <c r="G75" s="24" t="s">
         <v>71</v>
@@ -7134,37 +7050,37 @@
       <c r="H75" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I75" s="14"/>
+      <c r="I75" s="24"/>
       <c r="J75" s="24" t="s">
         <v>287</v>
       </c>
       <c r="K75" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L75" s="14"/>
+      <c r="L75" s="24"/>
       <c r="M75" s="27" t="s">
         <v>116</v>
       </c>
       <c r="N75" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
-      <c r="R75" s="17"/>
-      <c r="S75" s="17"/>
-      <c r="T75" s="17"/>
-      <c r="U75" s="17"/>
-      <c r="V75" s="17"/>
-      <c r="W75" s="17"/>
-      <c r="X75" s="17"/>
-      <c r="Y75" s="17"/>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O75" s="27"/>
+      <c r="P75" s="27"/>
+      <c r="Q75" s="27"/>
+      <c r="R75" s="27"/>
+      <c r="S75" s="27"/>
+      <c r="T75" s="27"/>
+      <c r="U75" s="27"/>
+      <c r="V75" s="27"/>
+      <c r="W75" s="27"/>
+      <c r="X75" s="27"/>
+      <c r="Y75" s="27"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="8" t="n">
         <v>75</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="19" t="s">
         <v>288</v>
       </c>
       <c r="C76" s="10" t="s">
@@ -7176,9 +7092,9 @@
       <c r="E76" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F76" s="13" t="str">
+      <c r="F76" s="23" t="str">
         <f aca="false">C76&amp;D76&amp;E76</f>
-        <v>$(PREFIX_MOD01)CSENegLimSw-Mon</v>
+        <v>$(PREFIX_MOD01)CSEEnbl-Mon</v>
       </c>
       <c r="G76" s="24" t="s">
         <v>71</v>
@@ -7186,33 +7102,33 @@
       <c r="H76" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I76" s="14"/>
+      <c r="I76" s="24"/>
       <c r="J76" s="24" t="s">
         <v>290</v>
       </c>
       <c r="K76" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L76" s="14"/>
+      <c r="L76" s="24"/>
       <c r="M76" s="27" t="s">
         <v>116</v>
       </c>
       <c r="N76" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
-      <c r="R76" s="17"/>
-      <c r="S76" s="17"/>
-      <c r="T76" s="17"/>
-      <c r="U76" s="17"/>
-      <c r="V76" s="17"/>
-      <c r="W76" s="17"/>
-      <c r="X76" s="17"/>
-      <c r="Y76" s="17"/>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O76" s="27"/>
+      <c r="P76" s="27"/>
+      <c r="Q76" s="27"/>
+      <c r="R76" s="27"/>
+      <c r="S76" s="27"/>
+      <c r="T76" s="27"/>
+      <c r="U76" s="27"/>
+      <c r="V76" s="27"/>
+      <c r="W76" s="27"/>
+      <c r="X76" s="27"/>
+      <c r="Y76" s="27"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="n">
         <v>76</v>
       </c>
@@ -7225,18 +7141,18 @@
       <c r="D77" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="E77" s="12" t="s">
-        <v>76</v>
+      <c r="E77" s="29" t="s">
+        <v>109</v>
       </c>
       <c r="F77" s="23" t="str">
         <f aca="false">C77&amp;D77&amp;E77</f>
-        <v>$(PREFIX_MOD01)CIDEnbl-Mon</v>
+        <v>$(PREFIX_MOD01)Stop-Cmd</v>
       </c>
       <c r="G77" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I77" s="24"/>
       <c r="J77" s="24" t="s">
@@ -7247,10 +7163,10 @@
       </c>
       <c r="L77" s="24"/>
       <c r="M77" s="27" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N77" s="27" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="O77" s="27"/>
       <c r="P77" s="27"/>
@@ -7264,7 +7180,7 @@
       <c r="X77" s="27"/>
       <c r="Y77" s="27"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="8" t="n">
         <v>77</v>
       </c>
@@ -7277,18 +7193,18 @@
       <c r="D78" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="E78" s="12" t="s">
-        <v>76</v>
+      <c r="E78" s="29" t="s">
+        <v>109</v>
       </c>
       <c r="F78" s="23" t="str">
         <f aca="false">C78&amp;D78&amp;E78</f>
-        <v>$(PREFIX_MOD01)CIEEnbl-Mon</v>
+        <v>$(PREFIX_MOD01)Rst-Cmd</v>
       </c>
       <c r="G78" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I78" s="24"/>
       <c r="J78" s="24" t="s">
@@ -7299,10 +7215,10 @@
       </c>
       <c r="L78" s="24"/>
       <c r="M78" s="27" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N78" s="27" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="O78" s="27"/>
       <c r="P78" s="27"/>
@@ -7316,7 +7232,7 @@
       <c r="X78" s="27"/>
       <c r="Y78" s="27"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="8" t="n">
         <v>78</v>
       </c>
@@ -7329,17 +7245,17 @@
       <c r="D79" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="E79" s="12" t="s">
+      <c r="E79" s="30" t="s">
         <v>76</v>
       </c>
       <c r="F79" s="23" t="str">
         <f aca="false">C79&amp;D79&amp;E79</f>
-        <v>$(PREFIX_MOD01)CSDEnbl-Mon</v>
+        <v>$(PREFIX_MOD01)StateIdx-Mon</v>
       </c>
       <c r="G79" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H79" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H79" s="24" t="s">
         <v>43</v>
       </c>
       <c r="I79" s="24"/>
@@ -7350,12 +7266,8 @@
         <v>32</v>
       </c>
       <c r="L79" s="24"/>
-      <c r="M79" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="N79" s="27" t="s">
-        <v>117</v>
-      </c>
+      <c r="M79" s="27"/>
+      <c r="N79" s="27"/>
       <c r="O79" s="27"/>
       <c r="P79" s="27"/>
       <c r="Q79" s="27"/>
@@ -7368,210 +7280,10 @@
       <c r="X79" s="27"/>
       <c r="Y79" s="27"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D80" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F80" s="23" t="str">
-        <f aca="false">C80&amp;D80&amp;E80</f>
-        <v>$(PREFIX_MOD01)CSEEnbl-Mon</v>
-      </c>
-      <c r="G80" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H80" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="K80" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L80" s="24"/>
-      <c r="M80" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="N80" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="O80" s="27"/>
-      <c r="P80" s="27"/>
-      <c r="Q80" s="27"/>
-      <c r="R80" s="27"/>
-      <c r="S80" s="27"/>
-      <c r="T80" s="27"/>
-      <c r="U80" s="27"/>
-      <c r="V80" s="27"/>
-      <c r="W80" s="27"/>
-      <c r="X80" s="27"/>
-      <c r="Y80" s="27"/>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="E81" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="F81" s="23" t="str">
-        <f aca="false">C81&amp;D81&amp;E81</f>
-        <v>$(PREFIX_MOD01)Stop-Cmd</v>
-      </c>
-      <c r="G81" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H81" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I81" s="24"/>
-      <c r="J81" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="K81" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L81" s="24"/>
-      <c r="M81" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="N81" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="O81" s="27"/>
-      <c r="P81" s="27"/>
-      <c r="Q81" s="27"/>
-      <c r="R81" s="27"/>
-      <c r="S81" s="27"/>
-      <c r="T81" s="27"/>
-      <c r="U81" s="27"/>
-      <c r="V81" s="27"/>
-      <c r="W81" s="27"/>
-      <c r="X81" s="27"/>
-      <c r="Y81" s="27"/>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8" t="n">
-        <v>81</v>
-      </c>
-      <c r="B82" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D82" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="E82" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="F82" s="23" t="str">
-        <f aca="false">C82&amp;D82&amp;E82</f>
-        <v>$(PREFIX_MOD01)Rst-Cmd</v>
-      </c>
-      <c r="G82" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H82" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="K82" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L82" s="24"/>
-      <c r="M82" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="N82" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="O82" s="27"/>
-      <c r="P82" s="27"/>
-      <c r="Q82" s="27"/>
-      <c r="R82" s="27"/>
-      <c r="S82" s="27"/>
-      <c r="T82" s="27"/>
-      <c r="U82" s="27"/>
-      <c r="V82" s="27"/>
-      <c r="W82" s="27"/>
-      <c r="X82" s="27"/>
-      <c r="Y82" s="27"/>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="8" t="n">
-        <v>82</v>
-      </c>
-      <c r="B83" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D83" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="E83" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F83" s="23" t="str">
-        <f aca="false">C83&amp;D83&amp;E83</f>
-        <v>$(PREFIX_MOD01)StateIdx-Mon</v>
-      </c>
-      <c r="G83" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="H83" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="K83" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L83" s="24"/>
-      <c r="M83" s="27"/>
-      <c r="N83" s="27"/>
-      <c r="O83" s="27"/>
-      <c r="P83" s="27"/>
-      <c r="Q83" s="27"/>
-      <c r="R83" s="27"/>
-      <c r="S83" s="27"/>
-      <c r="T83" s="27"/>
-      <c r="U83" s="27"/>
-      <c r="V83" s="27"/>
-      <c r="W83" s="27"/>
-      <c r="X83" s="27"/>
-      <c r="Y83" s="27"/>
-    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="B19:B32">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -7649,7 +7361,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E1:E83" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E1:E79" type="list">
       <formula1>"-Mon,-Sel,-Sts,-SP,-RB,-Cmd"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7672,10 +7384,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y83"/>
+  <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E53" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N83" activeCellId="0" sqref="N83"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B81" activeCellId="0" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7777,10 +7489,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>46</v>
@@ -7800,7 +7512,7 @@
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="14" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>32</v>
@@ -7847,10 +7559,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>59</v>
@@ -7870,7 +7582,7 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="14" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>32</v>
@@ -7903,10 +7615,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>65</v>
@@ -7926,7 +7638,7 @@
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="14" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>32</v>
@@ -7957,10 +7669,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>70</v>
@@ -7980,7 +7692,7 @@
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="14" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>32</v>
@@ -8011,10 +7723,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>75</v>
@@ -8034,7 +7746,7 @@
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="14" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>32</v>
@@ -8065,10 +7777,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>81</v>
@@ -8088,7 +7800,7 @@
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="14" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>32</v>
@@ -8119,10 +7831,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>84</v>
@@ -8142,7 +7854,7 @@
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="14" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>32</v>
@@ -8173,10 +7885,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>89</v>
@@ -8196,7 +7908,7 @@
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="14" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>32</v>
@@ -8229,10 +7941,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>93</v>
@@ -8252,7 +7964,7 @@
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="14" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>32</v>
@@ -8285,10 +7997,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>96</v>
@@ -8308,7 +8020,7 @@
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="14" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>32</v>
@@ -8341,10 +8053,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>99</v>
@@ -8364,7 +8076,7 @@
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="14" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>32</v>
@@ -8397,10 +8109,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>46</v>
@@ -8420,7 +8132,7 @@
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="14" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="K13" s="16" t="s">
         <v>32</v>
@@ -8467,10 +8179,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>59</v>
@@ -8490,7 +8202,7 @@
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="14" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>32</v>
@@ -8523,10 +8235,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>65</v>
@@ -8546,7 +8258,7 @@
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="14" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="K15" s="16" t="s">
         <v>32</v>
@@ -8577,10 +8289,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>70</v>
@@ -8600,7 +8312,7 @@
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="14" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="K16" s="16" t="s">
         <v>32</v>
@@ -8631,10 +8343,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>81</v>
@@ -8654,7 +8366,7 @@
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="14" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="K17" s="16" t="s">
         <v>32</v>
@@ -8685,10 +8397,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>114</v>
@@ -8708,7 +8420,7 @@
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="14" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="K18" s="16" t="s">
         <v>32</v>
@@ -8739,10 +8451,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>119</v>
@@ -8764,7 +8476,7 @@
         <v>122</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>32</v>
@@ -8791,10 +8503,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>119</v>
@@ -8816,7 +8528,7 @@
         <v>122</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>32</v>
@@ -8843,10 +8555,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>127</v>
@@ -8868,7 +8580,7 @@
         <v>128</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>32</v>
@@ -8895,10 +8607,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>127</v>
@@ -8920,7 +8632,7 @@
         <v>128</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="K22" s="16" t="s">
         <v>32</v>
@@ -8947,10 +8659,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>132</v>
@@ -8972,7 +8684,7 @@
         <v>133</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="K23" s="16" t="s">
         <v>32</v>
@@ -8999,10 +8711,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>132</v>
@@ -9024,7 +8736,7 @@
         <v>133</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="K24" s="16" t="s">
         <v>32</v>
@@ -9051,10 +8763,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>137</v>
@@ -9076,7 +8788,7 @@
         <v>138</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="K25" s="16" t="s">
         <v>32</v>
@@ -9103,10 +8815,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>137</v>
@@ -9128,7 +8840,7 @@
         <v>138</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="K26" s="16" t="s">
         <v>32</v>
@@ -9155,10 +8867,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>142</v>
@@ -9180,7 +8892,7 @@
         <v>138</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="K27" s="16" t="s">
         <v>32</v>
@@ -9207,10 +8919,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>142</v>
@@ -9232,7 +8944,7 @@
         <v>138</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="K28" s="16" t="s">
         <v>32</v>
@@ -9259,10 +8971,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>146</v>
@@ -9284,7 +8996,7 @@
         <v>122</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="K29" s="16" t="s">
         <v>32</v>
@@ -9311,10 +9023,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>149</v>
@@ -9336,7 +9048,7 @@
         <v>122</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="K30" s="16" t="s">
         <v>32</v>
@@ -9363,10 +9075,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>152</v>
@@ -9388,7 +9100,7 @@
         <v>122</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="K31" s="16" t="s">
         <v>32</v>
@@ -9415,10 +9127,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>155</v>
@@ -9440,7 +9152,7 @@
         <v>122</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="K32" s="16" t="s">
         <v>32</v>
@@ -9467,10 +9179,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>158</v>
@@ -9492,7 +9204,7 @@
         <v>128</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="K33" s="16" t="s">
         <v>32</v>
@@ -9519,10 +9231,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>161</v>
@@ -9544,7 +9256,7 @@
         <v>128</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="K34" s="16" t="s">
         <v>32</v>
@@ -9571,10 +9283,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>164</v>
@@ -9596,7 +9308,7 @@
         <v>128</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="K35" s="16" t="s">
         <v>32</v>
@@ -9623,10 +9335,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>167</v>
@@ -9648,7 +9360,7 @@
         <v>128</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="K36" s="16" t="s">
         <v>32</v>
@@ -9675,10 +9387,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>170</v>
@@ -9700,7 +9412,7 @@
         <v>122</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="K37" s="16" t="s">
         <v>32</v>
@@ -9727,10 +9439,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>173</v>
@@ -9752,7 +9464,7 @@
         <v>122</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="K38" s="16" t="s">
         <v>32</v>
@@ -9779,10 +9491,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>176</v>
@@ -9804,7 +9516,7 @@
         <v>122</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="K39" s="16" t="s">
         <v>32</v>
@@ -9831,10 +9543,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>179</v>
@@ -9856,7 +9568,7 @@
         <v>122</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="K40" s="16" t="s">
         <v>32</v>
@@ -9883,10 +9595,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>182</v>
@@ -9908,7 +9620,7 @@
         <v>128</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="K41" s="16" t="s">
         <v>32</v>
@@ -9935,10 +9647,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>185</v>
@@ -9960,7 +9672,7 @@
         <v>128</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="K42" s="16" t="s">
         <v>32</v>
@@ -9987,10 +9699,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>188</v>
@@ -10012,7 +9724,7 @@
         <v>128</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="K43" s="16" t="s">
         <v>32</v>
@@ -10039,10 +9751,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>191</v>
@@ -10064,7 +9776,7 @@
         <v>128</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="K44" s="16" t="s">
         <v>32</v>
@@ -10091,10 +9803,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>194</v>
@@ -10116,7 +9828,7 @@
         <v>122</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="K45" s="16" t="s">
         <v>32</v>
@@ -10143,10 +9855,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>197</v>
@@ -10168,7 +9880,7 @@
         <v>122</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="K46" s="16" t="s">
         <v>32</v>
@@ -10195,10 +9907,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>200</v>
@@ -10220,7 +9932,7 @@
         <v>122</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="K47" s="16" t="s">
         <v>32</v>
@@ -10247,10 +9959,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>203</v>
@@ -10272,7 +9984,7 @@
         <v>122</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="K48" s="16" t="s">
         <v>32</v>
@@ -10294,15 +10006,15 @@
       <c r="X48" s="17"/>
       <c r="Y48" s="17"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="n">
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>206</v>
@@ -10324,7 +10036,7 @@
         <v>207</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="K49" s="16" t="s">
         <v>32</v>
@@ -10346,15 +10058,15 @@
       <c r="X49" s="17"/>
       <c r="Y49" s="17"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="n">
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>210</v>
@@ -10376,7 +10088,7 @@
         <v>207</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="K50" s="16" t="s">
         <v>32</v>
@@ -10398,15 +10110,15 @@
       <c r="X50" s="17"/>
       <c r="Y50" s="17"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="n">
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>213</v>
@@ -10428,7 +10140,7 @@
         <v>207</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="K51" s="16" t="s">
         <v>32</v>
@@ -10450,15 +10162,15 @@
       <c r="X51" s="17"/>
       <c r="Y51" s="17"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="n">
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>216</v>
@@ -10480,7 +10192,7 @@
         <v>207</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="K52" s="16" t="s">
         <v>32</v>
@@ -10502,15 +10214,15 @@
       <c r="X52" s="17"/>
       <c r="Y52" s="17"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="n">
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>219</v>
@@ -10532,7 +10244,7 @@
         <v>220</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="K53" s="16" t="s">
         <v>32</v>
@@ -10554,15 +10266,15 @@
       <c r="X53" s="17"/>
       <c r="Y53" s="17"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="n">
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>223</v>
@@ -10584,7 +10296,7 @@
         <v>220</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="K54" s="16" t="s">
         <v>32</v>
@@ -10606,15 +10318,15 @@
       <c r="X54" s="17"/>
       <c r="Y54" s="17"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="n">
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>226</v>
@@ -10636,7 +10348,7 @@
         <v>220</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="K55" s="16" t="s">
         <v>32</v>
@@ -10658,15 +10370,15 @@
       <c r="X55" s="17"/>
       <c r="Y55" s="17"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="n">
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>229</v>
@@ -10688,7 +10400,7 @@
         <v>220</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="K56" s="16" t="s">
         <v>32</v>
@@ -10710,17 +10422,17 @@
       <c r="X56" s="17"/>
       <c r="Y56" s="17"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="n">
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="D57" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D57" s="21" t="s">
         <v>232</v>
       </c>
       <c r="E57" s="12" t="s">
@@ -10728,28 +10440,28 @@
       </c>
       <c r="F57" s="13" t="str">
         <f aca="false">C57&amp;D57&amp;E57</f>
-        <v>$(PREFIX_MOD02)CIDFiltTorqueRef-Mon</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>121</v>
+        <v>$(PREFIX_MOD02)CIDPosKillSw-Mon</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="H57" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I57" s="14" t="s">
-        <v>220</v>
-      </c>
+      <c r="I57" s="14"/>
       <c r="J57" s="14" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="K57" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L57" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N57" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="O57" s="17"/>
       <c r="P57" s="17"/>
       <c r="Q57" s="17"/>
@@ -10762,17 +10474,17 @@
       <c r="X57" s="17"/>
       <c r="Y57" s="17"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="n">
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="D58" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D58" s="21" t="s">
         <v>235</v>
       </c>
       <c r="E58" s="12" t="s">
@@ -10780,28 +10492,28 @@
       </c>
       <c r="F58" s="13" t="str">
         <f aca="false">C58&amp;D58&amp;E58</f>
-        <v>$(PREFIX_MOD02)CIEFiltTorqueRef-Mon</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>121</v>
+        <v>$(PREFIX_MOD02)CIEPosKillSw-Mon</v>
+      </c>
+      <c r="G58" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="H58" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I58" s="14" t="s">
-        <v>220</v>
-      </c>
+      <c r="I58" s="14"/>
       <c r="J58" s="14" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="K58" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L58" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N58" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="O58" s="17"/>
       <c r="P58" s="17"/>
       <c r="Q58" s="17"/>
@@ -10814,17 +10526,17 @@
       <c r="X58" s="17"/>
       <c r="Y58" s="17"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="n">
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="D59" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D59" s="21" t="s">
         <v>238</v>
       </c>
       <c r="E59" s="12" t="s">
@@ -10832,28 +10544,28 @@
       </c>
       <c r="F59" s="13" t="str">
         <f aca="false">C59&amp;D59&amp;E59</f>
-        <v>$(PREFIX_MOD02)CSDFiltTorqueRef-Mon</v>
-      </c>
-      <c r="G59" s="14" t="s">
-        <v>121</v>
+        <v>$(PREFIX_MOD02)CSDPosKillSw-Mon</v>
+      </c>
+      <c r="G59" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="H59" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I59" s="14" t="s">
-        <v>220</v>
-      </c>
+      <c r="I59" s="14"/>
       <c r="J59" s="14" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="K59" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L59" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N59" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="O59" s="17"/>
       <c r="P59" s="17"/>
       <c r="Q59" s="17"/>
@@ -10866,17 +10578,17 @@
       <c r="X59" s="17"/>
       <c r="Y59" s="17"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="n">
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="D60" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D60" s="21" t="s">
         <v>241</v>
       </c>
       <c r="E60" s="12" t="s">
@@ -10884,28 +10596,28 @@
       </c>
       <c r="F60" s="13" t="str">
         <f aca="false">C60&amp;D60&amp;E60</f>
-        <v>$(PREFIX_MOD02)CSEFiltTorqueRef-Mon</v>
-      </c>
-      <c r="G60" s="14" t="s">
-        <v>121</v>
+        <v>$(PREFIX_MOD02)CSEPosKillSw-Mon</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="H60" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I60" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="J60" s="14" t="s">
-        <v>424</v>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24" t="s">
+        <v>412</v>
       </c>
       <c r="K60" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L60" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N60" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="O60" s="17"/>
       <c r="P60" s="17"/>
       <c r="Q60" s="17"/>
@@ -10918,15 +10630,15 @@
       <c r="X60" s="17"/>
       <c r="Y60" s="17"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="n">
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D61" s="21" t="s">
         <v>244</v>
@@ -10936,7 +10648,7 @@
       </c>
       <c r="F61" s="13" t="str">
         <f aca="false">C61&amp;D61&amp;E61</f>
-        <v>$(PREFIX_MOD02)CIDPosKillSw-Mon</v>
+        <v>$(PREFIX_MOD02)CIDNegKillSw-Mon</v>
       </c>
       <c r="G61" s="24" t="s">
         <v>71</v>
@@ -10944,9 +10656,9 @@
       <c r="H61" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14" t="s">
-        <v>426</v>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24" t="s">
+        <v>414</v>
       </c>
       <c r="K61" s="16" t="s">
         <v>32</v>
@@ -10970,15 +10682,15 @@
       <c r="X61" s="17"/>
       <c r="Y61" s="17"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="n">
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D62" s="21" t="s">
         <v>247</v>
@@ -10988,7 +10700,7 @@
       </c>
       <c r="F62" s="13" t="str">
         <f aca="false">C62&amp;D62&amp;E62</f>
-        <v>$(PREFIX_MOD02)CIEPosKillSw-Mon</v>
+        <v>$(PREFIX_MOD02)CIENegKillSw-Mon</v>
       </c>
       <c r="G62" s="24" t="s">
         <v>71</v>
@@ -10996,9 +10708,9 @@
       <c r="H62" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14" t="s">
-        <v>428</v>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24" t="s">
+        <v>416</v>
       </c>
       <c r="K62" s="16" t="s">
         <v>32</v>
@@ -11022,15 +10734,15 @@
       <c r="X62" s="17"/>
       <c r="Y62" s="17"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="n">
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D63" s="21" t="s">
         <v>250</v>
@@ -11040,7 +10752,7 @@
       </c>
       <c r="F63" s="13" t="str">
         <f aca="false">C63&amp;D63&amp;E63</f>
-        <v>$(PREFIX_MOD02)CSDPosKillSw-Mon</v>
+        <v>$(PREFIX_MOD02)CSDNegKillSw-Mon</v>
       </c>
       <c r="G63" s="24" t="s">
         <v>71</v>
@@ -11048,9 +10760,9 @@
       <c r="H63" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14" t="s">
-        <v>430</v>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24" t="s">
+        <v>418</v>
       </c>
       <c r="K63" s="16" t="s">
         <v>32</v>
@@ -11074,15 +10786,15 @@
       <c r="X63" s="17"/>
       <c r="Y63" s="17"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="n">
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D64" s="21" t="s">
         <v>253</v>
@@ -11092,7 +10804,7 @@
       </c>
       <c r="F64" s="13" t="str">
         <f aca="false">C64&amp;D64&amp;E64</f>
-        <v>$(PREFIX_MOD02)CSEPosKillSw-Mon</v>
+        <v>$(PREFIX_MOD02)CSENegKillSw-Mon</v>
       </c>
       <c r="G64" s="24" t="s">
         <v>71</v>
@@ -11102,7 +10814,7 @@
       </c>
       <c r="I64" s="24"/>
       <c r="J64" s="24" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="K64" s="16" t="s">
         <v>32</v>
@@ -11126,15 +10838,15 @@
       <c r="X64" s="17"/>
       <c r="Y64" s="17"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="n">
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D65" s="21" t="s">
         <v>256</v>
@@ -11144,7 +10856,7 @@
       </c>
       <c r="F65" s="13" t="str">
         <f aca="false">C65&amp;D65&amp;E65</f>
-        <v>$(PREFIX_MOD02)CIDNegKillSw-Mon</v>
+        <v>$(PREFIX_MOD02)CIDPosLimSw-Mon</v>
       </c>
       <c r="G65" s="24" t="s">
         <v>71</v>
@@ -11154,12 +10866,12 @@
       </c>
       <c r="I65" s="24"/>
       <c r="J65" s="24" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="K65" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L65" s="14"/>
+      <c r="L65" s="24"/>
       <c r="M65" s="27" t="s">
         <v>116</v>
       </c>
@@ -11178,15 +10890,15 @@
       <c r="X65" s="17"/>
       <c r="Y65" s="17"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="n">
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D66" s="21" t="s">
         <v>259</v>
@@ -11194,9 +10906,9 @@
       <c r="E66" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F66" s="13" t="str">
+      <c r="F66" s="23" t="str">
         <f aca="false">C66&amp;D66&amp;E66</f>
-        <v>$(PREFIX_MOD02)CIENegKillSw-Mon</v>
+        <v>$(PREFIX_MOD02)CIEPosLimSw-Mon</v>
       </c>
       <c r="G66" s="24" t="s">
         <v>71</v>
@@ -11206,12 +10918,12 @@
       </c>
       <c r="I66" s="24"/>
       <c r="J66" s="24" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="K66" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L66" s="14"/>
+      <c r="L66" s="24"/>
       <c r="M66" s="27" t="s">
         <v>116</v>
       </c>
@@ -11230,15 +10942,15 @@
       <c r="X66" s="17"/>
       <c r="Y66" s="17"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="n">
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D67" s="21" t="s">
         <v>262</v>
@@ -11246,9 +10958,9 @@
       <c r="E67" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F67" s="13" t="str">
+      <c r="F67" s="23" t="str">
         <f aca="false">C67&amp;D67&amp;E67</f>
-        <v>$(PREFIX_MOD02)CSDNegKillSw-Mon</v>
+        <v>$(PREFIX_MOD02)CSDPosLimSw-Mon</v>
       </c>
       <c r="G67" s="24" t="s">
         <v>71</v>
@@ -11258,12 +10970,12 @@
       </c>
       <c r="I67" s="24"/>
       <c r="J67" s="24" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="K67" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L67" s="14"/>
+      <c r="L67" s="24"/>
       <c r="M67" s="27" t="s">
         <v>116</v>
       </c>
@@ -11282,15 +10994,15 @@
       <c r="X67" s="17"/>
       <c r="Y67" s="17"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="8" t="n">
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D68" s="21" t="s">
         <v>265</v>
@@ -11298,9 +11010,9 @@
       <c r="E68" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F68" s="13" t="str">
+      <c r="F68" s="23" t="str">
         <f aca="false">C68&amp;D68&amp;E68</f>
-        <v>$(PREFIX_MOD02)CSENegKillSw-Mon</v>
+        <v>$(PREFIX_MOD02)CSEPosLimSw-Mon</v>
       </c>
       <c r="G68" s="24" t="s">
         <v>71</v>
@@ -11310,12 +11022,12 @@
       </c>
       <c r="I68" s="24"/>
       <c r="J68" s="24" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="K68" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L68" s="14"/>
+      <c r="L68" s="24"/>
       <c r="M68" s="27" t="s">
         <v>116</v>
       </c>
@@ -11334,15 +11046,15 @@
       <c r="X68" s="17"/>
       <c r="Y68" s="17"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="8" t="n">
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D69" s="21" t="s">
         <v>268</v>
@@ -11350,9 +11062,9 @@
       <c r="E69" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F69" s="13" t="str">
+      <c r="F69" s="23" t="str">
         <f aca="false">C69&amp;D69&amp;E69</f>
-        <v>$(PREFIX_MOD02)CIDPosLimSw-Mon</v>
+        <v>$(PREFIX_MOD02)CIDNegLimSw-Mon</v>
       </c>
       <c r="G69" s="24" t="s">
         <v>71</v>
@@ -11362,7 +11074,7 @@
       </c>
       <c r="I69" s="24"/>
       <c r="J69" s="24" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="K69" s="16" t="s">
         <v>32</v>
@@ -11386,15 +11098,15 @@
       <c r="X69" s="17"/>
       <c r="Y69" s="17"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="n">
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D70" s="21" t="s">
         <v>271</v>
@@ -11402,9 +11114,9 @@
       <c r="E70" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F70" s="23" t="str">
+      <c r="F70" s="13" t="str">
         <f aca="false">C70&amp;D70&amp;E70</f>
-        <v>$(PREFIX_MOD02)CIEPosLimSw-Mon</v>
+        <v>$(PREFIX_MOD02)CIENegLimSw-Mon</v>
       </c>
       <c r="G70" s="24" t="s">
         <v>71</v>
@@ -11412,14 +11124,14 @@
       <c r="H70" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I70" s="24"/>
+      <c r="I70" s="14"/>
       <c r="J70" s="24" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="K70" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L70" s="24"/>
+      <c r="L70" s="14"/>
       <c r="M70" s="27" t="s">
         <v>116</v>
       </c>
@@ -11438,15 +11150,15 @@
       <c r="X70" s="17"/>
       <c r="Y70" s="17"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="n">
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D71" s="21" t="s">
         <v>274</v>
@@ -11454,9 +11166,9 @@
       <c r="E71" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F71" s="23" t="str">
+      <c r="F71" s="13" t="str">
         <f aca="false">C71&amp;D71&amp;E71</f>
-        <v>$(PREFIX_MOD02)CSDPosLimSw-Mon</v>
+        <v>$(PREFIX_MOD02)CSDNegLimSw-Mon</v>
       </c>
       <c r="G71" s="24" t="s">
         <v>71</v>
@@ -11464,14 +11176,14 @@
       <c r="H71" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I71" s="24"/>
+      <c r="I71" s="14"/>
       <c r="J71" s="24" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="K71" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L71" s="24"/>
+      <c r="L71" s="14"/>
       <c r="M71" s="27" t="s">
         <v>116</v>
       </c>
@@ -11490,15 +11202,15 @@
       <c r="X71" s="17"/>
       <c r="Y71" s="17"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="8" t="n">
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D72" s="21" t="s">
         <v>277</v>
@@ -11506,9 +11218,9 @@
       <c r="E72" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F72" s="23" t="str">
+      <c r="F72" s="13" t="str">
         <f aca="false">C72&amp;D72&amp;E72</f>
-        <v>$(PREFIX_MOD02)CSEPosLimSw-Mon</v>
+        <v>$(PREFIX_MOD02)CSENegLimSw-Mon</v>
       </c>
       <c r="G72" s="24" t="s">
         <v>71</v>
@@ -11516,14 +11228,14 @@
       <c r="H72" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I72" s="24"/>
+      <c r="I72" s="14"/>
       <c r="J72" s="24" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="K72" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L72" s="24"/>
+      <c r="L72" s="14"/>
       <c r="M72" s="27" t="s">
         <v>116</v>
       </c>
@@ -11542,15 +11254,15 @@
       <c r="X72" s="17"/>
       <c r="Y72" s="17"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>433</v>
+      <c r="B73" s="19" t="s">
+        <v>429</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D73" s="21" t="s">
         <v>280</v>
@@ -11560,7 +11272,7 @@
       </c>
       <c r="F73" s="23" t="str">
         <f aca="false">C73&amp;D73&amp;E73</f>
-        <v>$(PREFIX_MOD02)CIDNegLimSw-Mon</v>
+        <v>$(PREFIX_MOD02)CIDEnbl-Mon</v>
       </c>
       <c r="G73" s="24" t="s">
         <v>71</v>
@@ -11570,7 +11282,7 @@
       </c>
       <c r="I73" s="24"/>
       <c r="J73" s="24" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="K73" s="16" t="s">
         <v>32</v>
@@ -11594,15 +11306,15 @@
       <c r="X73" s="17"/>
       <c r="Y73" s="17"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>435</v>
+      <c r="B74" s="19" t="s">
+        <v>431</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D74" s="21" t="s">
         <v>283</v>
@@ -11610,9 +11322,9 @@
       <c r="E74" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F74" s="13" t="str">
+      <c r="F74" s="23" t="str">
         <f aca="false">C74&amp;D74&amp;E74</f>
-        <v>$(PREFIX_MOD02)CIENegLimSw-Mon</v>
+        <v>$(PREFIX_MOD02)CIEEnbl-Mon</v>
       </c>
       <c r="G74" s="24" t="s">
         <v>71</v>
@@ -11620,14 +11332,14 @@
       <c r="H74" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I74" s="14"/>
+      <c r="I74" s="24"/>
       <c r="J74" s="24" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="K74" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L74" s="14"/>
+      <c r="L74" s="24"/>
       <c r="M74" s="27" t="s">
         <v>116</v>
       </c>
@@ -11646,15 +11358,15 @@
       <c r="X74" s="17"/>
       <c r="Y74" s="17"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="n">
         <v>74</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>437</v>
+      <c r="B75" s="19" t="s">
+        <v>433</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D75" s="21" t="s">
         <v>286</v>
@@ -11662,9 +11374,9 @@
       <c r="E75" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F75" s="13" t="str">
+      <c r="F75" s="23" t="str">
         <f aca="false">C75&amp;D75&amp;E75</f>
-        <v>$(PREFIX_MOD02)CSDNegLimSw-Mon</v>
+        <v>$(PREFIX_MOD02)CSDEnbl-Mon</v>
       </c>
       <c r="G75" s="24" t="s">
         <v>71</v>
@@ -11672,14 +11384,14 @@
       <c r="H75" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I75" s="14"/>
+      <c r="I75" s="24"/>
       <c r="J75" s="24" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="K75" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L75" s="14"/>
+      <c r="L75" s="24"/>
       <c r="M75" s="27" t="s">
         <v>116</v>
       </c>
@@ -11698,15 +11410,15 @@
       <c r="X75" s="17"/>
       <c r="Y75" s="17"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="8" t="n">
         <v>75</v>
       </c>
-      <c r="B76" s="9" t="s">
-        <v>439</v>
+      <c r="B76" s="19" t="s">
+        <v>435</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D76" s="21" t="s">
         <v>289</v>
@@ -11714,9 +11426,9 @@
       <c r="E76" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F76" s="13" t="str">
+      <c r="F76" s="23" t="str">
         <f aca="false">C76&amp;D76&amp;E76</f>
-        <v>$(PREFIX_MOD02)CSENegLimSw-Mon</v>
+        <v>$(PREFIX_MOD02)CSEEnbl-Mon</v>
       </c>
       <c r="G76" s="24" t="s">
         <v>71</v>
@@ -11724,14 +11436,14 @@
       <c r="H76" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I76" s="14"/>
+      <c r="I76" s="24"/>
       <c r="J76" s="24" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="K76" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L76" s="14"/>
+      <c r="L76" s="24"/>
       <c r="M76" s="27" t="s">
         <v>116</v>
       </c>
@@ -11750,150 +11462,146 @@
       <c r="X76" s="17"/>
       <c r="Y76" s="17"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="n">
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D77" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="E77" s="12" t="s">
-        <v>76</v>
+      <c r="E77" s="29" t="s">
+        <v>109</v>
       </c>
       <c r="F77" s="23" t="str">
         <f aca="false">C77&amp;D77&amp;E77</f>
-        <v>$(PREFIX_MOD02)CIDEnbl-Mon</v>
+        <v>$(PREFIX_MOD02)Stop-Cmd</v>
       </c>
       <c r="G77" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I77" s="24"/>
       <c r="J77" s="24" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="K77" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L77" s="24"/>
       <c r="M77" s="27" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N77" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
-      <c r="R77" s="17"/>
-      <c r="S77" s="17"/>
-      <c r="T77" s="17"/>
-      <c r="U77" s="17"/>
-      <c r="V77" s="17"/>
-      <c r="W77" s="17"/>
-      <c r="X77" s="17"/>
-      <c r="Y77" s="17"/>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+      <c r="O77" s="27"/>
+      <c r="P77" s="27"/>
+      <c r="Q77" s="27"/>
+      <c r="R77" s="27"/>
+      <c r="S77" s="27"/>
+      <c r="T77" s="27"/>
+      <c r="U77" s="27"/>
+      <c r="V77" s="27"/>
+      <c r="W77" s="27"/>
+      <c r="X77" s="27"/>
+      <c r="Y77" s="27"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="8" t="n">
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D78" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="E78" s="12" t="s">
-        <v>76</v>
+      <c r="E78" s="29" t="s">
+        <v>109</v>
       </c>
       <c r="F78" s="23" t="str">
         <f aca="false">C78&amp;D78&amp;E78</f>
-        <v>$(PREFIX_MOD02)CIEEnbl-Mon</v>
+        <v>$(PREFIX_MOD02)Rst-Cmd</v>
       </c>
       <c r="G78" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I78" s="24"/>
       <c r="J78" s="24" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="K78" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L78" s="24"/>
       <c r="M78" s="27" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N78" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
-      <c r="R78" s="17"/>
-      <c r="S78" s="17"/>
-      <c r="T78" s="17"/>
-      <c r="U78" s="17"/>
-      <c r="V78" s="17"/>
-      <c r="W78" s="17"/>
-      <c r="X78" s="17"/>
-      <c r="Y78" s="17"/>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+      <c r="O78" s="27"/>
+      <c r="P78" s="27"/>
+      <c r="Q78" s="27"/>
+      <c r="R78" s="27"/>
+      <c r="S78" s="27"/>
+      <c r="T78" s="27"/>
+      <c r="U78" s="27"/>
+      <c r="V78" s="27"/>
+      <c r="W78" s="27"/>
+      <c r="X78" s="27"/>
+      <c r="Y78" s="27"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="8" t="n">
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D79" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="E79" s="12" t="s">
+      <c r="E79" s="30" t="s">
         <v>76</v>
       </c>
       <c r="F79" s="23" t="str">
         <f aca="false">C79&amp;D79&amp;E79</f>
-        <v>$(PREFIX_MOD02)CSDEnbl-Mon</v>
+        <v>$(PREFIX_MOD02)StateIdx-Mon</v>
       </c>
       <c r="G79" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H79" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H79" s="24" t="s">
         <v>43</v>
       </c>
       <c r="I79" s="24"/>
       <c r="J79" s="24" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="K79" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L79" s="24"/>
-      <c r="M79" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="N79" s="27" t="s">
-        <v>117</v>
-      </c>
+      <c r="M79" s="27"/>
+      <c r="N79" s="27"/>
       <c r="O79" s="17"/>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
@@ -11906,210 +11614,10 @@
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="D80" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F80" s="23" t="str">
-        <f aca="false">C80&amp;D80&amp;E80</f>
-        <v>$(PREFIX_MOD02)CSEEnbl-Mon</v>
-      </c>
-      <c r="G80" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H80" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24" t="s">
-        <v>456</v>
-      </c>
-      <c r="K80" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L80" s="24"/>
-      <c r="M80" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="N80" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
-      <c r="R80" s="17"/>
-      <c r="S80" s="17"/>
-      <c r="T80" s="17"/>
-      <c r="U80" s="17"/>
-      <c r="V80" s="17"/>
-      <c r="W80" s="17"/>
-      <c r="X80" s="17"/>
-      <c r="Y80" s="17"/>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="E81" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="F81" s="23" t="str">
-        <f aca="false">C81&amp;D81&amp;E81</f>
-        <v>$(PREFIX_MOD02)Stop-Cmd</v>
-      </c>
-      <c r="G81" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H81" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I81" s="24"/>
-      <c r="J81" s="24" t="s">
-        <v>458</v>
-      </c>
-      <c r="K81" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L81" s="24"/>
-      <c r="M81" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="N81" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="O81" s="27"/>
-      <c r="P81" s="27"/>
-      <c r="Q81" s="27"/>
-      <c r="R81" s="27"/>
-      <c r="S81" s="27"/>
-      <c r="T81" s="27"/>
-      <c r="U81" s="27"/>
-      <c r="V81" s="27"/>
-      <c r="W81" s="27"/>
-      <c r="X81" s="27"/>
-      <c r="Y81" s="27"/>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8" t="n">
-        <v>81</v>
-      </c>
-      <c r="B82" s="19" t="s">
-        <v>459</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="D82" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="E82" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="F82" s="23" t="str">
-        <f aca="false">C82&amp;D82&amp;E82</f>
-        <v>$(PREFIX_MOD02)Rst-Cmd</v>
-      </c>
-      <c r="G82" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H82" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24" t="s">
-        <v>460</v>
-      </c>
-      <c r="K82" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L82" s="24"/>
-      <c r="M82" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="N82" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="O82" s="27"/>
-      <c r="P82" s="27"/>
-      <c r="Q82" s="27"/>
-      <c r="R82" s="27"/>
-      <c r="S82" s="27"/>
-      <c r="T82" s="27"/>
-      <c r="U82" s="27"/>
-      <c r="V82" s="27"/>
-      <c r="W82" s="27"/>
-      <c r="X82" s="27"/>
-      <c r="Y82" s="27"/>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="8" t="n">
-        <v>82</v>
-      </c>
-      <c r="B83" s="19" t="s">
-        <v>461</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="D83" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="E83" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F83" s="23" t="str">
-        <f aca="false">C83&amp;D83&amp;E83</f>
-        <v>$(PREFIX_MOD02)StateIdx-Mon</v>
-      </c>
-      <c r="G83" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="H83" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24" t="s">
-        <v>462</v>
-      </c>
-      <c r="K83" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L83" s="24"/>
-      <c r="M83" s="27"/>
-      <c r="N83" s="27"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
-      <c r="R83" s="17"/>
-      <c r="S83" s="17"/>
-      <c r="T83" s="17"/>
-      <c r="U83" s="17"/>
-      <c r="V83" s="17"/>
-      <c r="W83" s="17"/>
-      <c r="X83" s="17"/>
-      <c r="Y83" s="17"/>
-    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="B2 B19:B32">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
@@ -12132,7 +11640,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E1:E83" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E1:E79" type="list">
       <formula1>"-Mon,-Sel,-Sts,-SP,-RB,-Cmd"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -12155,10 +11663,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y83"/>
+  <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E57" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N83" activeCellId="0" sqref="N83"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B83" activeCellId="0" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12260,10 +11768,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>46</v>
@@ -12283,7 +11791,7 @@
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="14" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>32</v>
@@ -12330,10 +11838,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>59</v>
@@ -12353,7 +11861,7 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="31" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>32</v>
@@ -12386,10 +11894,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>65</v>
@@ -12409,7 +11917,7 @@
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="14" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>32</v>
@@ -12440,10 +11948,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>70</v>
@@ -12463,7 +11971,7 @@
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="14" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>32</v>
@@ -12494,10 +12002,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>75</v>
@@ -12517,7 +12025,7 @@
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="14" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>32</v>
@@ -12548,10 +12056,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>81</v>
@@ -12571,7 +12079,7 @@
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="14" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>32</v>
@@ -12602,10 +12110,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>84</v>
@@ -12625,7 +12133,7 @@
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="14" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>32</v>
@@ -12656,10 +12164,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>89</v>
@@ -12679,7 +12187,7 @@
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="14" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>32</v>
@@ -12712,10 +12220,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>93</v>
@@ -12735,7 +12243,7 @@
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="14" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>32</v>
@@ -12768,10 +12276,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>96</v>
@@ -12791,7 +12299,7 @@
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="14" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>32</v>
@@ -12824,10 +12332,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>99</v>
@@ -12847,7 +12355,7 @@
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="14" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>32</v>
@@ -12880,10 +12388,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>46</v>
@@ -12903,7 +12411,7 @@
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="14" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="K13" s="16" t="s">
         <v>32</v>
@@ -12950,10 +12458,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>59</v>
@@ -12973,7 +12481,7 @@
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="14" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>32</v>
@@ -13006,10 +12514,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>65</v>
@@ -13029,7 +12537,7 @@
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="14" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="K15" s="16" t="s">
         <v>32</v>
@@ -13060,10 +12568,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>70</v>
@@ -13083,7 +12591,7 @@
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="14" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="K16" s="16" t="s">
         <v>32</v>
@@ -13114,10 +12622,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>81</v>
@@ -13137,7 +12645,7 @@
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="14" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="K17" s="16" t="s">
         <v>32</v>
@@ -13168,10 +12676,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>114</v>
@@ -13191,7 +12699,7 @@
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="14" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="K18" s="16" t="s">
         <v>32</v>
@@ -13222,10 +12730,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>119</v>
@@ -13247,7 +12755,7 @@
         <v>122</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>32</v>
@@ -13274,10 +12782,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>119</v>
@@ -13299,7 +12807,7 @@
         <v>122</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>32</v>
@@ -13326,10 +12834,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>127</v>
@@ -13351,7 +12859,7 @@
         <v>128</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>32</v>
@@ -13378,10 +12886,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>127</v>
@@ -13403,7 +12911,7 @@
         <v>128</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="K22" s="16" t="s">
         <v>32</v>
@@ -13430,10 +12938,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>132</v>
@@ -13455,7 +12963,7 @@
         <v>133</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="K23" s="16" t="s">
         <v>32</v>
@@ -13482,10 +12990,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>132</v>
@@ -13507,7 +13015,7 @@
         <v>133</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="K24" s="16" t="s">
         <v>32</v>
@@ -13534,10 +13042,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>137</v>
@@ -13559,7 +13067,7 @@
         <v>138</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="K25" s="16" t="s">
         <v>32</v>
@@ -13586,10 +13094,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>137</v>
@@ -13611,7 +13119,7 @@
         <v>138</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="K26" s="16" t="s">
         <v>32</v>
@@ -13638,10 +13146,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>142</v>
@@ -13663,7 +13171,7 @@
         <v>138</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="K27" s="16" t="s">
         <v>32</v>
@@ -13690,10 +13198,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>142</v>
@@ -13715,7 +13223,7 @@
         <v>138</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="K28" s="16" t="s">
         <v>32</v>
@@ -13742,10 +13250,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>146</v>
@@ -13767,7 +13275,7 @@
         <v>122</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="K29" s="16" t="s">
         <v>32</v>
@@ -13794,10 +13302,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>149</v>
@@ -13819,7 +13327,7 @@
         <v>122</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="K30" s="16" t="s">
         <v>32</v>
@@ -13846,10 +13354,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>152</v>
@@ -13871,7 +13379,7 @@
         <v>122</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="K31" s="16" t="s">
         <v>32</v>
@@ -13898,10 +13406,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>155</v>
@@ -13923,7 +13431,7 @@
         <v>122</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="K32" s="16" t="s">
         <v>32</v>
@@ -13950,10 +13458,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>158</v>
@@ -13975,7 +13483,7 @@
         <v>128</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="K33" s="16" t="s">
         <v>32</v>
@@ -14002,10 +13510,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>161</v>
@@ -14027,7 +13535,7 @@
         <v>128</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="K34" s="16" t="s">
         <v>32</v>
@@ -14054,10 +13562,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>164</v>
@@ -14079,7 +13587,7 @@
         <v>128</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="K35" s="16" t="s">
         <v>32</v>
@@ -14106,10 +13614,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>167</v>
@@ -14131,7 +13639,7 @@
         <v>128</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="K36" s="16" t="s">
         <v>32</v>
@@ -14158,10 +13666,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>170</v>
@@ -14183,7 +13691,7 @@
         <v>122</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="K37" s="16" t="s">
         <v>32</v>
@@ -14210,10 +13718,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>173</v>
@@ -14235,7 +13743,7 @@
         <v>122</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="K38" s="16" t="s">
         <v>32</v>
@@ -14262,10 +13770,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>176</v>
@@ -14287,7 +13795,7 @@
         <v>122</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="K39" s="16" t="s">
         <v>32</v>
@@ -14314,10 +13822,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>179</v>
@@ -14339,7 +13847,7 @@
         <v>122</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="K40" s="16" t="s">
         <v>32</v>
@@ -14366,10 +13874,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>182</v>
@@ -14391,7 +13899,7 @@
         <v>128</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="K41" s="16" t="s">
         <v>32</v>
@@ -14418,10 +13926,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>185</v>
@@ -14443,7 +13951,7 @@
         <v>128</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="K42" s="16" t="s">
         <v>32</v>
@@ -14470,10 +13978,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>188</v>
@@ -14495,7 +14003,7 @@
         <v>128</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="K43" s="16" t="s">
         <v>32</v>
@@ -14522,10 +14030,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>191</v>
@@ -14547,7 +14055,7 @@
         <v>128</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="K44" s="16" t="s">
         <v>32</v>
@@ -14574,10 +14082,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>194</v>
@@ -14599,7 +14107,7 @@
         <v>122</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="K45" s="16" t="s">
         <v>32</v>
@@ -14626,10 +14134,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>197</v>
@@ -14651,7 +14159,7 @@
         <v>122</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="K46" s="16" t="s">
         <v>32</v>
@@ -14678,10 +14186,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>200</v>
@@ -14703,7 +14211,7 @@
         <v>122</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="K47" s="16" t="s">
         <v>32</v>
@@ -14730,10 +14238,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>203</v>
@@ -14755,7 +14263,7 @@
         <v>122</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="K48" s="16" t="s">
         <v>32</v>
@@ -14777,15 +14285,15 @@
       <c r="X48" s="17"/>
       <c r="Y48" s="17"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="n">
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>206</v>
@@ -14807,7 +14315,7 @@
         <v>207</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="K49" s="16" t="s">
         <v>32</v>
@@ -14829,15 +14337,15 @@
       <c r="X49" s="17"/>
       <c r="Y49" s="17"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="n">
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>210</v>
@@ -14859,7 +14367,7 @@
         <v>207</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="K50" s="16" t="s">
         <v>32</v>
@@ -14881,15 +14389,15 @@
       <c r="X50" s="17"/>
       <c r="Y50" s="17"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="n">
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>213</v>
@@ -14911,7 +14419,7 @@
         <v>207</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="K51" s="16" t="s">
         <v>32</v>
@@ -14933,15 +14441,15 @@
       <c r="X51" s="17"/>
       <c r="Y51" s="17"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="n">
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>216</v>
@@ -14963,7 +14471,7 @@
         <v>207</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="K52" s="16" t="s">
         <v>32</v>
@@ -14985,15 +14493,15 @@
       <c r="X52" s="17"/>
       <c r="Y52" s="17"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="n">
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>219</v>
@@ -15015,7 +14523,7 @@
         <v>220</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="K53" s="16" t="s">
         <v>32</v>
@@ -15037,15 +14545,15 @@
       <c r="X53" s="17"/>
       <c r="Y53" s="17"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="n">
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>223</v>
@@ -15067,7 +14575,7 @@
         <v>220</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="K54" s="16" t="s">
         <v>32</v>
@@ -15089,15 +14597,15 @@
       <c r="X54" s="17"/>
       <c r="Y54" s="17"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="n">
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>226</v>
@@ -15119,7 +14627,7 @@
         <v>220</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="K55" s="16" t="s">
         <v>32</v>
@@ -15141,15 +14649,15 @@
       <c r="X55" s="17"/>
       <c r="Y55" s="17"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="n">
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>229</v>
@@ -15171,7 +14679,7 @@
         <v>220</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="K56" s="16" t="s">
         <v>32</v>
@@ -15193,17 +14701,17 @@
       <c r="X56" s="17"/>
       <c r="Y56" s="17"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="n">
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="D57" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="D57" s="21" t="s">
         <v>232</v>
       </c>
       <c r="E57" s="29" t="s">
@@ -15211,28 +14719,28 @@
       </c>
       <c r="F57" s="13" t="str">
         <f aca="false">C57&amp;D57&amp;E57</f>
-        <v>$(PREFIX_MOD03)CIDFiltTorqueRef-Mon</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>121</v>
+        <v>$(PREFIX_MOD03)CIDPosKillSw-Mon</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="H57" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I57" s="14" t="s">
-        <v>220</v>
-      </c>
+      <c r="I57" s="14"/>
       <c r="J57" s="14" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="K57" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L57" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N57" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="O57" s="17"/>
       <c r="P57" s="17"/>
       <c r="Q57" s="17"/>
@@ -15245,17 +14753,17 @@
       <c r="X57" s="17"/>
       <c r="Y57" s="17"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="n">
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="D58" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="D58" s="21" t="s">
         <v>235</v>
       </c>
       <c r="E58" s="29" t="s">
@@ -15263,28 +14771,28 @@
       </c>
       <c r="F58" s="13" t="str">
         <f aca="false">C58&amp;D58&amp;E58</f>
-        <v>$(PREFIX_MOD03)CIEFiltTorqueRef-Mon</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>121</v>
+        <v>$(PREFIX_MOD03)CIEPosKillSw-Mon</v>
+      </c>
+      <c r="G58" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="H58" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I58" s="14" t="s">
-        <v>220</v>
-      </c>
+      <c r="I58" s="14"/>
       <c r="J58" s="14" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="K58" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L58" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N58" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="O58" s="17"/>
       <c r="P58" s="17"/>
       <c r="Q58" s="17"/>
@@ -15297,17 +14805,17 @@
       <c r="X58" s="17"/>
       <c r="Y58" s="17"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="n">
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="D59" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="D59" s="21" t="s">
         <v>238</v>
       </c>
       <c r="E59" s="29" t="s">
@@ -15315,28 +14823,28 @@
       </c>
       <c r="F59" s="13" t="str">
         <f aca="false">C59&amp;D59&amp;E59</f>
-        <v>$(PREFIX_MOD03)CSDFiltTorqueRef-Mon</v>
-      </c>
-      <c r="G59" s="14" t="s">
-        <v>121</v>
+        <v>$(PREFIX_MOD03)CSDPosKillSw-Mon</v>
+      </c>
+      <c r="G59" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="H59" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I59" s="14" t="s">
-        <v>220</v>
-      </c>
+      <c r="I59" s="14"/>
       <c r="J59" s="14" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="K59" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L59" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N59" s="27" t="s">
+        <v>117</v>
+      </c>
       <c r="O59" s="17"/>
       <c r="P59" s="17"/>
       <c r="Q59" s="17"/>
@@ -15349,67 +14857,67 @@
       <c r="X59" s="17"/>
       <c r="Y59" s="17"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="19" t="s">
-        <v>574</v>
+      <c r="B60" s="9" t="s">
+        <v>554</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D60" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="E60" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F60" s="23" t="str">
+      <c r="E60" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F60" s="13" t="str">
         <f aca="false">C60&amp;D60&amp;E60</f>
-        <v>$(PREFIX_MOD03)CSEFiltTorqueRef-Mon</v>
+        <v>$(PREFIX_MOD03)CSEPosKillSw-Mon</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="H60" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I60" s="24" t="s">
-        <v>220</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I60" s="14"/>
       <c r="J60" s="24" t="s">
-        <v>575</v>
-      </c>
-      <c r="K60" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="L60" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="27"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="27"/>
-      <c r="R60" s="27"/>
-      <c r="S60" s="27"/>
-      <c r="T60" s="27"/>
-      <c r="U60" s="27"/>
-      <c r="V60" s="27"/>
-      <c r="W60" s="27"/>
-      <c r="X60" s="27"/>
-      <c r="Y60" s="27"/>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>555</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L60" s="14"/>
+      <c r="M60" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N60" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="17"/>
+      <c r="V60" s="17"/>
+      <c r="W60" s="17"/>
+      <c r="X60" s="17"/>
+      <c r="Y60" s="17"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="n">
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D61" s="21" t="s">
         <v>244</v>
@@ -15419,7 +14927,7 @@
       </c>
       <c r="F61" s="13" t="str">
         <f aca="false">C61&amp;D61&amp;E61</f>
-        <v>$(PREFIX_MOD03)CIDPosKillSw-Mon</v>
+        <v>$(PREFIX_MOD03)CIDNegKillSw-Mon</v>
       </c>
       <c r="G61" s="24" t="s">
         <v>71</v>
@@ -15427,9 +14935,9 @@
       <c r="H61" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14" t="s">
-        <v>577</v>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24" t="s">
+        <v>557</v>
       </c>
       <c r="K61" s="16" t="s">
         <v>32</v>
@@ -15453,15 +14961,15 @@
       <c r="X61" s="17"/>
       <c r="Y61" s="17"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="n">
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D62" s="21" t="s">
         <v>247</v>
@@ -15471,7 +14979,7 @@
       </c>
       <c r="F62" s="13" t="str">
         <f aca="false">C62&amp;D62&amp;E62</f>
-        <v>$(PREFIX_MOD03)CIEPosKillSw-Mon</v>
+        <v>$(PREFIX_MOD03)CIENegKillSw-Mon</v>
       </c>
       <c r="G62" s="24" t="s">
         <v>71</v>
@@ -15479,9 +14987,9 @@
       <c r="H62" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14" t="s">
-        <v>579</v>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24" t="s">
+        <v>559</v>
       </c>
       <c r="K62" s="16" t="s">
         <v>32</v>
@@ -15505,15 +15013,15 @@
       <c r="X62" s="17"/>
       <c r="Y62" s="17"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="n">
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D63" s="21" t="s">
         <v>250</v>
@@ -15523,7 +15031,7 @@
       </c>
       <c r="F63" s="13" t="str">
         <f aca="false">C63&amp;D63&amp;E63</f>
-        <v>$(PREFIX_MOD03)CSDPosKillSw-Mon</v>
+        <v>$(PREFIX_MOD03)CSDNegKillSw-Mon</v>
       </c>
       <c r="G63" s="24" t="s">
         <v>71</v>
@@ -15531,9 +15039,9 @@
       <c r="H63" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14" t="s">
-        <v>581</v>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24" t="s">
+        <v>561</v>
       </c>
       <c r="K63" s="16" t="s">
         <v>32</v>
@@ -15557,15 +15065,15 @@
       <c r="X63" s="17"/>
       <c r="Y63" s="17"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="n">
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D64" s="21" t="s">
         <v>253</v>
@@ -15575,7 +15083,7 @@
       </c>
       <c r="F64" s="13" t="str">
         <f aca="false">C64&amp;D64&amp;E64</f>
-        <v>$(PREFIX_MOD03)CSEPosKillSw-Mon</v>
+        <v>$(PREFIX_MOD03)CSENegKillSw-Mon</v>
       </c>
       <c r="G64" s="24" t="s">
         <v>71</v>
@@ -15583,9 +15091,9 @@
       <c r="H64" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I64" s="14"/>
+      <c r="I64" s="24"/>
       <c r="J64" s="24" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="K64" s="16" t="s">
         <v>32</v>
@@ -15609,15 +15117,15 @@
       <c r="X64" s="17"/>
       <c r="Y64" s="17"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="n">
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>584</v>
+        <v>548</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D65" s="21" t="s">
         <v>256</v>
@@ -15627,7 +15135,7 @@
       </c>
       <c r="F65" s="13" t="str">
         <f aca="false">C65&amp;D65&amp;E65</f>
-        <v>$(PREFIX_MOD03)CIDNegKillSw-Mon</v>
+        <v>$(PREFIX_MOD03)CIDPosLimSw-Mon</v>
       </c>
       <c r="G65" s="24" t="s">
         <v>71</v>
@@ -15637,12 +15145,12 @@
       </c>
       <c r="I65" s="24"/>
       <c r="J65" s="24" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="K65" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L65" s="14"/>
+      <c r="L65" s="24"/>
       <c r="M65" s="27" t="s">
         <v>116</v>
       </c>
@@ -15661,15 +15169,15 @@
       <c r="X65" s="17"/>
       <c r="Y65" s="17"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="n">
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>586</v>
+        <v>550</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D66" s="21" t="s">
         <v>259</v>
@@ -15677,9 +15185,9 @@
       <c r="E66" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F66" s="13" t="str">
+      <c r="F66" s="23" t="str">
         <f aca="false">C66&amp;D66&amp;E66</f>
-        <v>$(PREFIX_MOD03)CIENegKillSw-Mon</v>
+        <v>$(PREFIX_MOD03)CIEPosLimSw-Mon</v>
       </c>
       <c r="G66" s="24" t="s">
         <v>71</v>
@@ -15689,12 +15197,12 @@
       </c>
       <c r="I66" s="24"/>
       <c r="J66" s="24" t="s">
-        <v>587</v>
+        <v>565</v>
       </c>
       <c r="K66" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L66" s="14"/>
+      <c r="L66" s="24"/>
       <c r="M66" s="27" t="s">
         <v>116</v>
       </c>
@@ -15713,15 +15221,15 @@
       <c r="X66" s="17"/>
       <c r="Y66" s="17"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="n">
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>588</v>
+        <v>552</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D67" s="21" t="s">
         <v>262</v>
@@ -15729,9 +15237,9 @@
       <c r="E67" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F67" s="13" t="str">
+      <c r="F67" s="23" t="str">
         <f aca="false">C67&amp;D67&amp;E67</f>
-        <v>$(PREFIX_MOD03)CSDNegKillSw-Mon</v>
+        <v>$(PREFIX_MOD03)CSDPosLimSw-Mon</v>
       </c>
       <c r="G67" s="24" t="s">
         <v>71</v>
@@ -15741,12 +15249,12 @@
       </c>
       <c r="I67" s="24"/>
       <c r="J67" s="24" t="s">
-        <v>589</v>
+        <v>566</v>
       </c>
       <c r="K67" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L67" s="14"/>
+      <c r="L67" s="24"/>
       <c r="M67" s="27" t="s">
         <v>116</v>
       </c>
@@ -15765,15 +15273,15 @@
       <c r="X67" s="17"/>
       <c r="Y67" s="17"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="8" t="n">
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>590</v>
+        <v>554</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D68" s="21" t="s">
         <v>265</v>
@@ -15781,9 +15289,9 @@
       <c r="E68" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F68" s="13" t="str">
+      <c r="F68" s="23" t="str">
         <f aca="false">C68&amp;D68&amp;E68</f>
-        <v>$(PREFIX_MOD03)CSENegKillSw-Mon</v>
+        <v>$(PREFIX_MOD03)CSEPosLimSw-Mon</v>
       </c>
       <c r="G68" s="24" t="s">
         <v>71</v>
@@ -15793,12 +15301,12 @@
       </c>
       <c r="I68" s="24"/>
       <c r="J68" s="24" t="s">
-        <v>591</v>
+        <v>567</v>
       </c>
       <c r="K68" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L68" s="14"/>
+      <c r="L68" s="24"/>
       <c r="M68" s="27" t="s">
         <v>116</v>
       </c>
@@ -15817,15 +15325,15 @@
       <c r="X68" s="17"/>
       <c r="Y68" s="17"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="8" t="n">
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D69" s="21" t="s">
         <v>268</v>
@@ -15833,9 +15341,9 @@
       <c r="E69" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F69" s="13" t="str">
+      <c r="F69" s="23" t="str">
         <f aca="false">C69&amp;D69&amp;E69</f>
-        <v>$(PREFIX_MOD03)CIDPosLimSw-Mon</v>
+        <v>$(PREFIX_MOD03)CIDNegLimSw-Mon</v>
       </c>
       <c r="G69" s="24" t="s">
         <v>71</v>
@@ -15845,7 +15353,7 @@
       </c>
       <c r="I69" s="24"/>
       <c r="J69" s="24" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="K69" s="16" t="s">
         <v>32</v>
@@ -15869,15 +15377,15 @@
       <c r="X69" s="17"/>
       <c r="Y69" s="17"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="n">
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D70" s="21" t="s">
         <v>271</v>
@@ -15885,9 +15393,9 @@
       <c r="E70" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F70" s="23" t="str">
+      <c r="F70" s="13" t="str">
         <f aca="false">C70&amp;D70&amp;E70</f>
-        <v>$(PREFIX_MOD03)CIEPosLimSw-Mon</v>
+        <v>$(PREFIX_MOD03)CIENegLimSw-Mon</v>
       </c>
       <c r="G70" s="24" t="s">
         <v>71</v>
@@ -15895,14 +15403,14 @@
       <c r="H70" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I70" s="24"/>
+      <c r="I70" s="14"/>
       <c r="J70" s="24" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="K70" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L70" s="24"/>
+      <c r="L70" s="14"/>
       <c r="M70" s="27" t="s">
         <v>116</v>
       </c>
@@ -15921,15 +15429,15 @@
       <c r="X70" s="17"/>
       <c r="Y70" s="17"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="n">
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D71" s="21" t="s">
         <v>274</v>
@@ -15937,9 +15445,9 @@
       <c r="E71" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F71" s="23" t="str">
+      <c r="F71" s="13" t="str">
         <f aca="false">C71&amp;D71&amp;E71</f>
-        <v>$(PREFIX_MOD03)CSDPosLimSw-Mon</v>
+        <v>$(PREFIX_MOD03)CSDNegLimSw-Mon</v>
       </c>
       <c r="G71" s="24" t="s">
         <v>71</v>
@@ -15947,14 +15455,14 @@
       <c r="H71" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I71" s="24"/>
+      <c r="I71" s="14"/>
       <c r="J71" s="24" t="s">
-        <v>594</v>
+        <v>570</v>
       </c>
       <c r="K71" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L71" s="24"/>
+      <c r="L71" s="14"/>
       <c r="M71" s="27" t="s">
         <v>116</v>
       </c>
@@ -15973,15 +15481,15 @@
       <c r="X71" s="17"/>
       <c r="Y71" s="17"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="8" t="n">
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D72" s="21" t="s">
         <v>277</v>
@@ -15989,9 +15497,9 @@
       <c r="E72" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F72" s="23" t="str">
+      <c r="F72" s="13" t="str">
         <f aca="false">C72&amp;D72&amp;E72</f>
-        <v>$(PREFIX_MOD03)CSEPosLimSw-Mon</v>
+        <v>$(PREFIX_MOD03)CSENegLimSw-Mon</v>
       </c>
       <c r="G72" s="24" t="s">
         <v>71</v>
@@ -15999,14 +15507,14 @@
       <c r="H72" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I72" s="24"/>
+      <c r="I72" s="14"/>
       <c r="J72" s="24" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="K72" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L72" s="24"/>
+      <c r="L72" s="14"/>
       <c r="M72" s="27" t="s">
         <v>116</v>
       </c>
@@ -16025,15 +15533,15 @@
       <c r="X72" s="17"/>
       <c r="Y72" s="17"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="8" t="n">
         <v>72</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>584</v>
+      <c r="B73" s="19" t="s">
+        <v>572</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D73" s="21" t="s">
         <v>280</v>
@@ -16043,7 +15551,7 @@
       </c>
       <c r="F73" s="23" t="str">
         <f aca="false">C73&amp;D73&amp;E73</f>
-        <v>$(PREFIX_MOD03)CIDNegLimSw-Mon</v>
+        <v>$(PREFIX_MOD03)CIDEnbl-Mon</v>
       </c>
       <c r="G73" s="24" t="s">
         <v>71</v>
@@ -16053,7 +15561,7 @@
       </c>
       <c r="I73" s="24"/>
       <c r="J73" s="24" t="s">
-        <v>596</v>
+        <v>573</v>
       </c>
       <c r="K73" s="16" t="s">
         <v>32</v>
@@ -16077,15 +15585,15 @@
       <c r="X73" s="17"/>
       <c r="Y73" s="17"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>586</v>
+      <c r="B74" s="19" t="s">
+        <v>574</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D74" s="21" t="s">
         <v>283</v>
@@ -16093,9 +15601,9 @@
       <c r="E74" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F74" s="13" t="str">
+      <c r="F74" s="23" t="str">
         <f aca="false">C74&amp;D74&amp;E74</f>
-        <v>$(PREFIX_MOD03)CIENegLimSw-Mon</v>
+        <v>$(PREFIX_MOD03)CIEEnbl-Mon</v>
       </c>
       <c r="G74" s="24" t="s">
         <v>71</v>
@@ -16103,14 +15611,14 @@
       <c r="H74" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I74" s="14"/>
+      <c r="I74" s="24"/>
       <c r="J74" s="24" t="s">
-        <v>597</v>
+        <v>575</v>
       </c>
       <c r="K74" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L74" s="14"/>
+      <c r="L74" s="24"/>
       <c r="M74" s="27" t="s">
         <v>116</v>
       </c>
@@ -16129,15 +15637,15 @@
       <c r="X74" s="17"/>
       <c r="Y74" s="17"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="n">
         <v>74</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>588</v>
+      <c r="B75" s="19" t="s">
+        <v>576</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D75" s="21" t="s">
         <v>286</v>
@@ -16145,9 +15653,9 @@
       <c r="E75" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F75" s="13" t="str">
+      <c r="F75" s="23" t="str">
         <f aca="false">C75&amp;D75&amp;E75</f>
-        <v>$(PREFIX_MOD03)CSDNegLimSw-Mon</v>
+        <v>$(PREFIX_MOD03)CSDEnbl-Mon</v>
       </c>
       <c r="G75" s="24" t="s">
         <v>71</v>
@@ -16155,14 +15663,14 @@
       <c r="H75" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I75" s="14"/>
+      <c r="I75" s="24"/>
       <c r="J75" s="24" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="K75" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L75" s="14"/>
+      <c r="L75" s="24"/>
       <c r="M75" s="27" t="s">
         <v>116</v>
       </c>
@@ -16181,15 +15689,15 @@
       <c r="X75" s="17"/>
       <c r="Y75" s="17"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="8" t="n">
         <v>75</v>
       </c>
-      <c r="B76" s="9" t="s">
-        <v>590</v>
+      <c r="B76" s="19" t="s">
+        <v>578</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D76" s="21" t="s">
         <v>289</v>
@@ -16197,9 +15705,9 @@
       <c r="E76" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F76" s="13" t="str">
+      <c r="F76" s="23" t="str">
         <f aca="false">C76&amp;D76&amp;E76</f>
-        <v>$(PREFIX_MOD03)CSENegLimSw-Mon</v>
+        <v>$(PREFIX_MOD03)CSEEnbl-Mon</v>
       </c>
       <c r="G76" s="24" t="s">
         <v>71</v>
@@ -16207,14 +15715,14 @@
       <c r="H76" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I76" s="14"/>
+      <c r="I76" s="24"/>
       <c r="J76" s="24" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="K76" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L76" s="14"/>
+      <c r="L76" s="24"/>
       <c r="M76" s="27" t="s">
         <v>116</v>
       </c>
@@ -16233,150 +15741,146 @@
       <c r="X76" s="17"/>
       <c r="Y76" s="17"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="n">
         <v>76</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D77" s="21" t="s">
         <v>292</v>
       </c>
       <c r="E77" s="29" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="F77" s="23" t="str">
         <f aca="false">C77&amp;D77&amp;E77</f>
-        <v>$(PREFIX_MOD03)CIDEnbl-Mon</v>
+        <v>$(PREFIX_MOD03)Stop-Cmd</v>
       </c>
       <c r="G77" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I77" s="24"/>
       <c r="J77" s="24" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="K77" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L77" s="24"/>
       <c r="M77" s="27" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N77" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
-      <c r="R77" s="17"/>
-      <c r="S77" s="17"/>
-      <c r="T77" s="17"/>
-      <c r="U77" s="17"/>
-      <c r="V77" s="17"/>
-      <c r="W77" s="17"/>
-      <c r="X77" s="17"/>
-      <c r="Y77" s="17"/>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+      <c r="O77" s="27"/>
+      <c r="P77" s="27"/>
+      <c r="Q77" s="27"/>
+      <c r="R77" s="27"/>
+      <c r="S77" s="27"/>
+      <c r="T77" s="27"/>
+      <c r="U77" s="27"/>
+      <c r="V77" s="27"/>
+      <c r="W77" s="27"/>
+      <c r="X77" s="27"/>
+      <c r="Y77" s="27"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="8" t="n">
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D78" s="21" t="s">
         <v>295</v>
       </c>
       <c r="E78" s="29" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="F78" s="23" t="str">
         <f aca="false">C78&amp;D78&amp;E78</f>
-        <v>$(PREFIX_MOD03)CIEEnbl-Mon</v>
+        <v>$(PREFIX_MOD03)Rst-Cmd</v>
       </c>
       <c r="G78" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I78" s="24"/>
       <c r="J78" s="24" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="K78" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L78" s="24"/>
       <c r="M78" s="27" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N78" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
-      <c r="R78" s="17"/>
-      <c r="S78" s="17"/>
-      <c r="T78" s="17"/>
-      <c r="U78" s="17"/>
-      <c r="V78" s="17"/>
-      <c r="W78" s="17"/>
-      <c r="X78" s="17"/>
-      <c r="Y78" s="17"/>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+      <c r="O78" s="27"/>
+      <c r="P78" s="27"/>
+      <c r="Q78" s="27"/>
+      <c r="R78" s="27"/>
+      <c r="S78" s="27"/>
+      <c r="T78" s="27"/>
+      <c r="U78" s="27"/>
+      <c r="V78" s="27"/>
+      <c r="W78" s="27"/>
+      <c r="X78" s="27"/>
+      <c r="Y78" s="27"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="8" t="n">
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D79" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="E79" s="29" t="s">
+      <c r="E79" s="30" t="s">
         <v>76</v>
       </c>
       <c r="F79" s="23" t="str">
         <f aca="false">C79&amp;D79&amp;E79</f>
-        <v>$(PREFIX_MOD03)CSDEnbl-Mon</v>
+        <v>$(PREFIX_MOD03)StateIdx-Mon</v>
       </c>
       <c r="G79" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H79" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H79" s="24" t="s">
         <v>43</v>
       </c>
       <c r="I79" s="24"/>
       <c r="J79" s="24" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="K79" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L79" s="24"/>
-      <c r="M79" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="N79" s="27" t="s">
-        <v>117</v>
-      </c>
+      <c r="M79" s="27"/>
+      <c r="N79" s="27"/>
       <c r="O79" s="17"/>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
@@ -16389,210 +15893,10 @@
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>606</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="D80" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="E80" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="F80" s="23" t="str">
-        <f aca="false">C80&amp;D80&amp;E80</f>
-        <v>$(PREFIX_MOD03)CSEEnbl-Mon</v>
-      </c>
-      <c r="G80" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H80" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24" t="s">
-        <v>607</v>
-      </c>
-      <c r="K80" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L80" s="24"/>
-      <c r="M80" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="N80" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
-      <c r="R80" s="17"/>
-      <c r="S80" s="17"/>
-      <c r="T80" s="17"/>
-      <c r="U80" s="17"/>
-      <c r="V80" s="17"/>
-      <c r="W80" s="17"/>
-      <c r="X80" s="17"/>
-      <c r="Y80" s="17"/>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>608</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="E81" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="F81" s="23" t="str">
-        <f aca="false">C81&amp;D81&amp;E81</f>
-        <v>$(PREFIX_MOD03)Stop-Cmd</v>
-      </c>
-      <c r="G81" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H81" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I81" s="24"/>
-      <c r="J81" s="24" t="s">
-        <v>609</v>
-      </c>
-      <c r="K81" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L81" s="24"/>
-      <c r="M81" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="N81" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="O81" s="27"/>
-      <c r="P81" s="27"/>
-      <c r="Q81" s="27"/>
-      <c r="R81" s="27"/>
-      <c r="S81" s="27"/>
-      <c r="T81" s="27"/>
-      <c r="U81" s="27"/>
-      <c r="V81" s="27"/>
-      <c r="W81" s="27"/>
-      <c r="X81" s="27"/>
-      <c r="Y81" s="27"/>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8" t="n">
-        <v>81</v>
-      </c>
-      <c r="B82" s="19" t="s">
-        <v>610</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="D82" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="E82" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="F82" s="23" t="str">
-        <f aca="false">C82&amp;D82&amp;E82</f>
-        <v>$(PREFIX_MOD03)Rst-Cmd</v>
-      </c>
-      <c r="G82" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H82" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24" t="s">
-        <v>611</v>
-      </c>
-      <c r="K82" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L82" s="24"/>
-      <c r="M82" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="N82" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="O82" s="27"/>
-      <c r="P82" s="27"/>
-      <c r="Q82" s="27"/>
-      <c r="R82" s="27"/>
-      <c r="S82" s="27"/>
-      <c r="T82" s="27"/>
-      <c r="U82" s="27"/>
-      <c r="V82" s="27"/>
-      <c r="W82" s="27"/>
-      <c r="X82" s="27"/>
-      <c r="Y82" s="27"/>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="8" t="n">
-        <v>82</v>
-      </c>
-      <c r="B83" s="19" t="s">
-        <v>612</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="D83" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="E83" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F83" s="23" t="str">
-        <f aca="false">C83&amp;D83&amp;E83</f>
-        <v>$(PREFIX_MOD03)StateIdx-Mon</v>
-      </c>
-      <c r="G83" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="H83" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24" t="s">
-        <v>613</v>
-      </c>
-      <c r="K83" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="L83" s="24"/>
-      <c r="M83" s="27"/>
-      <c r="N83" s="27"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
-      <c r="R83" s="17"/>
-      <c r="S83" s="17"/>
-      <c r="T83" s="17"/>
-      <c r="U83" s="17"/>
-      <c r="V83" s="17"/>
-      <c r="W83" s="17"/>
-      <c r="X83" s="17"/>
-      <c r="Y83" s="17"/>
-    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="B18:B32">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
@@ -16670,7 +15974,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E1:E83" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E1:E79" type="list">
       <formula1>"-Mon,-Sel,-Sts,-SP,-RB,-Cmd"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/etc/Delta_v2.xlsx
+++ b/etc/Delta_v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="586">
   <si>
     <t xml:space="preserve">Nº</t>
   </si>
@@ -283,6 +283,9 @@
     <t xml:space="preserve">ER_Mov_Stat_Mod_01</t>
   </si>
   <si>
+    <t xml:space="preserve">Ready</t>
+  </si>
+  <si>
     <t xml:space="preserve">Moving</t>
   </si>
   <si>
@@ -296,9 +299,6 @@
   </si>
   <si>
     <t xml:space="preserve">ER_Mov_Stat_Mod_01_Axis_CID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ready</t>
   </si>
   <si>
     <t xml:space="preserve">Module 01 CIE motion status</t>
@@ -3051,8 +3051,8 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F56" activeCellId="0" sqref="F56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3492,7 +3492,7 @@
       <c r="X7" s="17"/>
       <c r="Y7" s="17"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
         <v>7</v>
       </c>
@@ -3536,7 +3536,9 @@
       <c r="P8" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="Q8" s="17"/>
+      <c r="Q8" s="17" t="s">
+        <v>88</v>
+      </c>
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
@@ -3551,13 +3553,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>76</v>
@@ -3574,7 +3576,7 @@
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>32</v>
@@ -3585,13 +3587,13 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
       <c r="O9" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P9" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
@@ -3641,13 +3643,13 @@
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
       <c r="O10" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
@@ -3697,13 +3699,13 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
       <c r="O11" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P11" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
@@ -3753,13 +3755,13 @@
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
       <c r="O12" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P12" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
@@ -7386,8 +7388,8 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B81" activeCellId="0" sqref="B81"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7826,7 +7828,7 @@
       <c r="X7" s="17"/>
       <c r="Y7" s="17"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
         <v>7</v>
       </c>
@@ -7870,7 +7872,9 @@
       <c r="P8" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="Q8" s="17"/>
+      <c r="Q8" s="17" t="s">
+        <v>88</v>
+      </c>
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
@@ -7891,7 +7895,7 @@
         <v>301</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>76</v>
@@ -7919,13 +7923,13 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
       <c r="O9" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P9" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
@@ -7975,13 +7979,13 @@
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
       <c r="O10" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
@@ -8031,13 +8035,13 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
       <c r="O11" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P11" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
@@ -8087,13 +8091,13 @@
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
       <c r="O12" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P12" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
@@ -11665,8 +11669,8 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B83" activeCellId="0" sqref="B83"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12105,7 +12109,7 @@
       <c r="X7" s="17"/>
       <c r="Y7" s="17"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="n">
         <v>7</v>
       </c>
@@ -12149,7 +12153,9 @@
       <c r="P8" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="Q8" s="17"/>
+      <c r="Q8" s="17" t="s">
+        <v>88</v>
+      </c>
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
@@ -12170,7 +12176,7 @@
         <v>444</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>76</v>
@@ -12198,13 +12204,13 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
       <c r="O9" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P9" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
@@ -12254,13 +12260,13 @@
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
       <c r="O10" s="32" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q10" s="33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R10" s="34"/>
       <c r="S10" s="17"/>
@@ -12310,13 +12316,13 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
       <c r="O11" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P11" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
@@ -12366,13 +12372,13 @@
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
       <c r="O12" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="P12" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>

--- a/etc/Delta_v2.xlsx
+++ b/etc/Delta_v2.xlsx
@@ -682,7 +682,7 @@
     <t xml:space="preserve">Torque reference CID mod 01</t>
   </si>
   <si>
-    <t xml:space="preserve">CIDTorqueRef</t>
+    <t xml:space="preserve">CIDTorque</t>
   </si>
   <si>
     <t xml:space="preserve">%</t>
@@ -694,7 +694,7 @@
     <t xml:space="preserve">Torque reference CIE mod 01</t>
   </si>
   <si>
-    <t xml:space="preserve">CIETorqueRef</t>
+    <t xml:space="preserve">CIETorque</t>
   </si>
   <si>
     <t xml:space="preserve">CIE1_PHY.TorqueReference</t>
@@ -703,7 +703,7 @@
     <t xml:space="preserve">Torque reference CSD mod 01</t>
   </si>
   <si>
-    <t xml:space="preserve">CSDTorqueRef</t>
+    <t xml:space="preserve">CSDTorque</t>
   </si>
   <si>
     <t xml:space="preserve">CSD1_PHY.TorqueReference</t>
@@ -712,7 +712,7 @@
     <t xml:space="preserve">Torque reference CSE mod 01</t>
   </si>
   <si>
-    <t xml:space="preserve">CSETorqueRef</t>
+    <t xml:space="preserve">CSETorque</t>
   </si>
   <si>
     <t xml:space="preserve">CSE1_PHY.TorqueReference</t>
@@ -3051,8 +3051,8 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J53" activeCellId="0" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5900,7 +5900,7 @@
       </c>
       <c r="F53" s="13" t="str">
         <f aca="false">C53&amp;D53&amp;E53</f>
-        <v>$(PREFIX_MOD01)CIDTorqueRef-Mon</v>
+        <v>$(PREFIX_MOD01)CIDTorque-Mon</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>121</v>
@@ -5952,7 +5952,7 @@
       </c>
       <c r="F54" s="13" t="str">
         <f aca="false">C54&amp;D54&amp;E54</f>
-        <v>$(PREFIX_MOD01)CIETorqueRef-Mon</v>
+        <v>$(PREFIX_MOD01)CIETorque-Mon</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>121</v>
@@ -6004,7 +6004,7 @@
       </c>
       <c r="F55" s="13" t="str">
         <f aca="false">C55&amp;D55&amp;E55</f>
-        <v>$(PREFIX_MOD01)CSDTorqueRef-Mon</v>
+        <v>$(PREFIX_MOD01)CSDTorque-Mon</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>121</v>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="F56" s="13" t="str">
         <f aca="false">C56&amp;D56&amp;E56</f>
-        <v>$(PREFIX_MOD01)CSETorqueRef-Mon</v>
+        <v>$(PREFIX_MOD01)CSETorque-Mon</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>121</v>
@@ -7388,8 +7388,8 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J53" activeCellId="0" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10236,7 +10236,7 @@
       </c>
       <c r="F53" s="13" t="str">
         <f aca="false">C53&amp;D53&amp;E53</f>
-        <v>$(PREFIX_MOD02)CIDTorqueRef-Mon</v>
+        <v>$(PREFIX_MOD02)CIDTorque-Mon</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>121</v>
@@ -10288,7 +10288,7 @@
       </c>
       <c r="F54" s="13" t="str">
         <f aca="false">C54&amp;D54&amp;E54</f>
-        <v>$(PREFIX_MOD02)CIETorqueRef-Mon</v>
+        <v>$(PREFIX_MOD02)CIETorque-Mon</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>121</v>
@@ -10340,7 +10340,7 @@
       </c>
       <c r="F55" s="13" t="str">
         <f aca="false">C55&amp;D55&amp;E55</f>
-        <v>$(PREFIX_MOD02)CSDTorqueRef-Mon</v>
+        <v>$(PREFIX_MOD02)CSDTorque-Mon</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>121</v>
@@ -10392,7 +10392,7 @@
       </c>
       <c r="F56" s="13" t="str">
         <f aca="false">C56&amp;D56&amp;E56</f>
-        <v>$(PREFIX_MOD02)CSETorqueRef-Mon</v>
+        <v>$(PREFIX_MOD02)CSETorque-Mon</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>121</v>
@@ -11669,8 +11669,8 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14517,7 +14517,7 @@
       </c>
       <c r="F53" s="13" t="str">
         <f aca="false">C53&amp;D53&amp;E53</f>
-        <v>$(PREFIX_MOD03)CIDTorqueRef-Mon</v>
+        <v>$(PREFIX_MOD03)CIDTorque-Mon</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>121</v>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="F54" s="13" t="str">
         <f aca="false">C54&amp;D54&amp;E54</f>
-        <v>$(PREFIX_MOD03)CIETorqueRef-Mon</v>
+        <v>$(PREFIX_MOD03)CIETorque-Mon</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>121</v>
@@ -14621,7 +14621,7 @@
       </c>
       <c r="F55" s="13" t="str">
         <f aca="false">C55&amp;D55&amp;E55</f>
-        <v>$(PREFIX_MOD03)CSDTorqueRef-Mon</v>
+        <v>$(PREFIX_MOD03)CSDTorque-Mon</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>121</v>
@@ -14673,7 +14673,7 @@
       </c>
       <c r="F56" s="13" t="str">
         <f aca="false">C56&amp;D56&amp;E56</f>
-        <v>$(PREFIX_MOD03)CSETorqueRef-Mon</v>
+        <v>$(PREFIX_MOD03)CSETorque-Mon</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>121</v>

--- a/etc/Delta_v2.xlsx
+++ b/etc/Delta_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrei.pereira\Documents\Delta\etherip-ioc\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF315722-5CEC-4316-B67C-2CD327FA7E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6990324E-4DA0-41B2-9FFC-94F7CEF58792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="630">
   <si>
     <t>Nº</t>
   </si>
@@ -1842,6 +1842,93 @@
   </si>
   <si>
     <t>ER_Conf_Dec_Mod_03</t>
+  </si>
+  <si>
+    <t>Motor temperature CID mod 01</t>
+  </si>
+  <si>
+    <t>CIDMtrTemp</t>
+  </si>
+  <si>
+    <t>ER_Motor_Temperature_Mod_01_Axis_CID</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>Motor temperature CIE mod 01</t>
+  </si>
+  <si>
+    <t>CIEMtrTemp</t>
+  </si>
+  <si>
+    <t>ER_Motor_Temperature_Mod_01_Axis_CIE</t>
+  </si>
+  <si>
+    <t>Motor temperature CSD mod 01</t>
+  </si>
+  <si>
+    <t>CSDMtrTemp</t>
+  </si>
+  <si>
+    <t>ER_Motor_Temperature_Mod_01_Axis_CSD</t>
+  </si>
+  <si>
+    <t>Motor temperature CSE mod 01</t>
+  </si>
+  <si>
+    <t>CSEMtrTemp</t>
+  </si>
+  <si>
+    <t>ER_Motor_Temperature_Mod_01_Axis_CSE</t>
+  </si>
+  <si>
+    <t>Motor temperature CID mod 02</t>
+  </si>
+  <si>
+    <t>Motor temperature CIE mod 02</t>
+  </si>
+  <si>
+    <t>Motor temperature CSD mod 02</t>
+  </si>
+  <si>
+    <t>Motor temperature CSE mod 02</t>
+  </si>
+  <si>
+    <t>ER_Motor_Temperature_Mod_02_Axis_CID</t>
+  </si>
+  <si>
+    <t>ER_Motor_Temperature_Mod_02_Axis_CIE</t>
+  </si>
+  <si>
+    <t>ER_Motor_Temperature_Mod_02_Axis_CSD</t>
+  </si>
+  <si>
+    <t>ER_Motor_Temperature_Mod_02_Axis_CSE</t>
+  </si>
+  <si>
+    <t>Motor temperature CID mod 03</t>
+  </si>
+  <si>
+    <t>Motor temperature CIE mod 03</t>
+  </si>
+  <si>
+    <t>Motor temperature CSD mod 03</t>
+  </si>
+  <si>
+    <t>Motor temperature CSE mod 03</t>
+  </si>
+  <si>
+    <t>ER_Motor_Temperature_Mod_03_Axis_CID</t>
+  </si>
+  <si>
+    <t>ER_Motor_Temperature_Mod_03_Axis_CIE</t>
+  </si>
+  <si>
+    <t>ER_Motor_Temperature_Mod_03_Axis_CSD</t>
+  </si>
+  <si>
+    <t>ER_Motor_Temperature_Mod_03_Axis_CSE</t>
   </si>
 </sst>
 </file>
@@ -2735,8 +2822,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela1" displayName="Tabela1" ref="A1:Y79" totalsRowShown="0">
-  <autoFilter ref="A1:Y79" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela1" displayName="Tabela1" ref="A1:Y83" totalsRowShown="0">
+  <autoFilter ref="A1:Y83" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Nº"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Description"/>
@@ -2769,8 +2856,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabela2" displayName="Tabela2" ref="A1:Y79" totalsRowShown="0">
-  <autoFilter ref="A1:Y79" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabela2" displayName="Tabela2" ref="A1:Y83" totalsRowShown="0">
+  <autoFilter ref="A1:Y83" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Nº"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Description"/>
@@ -3135,7 +3222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -3144,7 +3231,7 @@
     <col min="2" max="2" width="37.26953125" customWidth="1"/>
     <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="14.7265625" customWidth="1"/>
-    <col min="6" max="6" width="30.26953125" customWidth="1"/>
+    <col min="6" max="6" width="32.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.453125" customWidth="1"/>
     <col min="8" max="8" width="9.453125" customWidth="1"/>
     <col min="10" max="10" width="22.81640625" customWidth="1"/>
@@ -3379,10 +3466,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y79"/>
+  <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3394,7 +3481,8 @@
     <col min="6" max="6" width="39.08984375" customWidth="1"/>
     <col min="7" max="7" width="12.453125" customWidth="1"/>
     <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="10" max="10" width="37.54296875" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.54296875" customWidth="1"/>
     <col min="14" max="14" width="10.26953125" customWidth="1"/>
     <col min="15" max="15" width="10.08984375" customWidth="1"/>
@@ -6905,7 +6993,7 @@
         <v>76</v>
       </c>
       <c r="F66" s="23" t="str">
-        <f t="shared" ref="F66:F97" si="2">C66&amp;D66&amp;E66</f>
+        <f t="shared" ref="F66:F79" si="2">C66&amp;D66&amp;E66</f>
         <v>$(PREFIX_MOD01)CIEPosLimSw-Mon</v>
       </c>
       <c r="G66" s="24" t="s">
@@ -7611,6 +7699,214 @@
       <c r="W79" s="27"/>
       <c r="X79" s="27"/>
       <c r="Y79" s="27"/>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A80" s="8">
+        <v>79</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="E80" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F80" s="23" t="str">
+        <f t="shared" ref="F80" si="3">C80&amp;D80&amp;E80</f>
+        <v>$(PREFIX_MOD01)CIDMtrTemp-Mon</v>
+      </c>
+      <c r="G80" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H80" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I80" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="J80" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="K80" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L80" s="24">
+        <v>1</v>
+      </c>
+      <c r="M80" s="27"/>
+      <c r="N80" s="27"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="27"/>
+      <c r="Q80" s="27"/>
+      <c r="R80" s="27"/>
+      <c r="S80" s="27"/>
+      <c r="T80" s="27"/>
+      <c r="U80" s="27"/>
+      <c r="V80" s="27"/>
+      <c r="W80" s="27"/>
+      <c r="X80" s="27"/>
+      <c r="Y80" s="27"/>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A81" s="18">
+        <v>80</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F81" s="23" t="str">
+        <f t="shared" ref="F81" si="4">C81&amp;D81&amp;E81</f>
+        <v>$(PREFIX_MOD01)CIEMtrTemp-Mon</v>
+      </c>
+      <c r="G81" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H81" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I81" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="J81" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="K81" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L81" s="24">
+        <v>1</v>
+      </c>
+      <c r="M81" s="27"/>
+      <c r="N81" s="27"/>
+      <c r="O81" s="27"/>
+      <c r="P81" s="27"/>
+      <c r="Q81" s="27"/>
+      <c r="R81" s="27"/>
+      <c r="S81" s="27"/>
+      <c r="T81" s="27"/>
+      <c r="U81" s="27"/>
+      <c r="V81" s="27"/>
+      <c r="W81" s="27"/>
+      <c r="X81" s="27"/>
+      <c r="Y81" s="27"/>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A82" s="18">
+        <v>81</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="E82" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F82" s="23" t="str">
+        <f t="shared" ref="F82" si="5">C82&amp;D82&amp;E82</f>
+        <v>$(PREFIX_MOD01)CSDMtrTemp-Mon</v>
+      </c>
+      <c r="G82" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H82" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I82" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="J82" s="24" t="s">
+        <v>610</v>
+      </c>
+      <c r="K82" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L82" s="24">
+        <v>1</v>
+      </c>
+      <c r="M82" s="27"/>
+      <c r="N82" s="27"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="27"/>
+      <c r="Q82" s="27"/>
+      <c r="R82" s="27"/>
+      <c r="S82" s="27"/>
+      <c r="T82" s="27"/>
+      <c r="U82" s="27"/>
+      <c r="V82" s="27"/>
+      <c r="W82" s="27"/>
+      <c r="X82" s="27"/>
+      <c r="Y82" s="27"/>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A83" s="18">
+        <v>82</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>611</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>612</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F83" s="23" t="str">
+        <f t="shared" ref="F83" si="6">C83&amp;D83&amp;E83</f>
+        <v>$(PREFIX_MOD01)CSEMtrTemp-Mon</v>
+      </c>
+      <c r="G83" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H83" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I83" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="J83" s="24" t="s">
+        <v>613</v>
+      </c>
+      <c r="K83" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L83" s="24">
+        <v>1</v>
+      </c>
+      <c r="M83" s="27"/>
+      <c r="N83" s="27"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="27"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="27"/>
+      <c r="S83" s="27"/>
+      <c r="T83" s="27"/>
+      <c r="U83" s="27"/>
+      <c r="V83" s="27"/>
+      <c r="W83" s="27"/>
+      <c r="X83" s="27"/>
+      <c r="Y83" s="27"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B19:B32">
@@ -7689,7 +7985,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E79" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E83" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"-Mon,-Sel,-Sts,-SP,-RB,-Cmd"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7704,10 +8000,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Y79"/>
+  <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7718,7 +8014,7 @@
     <col min="6" max="6" width="39.08984375" customWidth="1"/>
     <col min="7" max="7" width="12.453125" customWidth="1"/>
     <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="10" max="10" width="37.54296875" customWidth="1"/>
+    <col min="10" max="10" width="41.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.54296875" customWidth="1"/>
     <col min="14" max="14" width="10.26953125" customWidth="1"/>
     <col min="15" max="15" width="10.08984375" customWidth="1"/>
@@ -11229,7 +11525,7 @@
         <v>76</v>
       </c>
       <c r="F66" s="23" t="str">
-        <f t="shared" ref="F66:F97" si="2">C66&amp;D66&amp;E66</f>
+        <f t="shared" ref="F66:F83" si="2">C66&amp;D66&amp;E66</f>
         <v>$(PREFIX_MOD02)CIEPosLimSw-Mon</v>
       </c>
       <c r="G66" s="24" t="s">
@@ -11935,6 +12231,214 @@
       <c r="W79" s="17"/>
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A80" s="8">
+        <v>79</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>614</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="E80" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F80" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>$(PREFIX_MOD02)CIDMtrTemp-Mon</v>
+      </c>
+      <c r="G80" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H80" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I80" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="J80" s="24" t="s">
+        <v>618</v>
+      </c>
+      <c r="K80" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L80" s="24">
+        <v>1</v>
+      </c>
+      <c r="M80" s="27"/>
+      <c r="N80" s="27"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="27"/>
+      <c r="Q80" s="27"/>
+      <c r="R80" s="27"/>
+      <c r="S80" s="27"/>
+      <c r="T80" s="27"/>
+      <c r="U80" s="27"/>
+      <c r="V80" s="27"/>
+      <c r="W80" s="27"/>
+      <c r="X80" s="27"/>
+      <c r="Y80" s="27"/>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A81" s="18">
+        <v>80</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>615</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F81" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>$(PREFIX_MOD02)CIEMtrTemp-Mon</v>
+      </c>
+      <c r="G81" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H81" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I81" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="J81" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="K81" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L81" s="24">
+        <v>1</v>
+      </c>
+      <c r="M81" s="27"/>
+      <c r="N81" s="27"/>
+      <c r="O81" s="27"/>
+      <c r="P81" s="27"/>
+      <c r="Q81" s="27"/>
+      <c r="R81" s="27"/>
+      <c r="S81" s="27"/>
+      <c r="T81" s="27"/>
+      <c r="U81" s="27"/>
+      <c r="V81" s="27"/>
+      <c r="W81" s="27"/>
+      <c r="X81" s="27"/>
+      <c r="Y81" s="27"/>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A82" s="18">
+        <v>81</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>616</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="E82" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F82" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>$(PREFIX_MOD02)CSDMtrTemp-Mon</v>
+      </c>
+      <c r="G82" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H82" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I82" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="J82" s="24" t="s">
+        <v>620</v>
+      </c>
+      <c r="K82" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L82" s="24">
+        <v>1</v>
+      </c>
+      <c r="M82" s="27"/>
+      <c r="N82" s="27"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="27"/>
+      <c r="Q82" s="27"/>
+      <c r="R82" s="27"/>
+      <c r="S82" s="27"/>
+      <c r="T82" s="27"/>
+      <c r="U82" s="27"/>
+      <c r="V82" s="27"/>
+      <c r="W82" s="27"/>
+      <c r="X82" s="27"/>
+      <c r="Y82" s="27"/>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A83" s="18">
+        <v>82</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>612</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F83" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>$(PREFIX_MOD02)CSEMtrTemp-Mon</v>
+      </c>
+      <c r="G83" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H83" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I83" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="J83" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="K83" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L83" s="24">
+        <v>1</v>
+      </c>
+      <c r="M83" s="27"/>
+      <c r="N83" s="27"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="27"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="27"/>
+      <c r="S83" s="27"/>
+      <c r="T83" s="27"/>
+      <c r="U83" s="27"/>
+      <c r="V83" s="27"/>
+      <c r="W83" s="27"/>
+      <c r="X83" s="27"/>
+      <c r="Y83" s="27"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2 B19:B32">
@@ -11958,7 +12462,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E79" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E83" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"-Mon,-Sel,-Sts,-SP,-RB,-Cmd"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -11973,10 +12477,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y79"/>
+  <dimension ref="A1:Y83"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11987,7 +12491,7 @@
     <col min="6" max="6" width="39.08984375" customWidth="1"/>
     <col min="7" max="7" width="12.453125" customWidth="1"/>
     <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="10" max="10" width="37.54296875" customWidth="1"/>
+    <col min="10" max="10" width="41.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.54296875" customWidth="1"/>
     <col min="14" max="14" width="10.26953125" customWidth="1"/>
     <col min="15" max="15" width="10.08984375" customWidth="1"/>
@@ -15498,7 +16002,7 @@
         <v>76</v>
       </c>
       <c r="F66" s="23" t="str">
-        <f t="shared" ref="F66:F97" si="2">C66&amp;D66&amp;E66</f>
+        <f t="shared" ref="F66:F83" si="2">C66&amp;D66&amp;E66</f>
         <v>$(PREFIX_MOD03)CIEPosLimSw-Mon</v>
       </c>
       <c r="G66" s="24" t="s">
@@ -16204,6 +16708,214 @@
       <c r="W79" s="17"/>
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A80" s="8">
+        <v>79</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>622</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="E80" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F80" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>$(PREFIX_MOD03)CIDMtrTemp-Mon</v>
+      </c>
+      <c r="G80" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H80" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I80" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="J80" s="24" t="s">
+        <v>626</v>
+      </c>
+      <c r="K80" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L80" s="24">
+        <v>1</v>
+      </c>
+      <c r="M80" s="27"/>
+      <c r="N80" s="27"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="27"/>
+      <c r="Q80" s="27"/>
+      <c r="R80" s="27"/>
+      <c r="S80" s="27"/>
+      <c r="T80" s="27"/>
+      <c r="U80" s="27"/>
+      <c r="V80" s="27"/>
+      <c r="W80" s="27"/>
+      <c r="X80" s="27"/>
+      <c r="Y80" s="27"/>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A81" s="18">
+        <v>80</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F81" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>$(PREFIX_MOD03)CIEMtrTemp-Mon</v>
+      </c>
+      <c r="G81" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H81" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I81" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="J81" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="K81" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L81" s="24">
+        <v>1</v>
+      </c>
+      <c r="M81" s="27"/>
+      <c r="N81" s="27"/>
+      <c r="O81" s="27"/>
+      <c r="P81" s="27"/>
+      <c r="Q81" s="27"/>
+      <c r="R81" s="27"/>
+      <c r="S81" s="27"/>
+      <c r="T81" s="27"/>
+      <c r="U81" s="27"/>
+      <c r="V81" s="27"/>
+      <c r="W81" s="27"/>
+      <c r="X81" s="27"/>
+      <c r="Y81" s="27"/>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A82" s="18">
+        <v>81</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>624</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="E82" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F82" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>$(PREFIX_MOD03)CSDMtrTemp-Mon</v>
+      </c>
+      <c r="G82" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H82" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I82" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="J82" s="24" t="s">
+        <v>628</v>
+      </c>
+      <c r="K82" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L82" s="24">
+        <v>1</v>
+      </c>
+      <c r="M82" s="27"/>
+      <c r="N82" s="27"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="27"/>
+      <c r="Q82" s="27"/>
+      <c r="R82" s="27"/>
+      <c r="S82" s="27"/>
+      <c r="T82" s="27"/>
+      <c r="U82" s="27"/>
+      <c r="V82" s="27"/>
+      <c r="W82" s="27"/>
+      <c r="X82" s="27"/>
+      <c r="Y82" s="27"/>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A83" s="18">
+        <v>82</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>612</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F83" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>$(PREFIX_MOD03)CSEMtrTemp-Mon</v>
+      </c>
+      <c r="G83" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H83" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I83" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="J83" s="24" t="s">
+        <v>629</v>
+      </c>
+      <c r="K83" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L83" s="24">
+        <v>1</v>
+      </c>
+      <c r="M83" s="27"/>
+      <c r="N83" s="27"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="27"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="27"/>
+      <c r="S83" s="27"/>
+      <c r="T83" s="27"/>
+      <c r="U83" s="27"/>
+      <c r="V83" s="27"/>
+      <c r="W83" s="27"/>
+      <c r="X83" s="27"/>
+      <c r="Y83" s="27"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B18:B32">
@@ -16282,7 +16994,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E79" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E83" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"-Mon,-Sel,-Sts,-SP,-RB,-Cmd"</formula1>
       <formula2>0</formula2>
     </dataValidation>
